--- a/AAII_Financials/Quarterly/PEP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PEP_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>PEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,232 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43911</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F7" s="2">
         <v>43715</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43631</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43547</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43463</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43351</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43267</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43183</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43099</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42987</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42903</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42819</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13881000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20640000</v>
+      </c>
+      <c r="F8" s="3">
         <v>17188000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>16449000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>12884000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>19524000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>16485000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>16090000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>12562000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>19526000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>16240000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>15710000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>12049000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>19515000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>16027000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6125000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>9331000</v>
+      </c>
+      <c r="F9" s="3">
         <v>7684000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>7302000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>5666000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>8933000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>7527000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>7263000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>5655000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>9079000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>7368000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>7056000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>5290000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>8944000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>7284000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7756000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>11309000</v>
+      </c>
+      <c r="F10" s="3">
         <v>9504000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>9147000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>7218000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>10591000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>8958000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>8827000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>6907000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>10447000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>8872000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>8654000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>6759000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>10571000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>8743000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +953,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,52 +1003,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>97000</v>
+      </c>
+      <c r="F14" s="3">
         <v>105000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>182000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>41000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>272000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>35000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>32000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>8000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>164000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>6000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>34000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>26000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>54000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1042,23 +1088,29 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="3">
         <v>16000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>16000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>13000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>21000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11963000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>17943000</v>
+      </c>
+      <c r="F17" s="3">
         <v>14338000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>13720000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>10871000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>17093000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>13641000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>13062000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>10755000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>16956000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>13316000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>12720000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>10186000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>17134000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>13206000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1918000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2697000</v>
+      </c>
+      <c r="F18" s="3">
         <v>2850000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>2729000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>2013000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>2431000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>2844000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>3028000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1807000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2570000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2924000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>2990000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1863000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>2381000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>2821000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1244,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-142000</v>
+      </c>
+      <c r="F20" s="3">
         <v>93000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>121000</v>
       </c>
-      <c r="F20" s="3">
-        <v>150000</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>87000</v>
+      </c>
+      <c r="I20" s="3">
         <v>190000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>158000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>36000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>95000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>289000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>122000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>8000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>113000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-21000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2545000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3353000</v>
+      </c>
+      <c r="F21" s="3">
         <v>3521000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>3408000</v>
       </c>
-      <c r="F21" s="3">
-        <v>2661000</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>2598000</v>
+      </c>
+      <c r="I21" s="3">
         <v>3384000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>3568000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>3638000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>2398000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>3624000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>3619000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>3552000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>2453000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>3117000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>3457000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>301000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>347000</v>
+      </c>
+      <c r="F22" s="3">
         <v>274000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>283000</v>
       </c>
-      <c r="F22" s="3">
-        <v>295000</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
+        <v>232000</v>
+      </c>
+      <c r="I22" s="3">
         <v>686000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>305000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>164000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>245000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>528000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>270000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>224000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>255000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>529000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>286000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1711000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2208000</v>
+      </c>
+      <c r="F23" s="3">
         <v>2669000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>2567000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1868000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1935000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>2697000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>2900000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1657000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2331000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2776000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2774000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1721000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1831000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2604000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>360000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>409000</v>
+      </c>
+      <c r="F24" s="3">
         <v>559000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>524000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>475000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-4050000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>112000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>293000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>303000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>526000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>620000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>656000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>392000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>414000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>600000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1351000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1799000</v>
+      </c>
+      <c r="F26" s="3">
         <v>2110000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>2043000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1393000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>5985000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>2585000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>2607000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1354000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1805000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2156000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>2118000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1329000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1417000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>2004000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1338000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1787000</v>
+      </c>
+      <c r="F27" s="3">
         <v>2100000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>2035000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1384000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>5972000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>2574000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>2597000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1342000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1789000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2143000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>2105000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1316000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1398000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,40 +1690,46 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>-21000</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>29000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="I29" s="3">
         <v>882000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>-76000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-777000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-1000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-2500000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1618,8 +1740,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1840,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>142000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-93000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-121000</v>
       </c>
-      <c r="F32" s="3">
-        <v>-150000</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-190000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-158000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-36000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-95000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-289000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-122000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-8000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-113000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>21000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-69000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1338000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1766000</v>
+      </c>
+      <c r="F33" s="3">
         <v>2100000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>2035000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1413000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>6854000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>2498000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1820000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1341000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-711000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2143000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>2105000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1316000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1398000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1338000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1766000</v>
+      </c>
+      <c r="F35" s="3">
         <v>2100000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>2035000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1413000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>6854000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>2498000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1820000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1341000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-711000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2143000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>2105000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1316000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1398000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43911</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F38" s="2">
         <v>43715</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43631</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43547</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43463</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43351</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43267</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43183</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43099</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42987</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42903</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42819</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,404 +2139,460 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11089000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5509000</v>
+      </c>
+      <c r="F41" s="3">
         <v>5494000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3293000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>5072000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>8721000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>11991000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>13858000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>13443000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>10610000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>10243000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>10282000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>9528000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>9158000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>10256000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>158000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>229000</v>
+      </c>
+      <c r="F42" s="3">
         <v>287000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>291000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>289000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>272000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>1907000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>4271000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>7167000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>8900000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>8035000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>6878000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>6461000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>6967000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>4524000</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8477000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>7822000</v>
+      </c>
+      <c r="F43" s="3">
         <v>8735000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>8502000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>7604000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>7142000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>7975000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>7841000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>7171000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>7024000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>7923000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>7543000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>6848000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>6694000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>7745000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3600000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3338000</v>
+      </c>
+      <c r="F44" s="3">
         <v>3667000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>3988000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>3554000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>3128000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>3142000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>3491000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>3335000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>2947000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>3251000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>3612000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>3282000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>2723000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>3120000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>944000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>747000</v>
+      </c>
+      <c r="F45" s="3">
         <v>1015000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1138000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1398000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2630000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>827000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>909000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1931000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1546000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>745000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>933000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1031000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>908000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1454000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>24268000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>17645000</v>
+      </c>
+      <c r="F46" s="3">
         <v>19198000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>17212000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>17917000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>21893000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>25842000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>30370000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>33047000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>31027000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>30197000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>29248000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>27150000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>26450000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>27099000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2719000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2683000</v>
+      </c>
+      <c r="F47" s="3">
         <v>2690000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>2510000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>2476000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>2409000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>2394000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>2401000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>2115000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>2042000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1950000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1962000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>2003000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>2055000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1975000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>18980000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>20853000</v>
+      </c>
+      <c r="F48" s="3">
         <v>19085000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>18915000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>18966000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>17589000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>16541000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>16762000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>17141000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>17240000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>16960000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>16742000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>16649000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>53409000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>16305000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>31444000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>31544000</v>
+      </c>
+      <c r="F49" s="3">
         <v>31150000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>31213000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>30920000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>30633000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>27798000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>28221000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>28638000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>28582000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>28585000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>28383000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>28181000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>27863000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>27675000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2685,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7651000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>5822000</v>
+      </c>
+      <c r="F52" s="3">
         <v>5321000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>5234000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>5187000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>5124000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1057000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>977000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>946000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>913000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>771000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>608000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>639000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1167000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>843000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2785,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>85062000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>78547000</v>
+      </c>
+      <c r="F54" s="3">
         <v>77444000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>75084000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>75466000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>77648000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>73632000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>78731000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>81887000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>79804000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>78463000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>76943000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>74622000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>73490000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>73897000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,113 +2879,127 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>16196000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>17099000</v>
+      </c>
+      <c r="F57" s="3">
         <v>16795000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>16055000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>15419000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>18112000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>15230000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>14603000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>14285000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>15017000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>14641000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>13834000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>13067000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>20401000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>14305000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5882000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2920000</v>
+      </c>
+      <c r="F58" s="3">
         <v>2924000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>3473000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>3291000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>4026000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>4474000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>9955000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>11600000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>5485000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>7717000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>8279000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>8577000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>13784000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>6284000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="3">
+        <v>442000</v>
+      </c>
+      <c r="F59" s="3">
         <v>412000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>400000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>380000</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>8</v>
@@ -2733,158 +3007,182 @@
       <c r="J59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3">
-        <v>8085000</v>
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>8085000</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>22078000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>20461000</v>
+      </c>
+      <c r="F60" s="3">
         <v>20131000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>19928000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>19090000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>22138000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>19704000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>24558000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>25885000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>20502000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>22358000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>22113000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>21644000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>21135000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>20589000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>35361000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>29148000</v>
+      </c>
+      <c r="F61" s="3">
         <v>29630000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>27712000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>28458000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>28295000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>30643000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>30638000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>31931000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>33796000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>31452000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>31205000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>30081000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>30053000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>29322000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14064000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>14070000</v>
+      </c>
+      <c r="F62" s="3">
         <v>13459000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>13407000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>13622000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>12613000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>12896000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>13314000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>13086000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>14525000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>11242000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>11095000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>11214000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>11103000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>11268000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3325,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>71597000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>63761000</v>
+      </c>
+      <c r="F66" s="3">
         <v>63315000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>61132000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>61264000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>63130000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>63346000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>68620000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>71004000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>68915000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>65168000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>64539000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>63053000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>62395000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>61295000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3192,25 +3528,31 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>-156000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>-155000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>-153000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>-153000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>-151000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>-148000</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3595,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>61920000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>61946000</v>
+      </c>
+      <c r="F72" s="3">
         <v>61514000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>60752000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>60060000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>59947000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>54404000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>53223000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>52726000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>52839000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>54698000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>53706000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>52756000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>52518000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>52200000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13465000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>14786000</v>
+      </c>
+      <c r="F76" s="3">
         <v>14129000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>13952000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>14202000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>14518000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>10286000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>10111000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>10883000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>11045000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>13450000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>12557000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>11722000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>11246000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>12750000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43911</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F80" s="2">
         <v>43715</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43631</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43547</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43463</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43351</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43267</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43183</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43099</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42987</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42903</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42819</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1338000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1766000</v>
+      </c>
+      <c r="F81" s="3">
         <v>2100000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>2035000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1413000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>6854000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>2498000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1820000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1341000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-711000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2143000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>2105000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1316000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1398000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4024,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>533000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>798000</v>
+      </c>
+      <c r="F83" s="3">
         <v>578000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>558000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>498000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>763000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>566000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>574000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>496000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>765000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>573000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>554000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>477000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>757000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>567000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-749000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>4586000</v>
+      </c>
+      <c r="F89" s="3">
         <v>3675000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1733000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-345000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>4683000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>3645000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>2396000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1309000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>3943000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>3836000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>2444000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-193000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>3849000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>3717000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4394,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-484000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2273000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-792000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-725000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-442000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1704000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-633000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-593000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-352000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1495000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-596000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-561000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-634000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-2948000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1294000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4540,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-925000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2152000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1014000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-971000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-2300000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1034000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>1771000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>2431000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>1396000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2125000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1707000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-840000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>269000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-4117000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1423000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4614,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1349000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-1333000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1336000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-1303000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-1332000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-1309000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-1316000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-1145000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-1160000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-1148000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-1149000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-1077000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-1098000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-1083000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-1084000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4810,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>7462000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2660000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-390000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-2563000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-2876000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-4898000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-7213000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-4340000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2682000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1411000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-2193000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-839000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>257000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-556000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1636000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>89000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-35000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-33000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>57000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-25000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-54000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-68000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>49000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-29000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>40000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-7000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>43000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-234000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5722000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-137000</v>
+      </c>
+      <c r="F102" s="3">
         <v>2236000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1834000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-5464000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1274000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1851000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>419000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>2818000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>378000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-24000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>758000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>376000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1098000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>610000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PEP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PEP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>PEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43995</v>
+      </c>
+      <c r="E7" s="2">
         <v>43911</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43715</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43631</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43547</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43351</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43267</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43183</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42987</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42903</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42819</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15945000</v>
+      </c>
+      <c r="E8" s="3">
         <v>13881000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>20640000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>17188000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>16449000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12884000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>19524000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>16485000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16090000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12562000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>19526000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16240000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>15710000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12049000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>19515000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>16027000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7087000</v>
+      </c>
+      <c r="E9" s="3">
         <v>6125000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9331000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7684000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7302000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5666000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8933000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7527000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7263000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5655000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9079000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7368000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7056000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5290000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8944000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7284000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8858000</v>
+      </c>
+      <c r="E10" s="3">
         <v>7756000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>11309000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9504000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9147000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7218000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>10591000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8958000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8827000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6907000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>10447000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8872000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8654000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6759000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>10571000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8743000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,58 +1026,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E14" s="3">
         <v>38000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>97000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>105000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>182000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>41000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>272000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>35000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>32000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>164000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>34000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>26000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>54000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1094,23 +1117,26 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>16000</v>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O15" s="3">
         <v>16000</v>
       </c>
       <c r="P15" s="3">
+        <v>16000</v>
+      </c>
+      <c r="Q15" s="3">
         <v>13000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>21000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13627000</v>
+      </c>
+      <c r="E17" s="3">
         <v>11963000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>17943000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14338000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13720000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10871000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>17093000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13641000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13062000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10755000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16956000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13316000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12720000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10186000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>17134000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13206000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2318000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1918000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2697000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2850000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2729000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2013000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2431000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2844000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3028000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1807000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2570000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2924000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2990000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1863000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2381000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2821000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,258 +1279,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E20" s="3">
         <v>94000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-142000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>93000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>121000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>87000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>190000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>158000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>36000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>95000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>289000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>122000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>8000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>113000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-21000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2993000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2545000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3353000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3521000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3408000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2598000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3384000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3568000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3638000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2398000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3624000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3619000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3552000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2453000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3117000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3457000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>236000</v>
+      </c>
+      <c r="E22" s="3">
         <v>301000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>347000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>274000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>283000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>232000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>686000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>305000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>164000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>245000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>528000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>270000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>224000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>255000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>529000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>286000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2168000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1711000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2208000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2669000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2567000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1868000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1935000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2697000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2900000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1657000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2331000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2776000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2774000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1721000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1831000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2604000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>510000</v>
+      </c>
+      <c r="E24" s="3">
         <v>360000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>409000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>559000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>524000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>475000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-4050000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>112000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>293000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>303000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>526000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>620000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>656000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>392000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>414000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>600000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1658000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1351000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1799000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2110000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2043000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1393000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5985000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2585000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2607000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1354000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1805000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2156000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2118000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1329000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1417000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2004000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1646000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1338000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1787000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2100000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2035000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1384000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5972000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2574000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2597000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1342000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1789000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2143000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2105000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1316000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1398000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,43 +1754,46 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
         <v>-21000</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>29000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>882000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-76000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-777000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-1000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-2500000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-86000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-94000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>142000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-93000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-121000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-87000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-190000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-158000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-36000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-95000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-289000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-122000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-8000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-113000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>21000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-69000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1646000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1338000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1766000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2100000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2035000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1413000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6854000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2498000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1820000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1341000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-711000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2143000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2105000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1316000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1398000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1646000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1338000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1766000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2100000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2035000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1413000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6854000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2498000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1820000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1341000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-711000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2143000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2105000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1316000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1398000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43995</v>
+      </c>
+      <c r="E38" s="2">
         <v>43911</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43715</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43631</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43547</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43351</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43267</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43183</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42987</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42903</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42819</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,458 +2227,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8927000</v>
+      </c>
+      <c r="E41" s="3">
         <v>11089000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5509000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5494000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3293000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5072000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8721000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11991000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13858000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13443000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10610000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10243000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10282000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9528000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9158000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10256000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>196000</v>
+      </c>
+      <c r="E42" s="3">
         <v>158000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>229000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>287000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>291000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>289000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>272000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1907000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4271000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>7167000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>8900000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>8035000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>6878000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>6461000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>6967000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4524000</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8780000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8477000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7822000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8735000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8502000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7604000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7142000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7975000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7841000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7171000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7024000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7923000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7543000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6848000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6694000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7745000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4314000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3600000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3338000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3667000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3988000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3554000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3128000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3142000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3491000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3335000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2947000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3251000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3612000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3282000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2723000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3120000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>972000</v>
+      </c>
+      <c r="E45" s="3">
         <v>944000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>747000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1015000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1138000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1398000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2630000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>827000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>909000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1931000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1546000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>745000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>933000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1031000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>908000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1454000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>23189000</v>
+      </c>
+      <c r="E46" s="3">
         <v>24268000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>17645000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>19198000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>17212000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>17917000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>21893000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>25842000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>30370000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>33047000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>31027000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>30197000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>29248000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>27150000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>26450000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>27099000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2715000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2719000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2683000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2690000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2510000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2476000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2409000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2394000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2401000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2115000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2042000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1950000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1962000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2003000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2055000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1975000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19187000</v>
+      </c>
+      <c r="E48" s="3">
         <v>18980000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>20853000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>19085000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>18915000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>18966000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>17589000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>16541000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16762000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>17141000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17240000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16960000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16742000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16649000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>53409000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16305000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>36840000</v>
+      </c>
+      <c r="E49" s="3">
         <v>31444000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>31544000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>31150000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>31213000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>30920000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>30633000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>27798000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>28221000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>28638000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>28582000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>28585000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>28383000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>28181000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>27863000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>27675000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7594000</v>
+      </c>
+      <c r="E52" s="3">
         <v>7651000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5822000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5321000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5234000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5187000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5124000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1057000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>977000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>946000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>913000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>771000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>608000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>639000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1167000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>843000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>89525000</v>
+      </c>
+      <c r="E54" s="3">
         <v>85062000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>78547000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>77444000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>75084000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>75466000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>77648000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>73632000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>78731000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>81887000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>79804000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>78463000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>76943000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>74622000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>73490000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>73897000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,128 +3011,135 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>17220000</v>
+      </c>
+      <c r="E57" s="3">
         <v>16196000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>17099000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>16795000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>16055000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>15419000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>18112000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>15230000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>14603000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>14285000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>15017000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>14641000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>13834000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>13067000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>20401000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>14305000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6607000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5882000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2920000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2924000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3473000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3291000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4026000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4474000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9955000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>11600000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5485000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7717000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8279000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8577000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>13784000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6284000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="3">
         <v>442000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>412000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>400000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>380000</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
@@ -3013,8 +3150,8 @@
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -3022,167 +3159,179 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-      <c r="P59" s="3" t="s">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8085000</v>
       </c>
-      <c r="R59" s="3" t="s">
+      <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23827000</v>
+      </c>
+      <c r="E60" s="3">
         <v>22078000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>20461000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>20131000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>19928000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>19090000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>22138000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>19704000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>24558000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>25885000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>20502000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>22358000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>22113000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>21644000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>21135000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>20589000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>38371000</v>
+      </c>
+      <c r="E61" s="3">
         <v>35361000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>29148000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>29630000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>27712000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>28458000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>28295000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>30643000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>30638000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>31931000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>33796000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>31452000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>31205000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>30081000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>30053000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>29322000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14740000</v>
+      </c>
+      <c r="E62" s="3">
         <v>14064000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14070000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13459000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13407000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13622000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>12613000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>12896000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13314000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13086000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14525000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11242000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11095000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11214000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11103000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>11268000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>77034000</v>
+      </c>
+      <c r="E66" s="3">
         <v>71597000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>63761000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>63315000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>61132000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>61264000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>63130000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>63346000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>68620000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>71004000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>68915000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>65168000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>64539000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>63053000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>62395000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>61295000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3534,25 +3702,28 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>-156000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>-155000</v>
-      </c>
-      <c r="O70" s="3">
-        <v>-153000</v>
       </c>
       <c r="P70" s="3">
         <v>-153000</v>
       </c>
       <c r="Q70" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="R70" s="3">
         <v>-151000</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>-148000</v>
       </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>62145000</v>
+      </c>
+      <c r="E72" s="3">
         <v>61920000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>61946000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>61514000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>60752000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>60060000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>59947000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>54404000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>53223000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>52726000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>52839000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>54698000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>53706000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>52756000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>52518000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>52200000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12491000</v>
+      </c>
+      <c r="E76" s="3">
         <v>13465000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14786000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14129000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13952000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14202000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14518000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10286000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10111000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10883000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11045000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13450000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12557000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11722000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11246000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12750000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43995</v>
+      </c>
+      <c r="E80" s="2">
         <v>43911</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43715</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43631</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43547</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43351</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43267</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43183</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42987</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42903</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42819</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1646000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1338000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1766000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2100000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2035000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1413000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6854000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2498000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1820000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1341000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-711000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2143000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2105000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1316000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1398000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4224,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>589000</v>
+      </c>
+      <c r="E83" s="3">
         <v>533000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>798000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>578000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>558000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>498000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>763000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>566000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>574000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>496000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>765000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>573000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>554000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>477000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>757000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>567000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2211000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-749000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4586000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3675000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1733000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-345000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4683000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3645000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2396000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1309000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3943000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3836000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2444000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-193000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3849000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3717000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-704000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-484000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2273000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-792000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-725000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-442000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1704000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-633000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-593000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-352000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1495000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-596000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-561000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-634000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2948000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1294000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5837000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-925000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2152000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1014000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-971000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2300000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1034000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1771000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2431000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1396000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2125000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1707000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-840000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>269000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4117000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1423000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,58 +4849,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1328000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1349000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1333000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1336000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1303000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1332000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1309000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1316000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1145000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1160000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1148000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1149000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1077000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1098000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1083000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1084000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5059,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1509000</v>
+      </c>
+      <c r="E100" s="3">
         <v>7462000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2660000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-390000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2563000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2876000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4898000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7213000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4340000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2682000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1411000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2193000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-839000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>257000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-556000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1636000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-186000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-66000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>89000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-35000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-33000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>57000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-25000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-54000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-68000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>49000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-29000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>40000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-7000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>43000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-234000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2303000</v>
+      </c>
+      <c r="E102" s="3">
         <v>5722000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-137000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2236000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1834000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5464000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1274000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1851000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>419000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2818000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>378000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-24000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>758000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>376000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1098000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>610000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PEP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PEP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>PEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,257 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44079</v>
+      </c>
+      <c r="E7" s="2">
         <v>43995</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43911</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43715</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43631</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43547</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43351</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43267</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43183</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42987</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42903</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42819</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>18091000</v>
+      </c>
+      <c r="E8" s="3">
         <v>15945000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13881000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>20640000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>17188000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16449000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12884000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>19524000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16485000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16090000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12562000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>19526000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16240000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>15710000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12049000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>19515000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>16027000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8155000</v>
+      </c>
+      <c r="E9" s="3">
         <v>7087000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6125000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9331000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7684000</v>
       </c>
-      <c r="H9" s="3">
-        <v>7302000</v>
-      </c>
       <c r="I9" s="3">
+        <v>7322000</v>
+      </c>
+      <c r="J9" s="3">
         <v>5666000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8933000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7527000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7263000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5655000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9079000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7368000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7056000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5290000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8944000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7284000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9936000</v>
+      </c>
+      <c r="E10" s="3">
         <v>8858000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7756000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>11309000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9504000</v>
       </c>
-      <c r="H10" s="3">
-        <v>9147000</v>
-      </c>
       <c r="I10" s="3">
+        <v>9127000</v>
+      </c>
+      <c r="J10" s="3">
         <v>7218000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>10591000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8958000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8827000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6907000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>10447000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8872000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8654000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6759000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>10571000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8743000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,61 +1045,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E14" s="3">
         <v>24000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>38000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>97000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>105000</v>
       </c>
-      <c r="H14" s="3">
-        <v>182000</v>
-      </c>
       <c r="I14" s="3">
+        <v>282000</v>
+      </c>
+      <c r="J14" s="3">
         <v>41000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>272000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>35000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>32000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>164000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>34000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>26000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>54000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1120,23 +1142,26 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
-        <v>16000</v>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P15" s="3">
         <v>16000</v>
       </c>
       <c r="Q15" s="3">
+        <v>16000</v>
+      </c>
+      <c r="R15" s="3">
         <v>13000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>21000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15081000</v>
+      </c>
+      <c r="E17" s="3">
         <v>13627000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11963000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>17943000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14338000</v>
       </c>
-      <c r="H17" s="3">
-        <v>13720000</v>
-      </c>
       <c r="I17" s="3">
+        <v>13730000</v>
+      </c>
+      <c r="J17" s="3">
         <v>10871000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>17093000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13641000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13062000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10755000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16956000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13316000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12720000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10186000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>17134000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13206000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3010000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2318000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1918000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2697000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2850000</v>
       </c>
-      <c r="H18" s="3">
-        <v>2729000</v>
-      </c>
       <c r="I18" s="3">
+        <v>2719000</v>
+      </c>
+      <c r="J18" s="3">
         <v>2013000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2431000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2844000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3028000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1807000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2570000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2924000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2990000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1863000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2381000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2821000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E20" s="3">
         <v>86000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>94000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-142000</v>
       </c>
-      <c r="G20" s="3">
-        <v>93000</v>
-      </c>
       <c r="H20" s="3">
-        <v>121000</v>
+        <v>55000</v>
       </c>
       <c r="I20" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="J20" s="3">
         <v>87000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>190000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>158000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>36000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>95000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>289000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>122000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>8000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>113000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-21000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3702000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2993000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2545000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3353000</v>
       </c>
-      <c r="G21" s="3">
-        <v>3521000</v>
-      </c>
       <c r="H21" s="3">
-        <v>3408000</v>
+        <v>3483000</v>
       </c>
       <c r="I21" s="3">
+        <v>3270000</v>
+      </c>
+      <c r="J21" s="3">
         <v>2598000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3384000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3568000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3638000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2398000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3624000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3619000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3552000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2453000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3117000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3457000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>260000</v>
+      </c>
+      <c r="E22" s="3">
         <v>236000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>301000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>347000</v>
       </c>
-      <c r="G22" s="3">
-        <v>274000</v>
-      </c>
       <c r="H22" s="3">
-        <v>283000</v>
+        <v>236000</v>
       </c>
       <c r="I22" s="3">
+        <v>145000</v>
+      </c>
+      <c r="J22" s="3">
         <v>232000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>686000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>305000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>164000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>245000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>528000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>270000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>224000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>255000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>529000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>286000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2833000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2168000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1711000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2208000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2669000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2567000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1868000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1935000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2697000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2900000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1657000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2331000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2776000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2774000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1721000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1831000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2604000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>526000</v>
+      </c>
+      <c r="E24" s="3">
         <v>510000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>360000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>409000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>559000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>524000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>475000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-4050000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>112000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>293000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>303000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>526000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>620000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>656000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>392000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>414000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>600000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2307000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1658000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1351000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1799000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2110000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2043000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1393000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5985000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2585000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2607000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1354000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1805000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2156000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2118000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1329000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1417000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2004000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2291000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1646000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1338000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1787000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2100000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2035000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1384000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5972000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2574000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2597000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1342000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1789000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2143000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2105000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1316000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1398000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1768,35 +1828,35 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
         <v>-21000</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>29000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>882000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-76000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-777000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-1000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-2500000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-83000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-86000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-94000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>142000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-93000</v>
-      </c>
       <c r="H32" s="3">
-        <v>-121000</v>
+        <v>-55000</v>
       </c>
       <c r="I32" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-87000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-190000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-158000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-36000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-95000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-289000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-122000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-113000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>21000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-69000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2291000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1646000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1338000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1766000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2100000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2035000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1413000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6854000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2498000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1820000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1341000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-711000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2143000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2105000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1316000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1398000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2291000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1646000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1338000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1766000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2100000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2035000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1413000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6854000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2498000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1820000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1341000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-711000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2143000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2105000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1316000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1398000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44079</v>
+      </c>
+      <c r="E38" s="2">
         <v>43995</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43911</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43715</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43631</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43547</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43351</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43267</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43183</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42987</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42903</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42819</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,485 +2313,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9094000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8927000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11089000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5509000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5494000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3293000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5072000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8721000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11991000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13858000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13443000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10610000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10243000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10282000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9528000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9158000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10256000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>611000</v>
+      </c>
+      <c r="E42" s="3">
         <v>196000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>158000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>229000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>287000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>291000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>289000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>272000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1907000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4271000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>7167000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>8900000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>8035000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>6878000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>6461000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>6967000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4524000</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9295000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8780000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8477000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7822000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8735000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8502000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7604000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7142000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7975000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7841000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7171000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7024000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7923000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7543000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6848000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6694000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7745000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4135000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4314000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3600000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3338000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3667000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3988000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3554000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3128000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3142000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3491000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3335000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2947000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3251000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3612000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3282000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2723000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3120000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>925000</v>
+      </c>
+      <c r="E45" s="3">
         <v>972000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>944000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>747000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1015000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1138000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1398000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2630000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>827000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>909000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1931000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1546000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>745000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>933000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1031000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>908000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1454000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>24060000</v>
+      </c>
+      <c r="E46" s="3">
         <v>23189000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>24268000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>17645000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>19198000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>17212000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>17917000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>21893000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>25842000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>30370000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>33047000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>31027000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>30197000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>29248000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>27150000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>26450000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>27099000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2752000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2715000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2719000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2683000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2690000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2510000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2476000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2409000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2394000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2401000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2115000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2042000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1950000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1962000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2003000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2055000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1975000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19726000</v>
+      </c>
+      <c r="E48" s="3">
         <v>19187000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>18980000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>20853000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>19085000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>18915000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>18966000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>17589000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16541000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16762000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17141000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>17240000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16960000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16742000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16649000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>53409000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>16305000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>37789000</v>
+      </c>
+      <c r="E49" s="3">
         <v>36840000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>31444000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>31544000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>31150000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>31213000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>30920000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>30633000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>27798000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>28221000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>28638000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>28582000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>28585000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>28383000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>28181000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>27863000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>27675000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7714000</v>
+      </c>
+      <c r="E52" s="3">
         <v>7594000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7651000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5822000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5321000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5234000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5187000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5124000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1057000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>977000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>946000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>913000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>771000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>608000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>639000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1167000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>843000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>92041000</v>
+      </c>
+      <c r="E54" s="3">
         <v>89525000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>85062000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>78547000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>77444000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>75084000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>75466000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>77648000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>73632000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>78731000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>81887000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>79804000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>78463000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>76943000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>74622000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>73490000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>73897000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,114 +3141,121 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19317000</v>
+      </c>
+      <c r="E57" s="3">
         <v>17220000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>16196000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>17099000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>16795000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>16055000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>15419000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>18112000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>15230000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>14603000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>14285000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>15017000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>14641000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>13834000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>13067000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>20401000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>14305000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6692000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6607000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5882000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2920000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2924000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3473000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3291000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4026000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4474000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9955000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>11600000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5485000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7717000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8279000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8577000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>13784000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6284000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3129,20 +3265,20 @@
       <c r="E59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="3">
         <v>442000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>412000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>400000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>380000</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>8</v>
@@ -3153,8 +3289,8 @@
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3162,176 +3298,188 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-      <c r="Q59" s="3" t="s">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8085000</v>
       </c>
-      <c r="S59" s="3" t="s">
+      <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>26009000</v>
+      </c>
+      <c r="E60" s="3">
         <v>23827000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>22078000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>20461000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>20131000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>19928000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>19090000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>22138000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19704000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>24558000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>25885000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>20502000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>22358000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>22113000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>21644000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>21135000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>20589000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>37879000</v>
+      </c>
+      <c r="E61" s="3">
         <v>38371000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>35361000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>29148000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>29630000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>27712000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>28458000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>28295000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>30643000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>30638000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>31931000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>33796000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>31452000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>31205000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>30081000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>30053000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>29322000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14558000</v>
+      </c>
+      <c r="E62" s="3">
         <v>14740000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14064000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14070000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13459000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13407000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13622000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>12613000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12896000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13314000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13086000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14525000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11242000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11095000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11214000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>11103000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>11268000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>78558000</v>
+      </c>
+      <c r="E66" s="3">
         <v>77034000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>71597000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>63761000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>63315000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>61132000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>61264000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>63130000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>63346000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>68620000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>71004000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>68915000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>65168000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>64539000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>63053000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>62395000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>61295000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3705,25 +3872,28 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>-156000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>-155000</v>
-      </c>
-      <c r="P70" s="3">
-        <v>-153000</v>
       </c>
       <c r="Q70" s="3">
         <v>-153000</v>
       </c>
       <c r="R70" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="S70" s="3">
         <v>-151000</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>-148000</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>63013000</v>
+      </c>
+      <c r="E72" s="3">
         <v>62145000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>61920000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>61946000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>61514000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>60752000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>60060000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>59947000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>54404000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>53223000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>52726000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>52839000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>54698000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>53706000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>52756000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>52518000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>52200000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13483000</v>
+      </c>
+      <c r="E76" s="3">
         <v>12491000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13465000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14786000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14129000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13952000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14202000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14518000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10286000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10111000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10883000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11045000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13450000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12557000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11722000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11246000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12750000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44079</v>
+      </c>
+      <c r="E80" s="2">
         <v>43995</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43911</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43715</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43631</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43547</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43351</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43267</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43183</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42987</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42903</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42819</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2291000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1646000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1338000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1766000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2100000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2035000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1413000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6854000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2498000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1820000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1341000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-711000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2143000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2105000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1316000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1398000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>609000</v>
+      </c>
+      <c r="E83" s="3">
         <v>589000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>533000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>798000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>578000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>558000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>498000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>763000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>566000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>574000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>496000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>765000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>573000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>554000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>477000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>757000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>567000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4661000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2211000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-749000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4586000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3675000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1733000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-345000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4683000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3645000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2396000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1309000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3943000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3836000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2444000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-193000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3849000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3717000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-886000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-704000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-484000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2273000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-792000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-725000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-442000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1704000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-633000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-593000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-352000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1495000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-596000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-561000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-634000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2948000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1294000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1999000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5837000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-925000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2152000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1014000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-971000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2300000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1034000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1771000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2431000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1396000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2125000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1707000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-840000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>269000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4117000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1423000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1417000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1328000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1349000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1333000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1336000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1303000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1332000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1309000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1316000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1145000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1160000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1148000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1149000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1077000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1098000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1083000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1084000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2560000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1509000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>7462000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2660000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-390000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2563000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2876000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4898000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7213000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4340000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2682000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1411000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2193000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-839000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>257000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-556000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1636000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-186000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-66000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>89000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-35000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-33000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>57000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-25000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-54000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-68000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>49000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-29000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>40000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>43000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-234000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>170000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2303000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5722000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-137000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2236000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1834000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5464000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1274000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1851000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>419000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2818000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>378000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-24000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>758000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>376000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1098000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>610000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PEP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PEP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>PEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E7" s="2">
         <v>44079</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43995</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43911</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43827</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43715</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43631</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43547</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43351</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43267</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43183</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43099</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42987</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42903</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42819</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>22455000</v>
+      </c>
+      <c r="E8" s="3">
         <v>18091000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15945000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13881000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>20640000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>17188000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16449000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12884000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19524000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16485000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16090000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12562000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>19526000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16240000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>15710000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12049000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>19515000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>16027000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8155000</v>
+        <v>10398000</v>
       </c>
       <c r="E9" s="3">
-        <v>7087000</v>
+        <v>8144000</v>
       </c>
       <c r="F9" s="3">
+        <v>7068000</v>
+      </c>
+      <c r="G9" s="3">
         <v>6125000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9331000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7684000</v>
       </c>
-      <c r="I9" s="3">
-        <v>7322000</v>
-      </c>
       <c r="J9" s="3">
+        <v>7302000</v>
+      </c>
+      <c r="K9" s="3">
         <v>5666000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8933000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7527000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7263000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5655000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9079000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7368000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7056000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5290000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8944000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7284000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9936000</v>
+        <v>12057000</v>
       </c>
       <c r="E10" s="3">
-        <v>8858000</v>
+        <v>9947000</v>
       </c>
       <c r="F10" s="3">
+        <v>8877000</v>
+      </c>
+      <c r="G10" s="3">
         <v>7756000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>11309000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9504000</v>
       </c>
-      <c r="I10" s="3">
-        <v>9127000</v>
-      </c>
       <c r="J10" s="3">
+        <v>9147000</v>
+      </c>
+      <c r="K10" s="3">
         <v>7218000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10591000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8958000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8827000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6907000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>10447000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8872000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8654000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6759000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>10571000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8743000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,87 +1065,93 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>60000</v>
+        <v>339000</v>
       </c>
       <c r="E14" s="3">
-        <v>24000</v>
+        <v>103000</v>
       </c>
       <c r="F14" s="3">
-        <v>38000</v>
+        <v>242000</v>
       </c>
       <c r="G14" s="3">
-        <v>97000</v>
+        <v>63000</v>
       </c>
       <c r="H14" s="3">
+        <v>370000</v>
+      </c>
+      <c r="I14" s="3">
         <v>105000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>282000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>41000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>272000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>35000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>32000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>8000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>164000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>34000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>26000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>54000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1145,23 +1168,26 @@
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
-        <v>16000</v>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q15" s="3">
         <v>16000</v>
       </c>
       <c r="R15" s="3">
+        <v>16000</v>
+      </c>
+      <c r="S15" s="3">
         <v>13000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>21000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>19846000</v>
+      </c>
+      <c r="E17" s="3">
         <v>15081000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13627000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11963000</v>
       </c>
-      <c r="G17" s="3">
-        <v>17943000</v>
-      </c>
       <c r="H17" s="3">
+        <v>18216000</v>
+      </c>
+      <c r="I17" s="3">
         <v>14338000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13730000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10871000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17093000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13641000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13062000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10755000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>16956000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13316000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>12720000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10186000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>17134000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>13206000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2609000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3010000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2318000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1918000</v>
       </c>
-      <c r="G18" s="3">
-        <v>2697000</v>
-      </c>
       <c r="H18" s="3">
+        <v>2424000</v>
+      </c>
+      <c r="I18" s="3">
         <v>2850000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2719000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2013000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2431000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2844000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3028000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1807000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2570000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2924000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2990000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1863000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2381000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2821000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1346,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E20" s="3">
         <v>83000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>86000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>94000</v>
       </c>
-      <c r="G20" s="3">
-        <v>-142000</v>
-      </c>
       <c r="H20" s="3">
+        <v>314000</v>
+      </c>
+      <c r="I20" s="3">
         <v>55000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>87000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>190000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>158000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>36000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>95000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>289000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>122000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>8000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>113000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-21000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3513000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3702000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2993000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2545000</v>
       </c>
-      <c r="G21" s="3">
-        <v>3353000</v>
-      </c>
       <c r="H21" s="3">
+        <v>3536000</v>
+      </c>
+      <c r="I21" s="3">
         <v>3483000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3270000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2598000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3384000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3568000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3638000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2398000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3624000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3619000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3552000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2453000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3117000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3457000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>339000</v>
+      </c>
+      <c r="E22" s="3">
         <v>260000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>236000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>301000</v>
       </c>
-      <c r="G22" s="3">
-        <v>347000</v>
-      </c>
       <c r="H22" s="3">
+        <v>530000</v>
+      </c>
+      <c r="I22" s="3">
         <v>236000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>145000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>232000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>686000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>305000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>164000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>245000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>528000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>270000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>224000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>255000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>529000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>286000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2357000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2833000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2168000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1711000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2208000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2669000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2567000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1868000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1935000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2697000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2900000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1657000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2331000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2776000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2774000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1721000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1831000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2604000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>498000</v>
+      </c>
+      <c r="E24" s="3">
         <v>526000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>510000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>360000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>409000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>559000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>524000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>475000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4050000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>112000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>293000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>303000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>526000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>620000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>656000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>392000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>414000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>600000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1859000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2307000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1658000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1351000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1799000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2110000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2043000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1393000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5985000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2585000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2607000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1354000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1805000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2156000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2118000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1329000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1417000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2004000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1845000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2291000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1646000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1338000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1787000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2100000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2035000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1384000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5972000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2574000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2597000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1342000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1789000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2143000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2105000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1316000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1398000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1831,35 +1892,35 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
         <v>-21000</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>29000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>882000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-76000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-777000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-1000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-2500000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-83000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-86000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-94000</v>
       </c>
-      <c r="G32" s="3">
-        <v>142000</v>
-      </c>
       <c r="H32" s="3">
+        <v>-314000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-55000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-87000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-190000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-158000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-36000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-95000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-289000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-122000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-8000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-113000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>21000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-69000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1845000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2291000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1646000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1338000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1766000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2100000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2035000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1413000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6854000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2498000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1820000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1341000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-711000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2143000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2105000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1316000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1398000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1845000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2291000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1646000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1338000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1766000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2100000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2035000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1413000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6854000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2498000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1820000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1341000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-711000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2143000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2105000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1316000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1398000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E38" s="2">
         <v>44079</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43995</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43911</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43827</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43715</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43631</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43547</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43351</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43267</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43183</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43099</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42987</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42903</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42819</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,512 +2400,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8185000</v>
+      </c>
+      <c r="E41" s="3">
         <v>9094000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8927000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11089000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5509000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5494000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3293000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5072000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8721000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11991000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13858000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13443000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10610000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10243000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10282000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9528000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9158000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10256000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1366000</v>
+      </c>
+      <c r="E42" s="3">
         <v>611000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>196000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>158000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>229000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>287000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>291000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>289000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>272000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1907000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4271000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>7167000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>8900000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>8035000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>6878000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>6461000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>6967000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>4524000</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8404000</v>
+      </c>
+      <c r="E43" s="3">
         <v>9295000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8780000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8477000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7822000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8735000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8502000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7604000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7142000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7975000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7841000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7171000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7024000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7923000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7543000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6848000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6694000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7745000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4172000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4135000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4314000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3600000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3338000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3667000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3988000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3554000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3128000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3142000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3491000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3335000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2947000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3251000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3612000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3282000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2723000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3120000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>874000</v>
+      </c>
+      <c r="E45" s="3">
         <v>925000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>972000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>944000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>747000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1015000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1138000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1398000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2630000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>827000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>909000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1931000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1546000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>745000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>933000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1031000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>908000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1454000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>23001000</v>
+      </c>
+      <c r="E46" s="3">
         <v>24060000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>23189000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>24268000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>17645000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>19198000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>17212000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>17917000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>21893000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>25842000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>30370000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>33047000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>31027000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>30197000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>29248000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>27150000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>26450000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>27099000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2792000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2752000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2715000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2719000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2683000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2690000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2510000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2476000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2409000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2394000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2401000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2115000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2042000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1950000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1962000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2003000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2055000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1975000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>21369000</v>
+      </c>
+      <c r="E48" s="3">
         <v>19726000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>19187000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>18980000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>20853000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>19085000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>18915000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>18966000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17589000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16541000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16762000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>17141000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>17240000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16960000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16742000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16649000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>53409000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>16305000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>38072000</v>
+      </c>
+      <c r="E49" s="3">
         <v>37789000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>36840000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>31444000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>31544000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>31150000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>31213000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>30920000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>30633000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>27798000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>28221000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>28638000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>28582000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>28585000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>28383000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>28181000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>27863000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>27675000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7684000</v>
+      </c>
+      <c r="E52" s="3">
         <v>7714000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7594000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7651000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5822000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5321000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5234000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5187000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5124000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1057000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>977000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>946000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>913000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>771000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>608000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>639000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1167000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>843000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>92918000</v>
+      </c>
+      <c r="E54" s="3">
         <v>92041000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>89525000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>85062000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>78547000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>77444000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>75084000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>75466000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>77648000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>73632000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>78731000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>81887000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>79804000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>78463000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>76943000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>74622000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>73490000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>73897000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,120 +3272,127 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19592000</v>
+      </c>
+      <c r="E57" s="3">
         <v>19317000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>17220000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>16196000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>17099000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>16795000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>16055000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>15419000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18112000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>15230000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>14603000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>14285000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>15017000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>14641000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>13834000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>13067000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>20401000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>14305000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3780000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6692000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6607000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5882000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2920000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2924000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3473000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3291000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4026000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4474000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9955000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>11600000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5485000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7717000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8279000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8577000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>13784000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6284000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3268,20 +3405,20 @@
       <c r="F59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="3">
         <v>442000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>412000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>380000</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>8</v>
@@ -3292,8 +3429,8 @@
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3301,185 +3438,197 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-      <c r="R59" s="3" t="s">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8085000</v>
       </c>
-      <c r="T59" s="3" t="s">
+      <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23372000</v>
+      </c>
+      <c r="E60" s="3">
         <v>26009000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>23827000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>22078000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>20461000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>20131000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>19928000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>19090000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>22138000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19704000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>24558000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>25885000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>20502000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>22358000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>22113000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>21644000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>21135000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>20589000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>40370000</v>
+      </c>
+      <c r="E61" s="3">
         <v>37879000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>38371000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>35361000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>29148000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>29630000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>27712000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>28458000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>28295000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>30643000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>30638000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>31931000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>33796000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>31452000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>31205000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>30081000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>30053000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>29322000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15624000</v>
+      </c>
+      <c r="E62" s="3">
         <v>14558000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14740000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14064000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>14070000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13459000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13407000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13622000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12613000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12896000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13314000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13086000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14525000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11242000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11095000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>11214000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>11103000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>11268000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>79464000</v>
+      </c>
+      <c r="E66" s="3">
         <v>78558000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>77034000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>71597000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>63761000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>63315000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>61132000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>61264000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>63130000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>63346000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>68620000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>71004000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>68915000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>65168000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>64539000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>63053000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>62395000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>61295000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3875,25 +4043,28 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>-156000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>-155000</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>-153000</v>
       </c>
       <c r="R70" s="3">
         <v>-153000</v>
       </c>
       <c r="S70" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="T70" s="3">
         <v>-151000</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>-148000</v>
       </c>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>63443000</v>
+      </c>
+      <c r="E72" s="3">
         <v>63013000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>62145000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>61920000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>61946000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>61514000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>60752000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>60060000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>59947000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>54404000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>53223000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>52726000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>52839000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>54698000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>53706000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>52756000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>52518000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>52200000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13454000</v>
+      </c>
+      <c r="E76" s="3">
         <v>13483000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12491000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13465000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14786000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14129000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13952000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14202000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14518000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10286000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10111000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10883000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11045000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13450000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12557000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11722000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11246000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12750000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E80" s="2">
         <v>44079</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43995</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43911</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43827</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43715</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43631</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43547</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43351</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43267</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43183</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43099</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42987</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42903</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42819</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1845000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2291000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1646000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1338000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1766000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2100000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2035000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1413000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6854000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2498000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1820000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1341000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-711000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2143000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2105000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1316000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1398000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4621,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>817000</v>
+      </c>
+      <c r="E83" s="3">
         <v>609000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>589000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>533000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>798000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>578000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>558000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>498000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>763000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>566000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>574000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>496000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>765000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>573000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>554000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>477000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>757000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>567000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4490000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4661000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2211000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-749000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4586000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3675000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1733000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-345000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4683000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3645000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2396000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1309000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3943000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3836000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2444000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-193000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3849000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3717000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2166000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-886000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-704000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-484000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2273000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-792000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-725000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-442000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1704000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-633000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-593000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-352000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1495000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-596000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-561000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-634000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2948000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1294000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2858000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1999000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5837000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-925000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2152000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1014000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-971000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2300000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1034000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1771000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2431000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1396000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2125000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1707000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-840000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>269000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4117000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1423000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5316,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1415000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1417000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1328000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1349000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1333000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1336000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1303000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1332000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1309000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1316000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1145000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1160000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1148000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1149000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1077000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1098000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1083000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1084000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5550,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2592000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2560000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1509000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>7462000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2660000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-390000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2563000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2876000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4898000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7213000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4340000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2682000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1411000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2193000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-839000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>257000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-556000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1636000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E101" s="3">
         <v>68000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-186000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-66000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>89000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-35000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-33000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>57000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-25000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-54000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-68000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>49000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-29000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>40000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-7000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>43000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-234000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-905000</v>
+      </c>
+      <c r="E102" s="3">
         <v>170000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2303000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5722000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-137000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2236000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1834000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5464000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1274000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1851000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>419000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2818000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>378000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>758000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>376000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1098000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>610000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PEP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PEP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>PEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44275</v>
+      </c>
+      <c r="E7" s="2">
         <v>44191</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44079</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43995</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43911</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43827</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43715</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43631</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43547</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43351</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43267</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43183</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43099</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42987</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42903</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42819</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>14820000</v>
+      </c>
+      <c r="E8" s="3">
         <v>22455000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>18091000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15945000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13881000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>20640000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>17188000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>16449000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12884000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>19524000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16485000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16090000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12562000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>19526000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>16240000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>15710000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12049000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>19515000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>16027000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6669000</v>
+      </c>
+      <c r="E9" s="3">
         <v>10398000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8144000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7068000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6125000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9331000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7684000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7302000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5666000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8933000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7527000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7263000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5655000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9079000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7368000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7056000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5290000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8944000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7284000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8151000</v>
+      </c>
+      <c r="E10" s="3">
         <v>12057000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9947000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8877000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7756000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>11309000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9504000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9147000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7218000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>10591000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8958000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8827000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6907000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>10447000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8872000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8654000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6759000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>10571000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8743000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,67 +1085,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E14" s="3">
         <v>339000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>103000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>242000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>63000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>370000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>105000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>282000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>41000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>272000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>35000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>32000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>8000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>164000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>34000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>26000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>54000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1153,8 +1176,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
@@ -1171,23 +1194,26 @@
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="3">
-        <v>16000</v>
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R15" s="3">
         <v>16000</v>
       </c>
       <c r="S15" s="3">
+        <v>16000</v>
+      </c>
+      <c r="T15" s="3">
         <v>13000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>21000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12514000</v>
+      </c>
+      <c r="E17" s="3">
         <v>19846000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15081000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13627000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11963000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>18216000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14338000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13730000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10871000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>17093000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13641000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13062000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10755000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>16956000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13316000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>12720000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10186000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>17134000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>13206000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2306000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2609000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3010000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2318000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1918000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2424000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2850000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2719000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2013000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2431000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2844000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3028000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1807000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2570000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2924000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2990000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1863000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2381000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2821000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,303 +1380,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E20" s="3">
         <v>87000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>83000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>86000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>94000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>314000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>55000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>87000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>190000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>158000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>36000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>95000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>289000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>122000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>8000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>113000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-21000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2992000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3513000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3702000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2993000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2545000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3536000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3483000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3270000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2598000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3384000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3568000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3638000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2398000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3624000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3619000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3552000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2453000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3117000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3457000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>258000</v>
+      </c>
+      <c r="E22" s="3">
         <v>339000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>260000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>236000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>301000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>530000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>236000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>145000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>232000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>686000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>305000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>164000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>245000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>528000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>270000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>224000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>255000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>529000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>286000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2174000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2357000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2833000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2168000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1711000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2208000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2669000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2567000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1868000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1935000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2697000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2900000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1657000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2331000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2776000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2774000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1721000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1831000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2604000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>451000</v>
+      </c>
+      <c r="E24" s="3">
         <v>498000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>526000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>510000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>360000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>409000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>559000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>524000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>475000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-4050000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>112000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>293000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>303000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>526000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>620000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>656000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>392000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>414000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>600000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1723000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1859000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2307000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1658000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1351000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1799000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2110000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2043000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1393000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5985000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2585000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2607000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1354000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1805000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2156000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2118000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1329000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1417000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2004000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1714000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1845000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2291000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1646000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1338000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1787000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2100000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2035000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1384000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5972000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2574000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2597000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1342000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1789000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2143000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2105000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1316000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1398000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1895,35 +1956,35 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>-21000</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>29000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>882000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-76000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-777000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-1000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-2500000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-126000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-87000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-83000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-86000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-94000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-314000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-55000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-87000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-190000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-158000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-36000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-95000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-289000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-122000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-8000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-113000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>21000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-69000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1714000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1845000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2291000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1646000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1338000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1766000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2100000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2035000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1413000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6854000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2498000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1820000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1341000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-711000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2143000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2105000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1316000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1398000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1714000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1845000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2291000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1646000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1338000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1766000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2100000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2035000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1413000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6854000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2498000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1820000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1341000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-711000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2143000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2105000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1316000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1398000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44275</v>
+      </c>
+      <c r="E38" s="2">
         <v>44191</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44079</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43995</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43911</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43827</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43715</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43631</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43547</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43351</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43267</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43183</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43099</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42987</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42903</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42819</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,539 +2487,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5661000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8185000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9094000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8927000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11089000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5509000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5494000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3293000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5072000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8721000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11991000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13858000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13443000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10610000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10243000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10282000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9528000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9158000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>10256000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>964000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1366000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>611000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>196000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>158000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>229000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>287000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>291000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>289000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>272000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1907000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4271000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>7167000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>8900000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>8035000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>6878000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>6461000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>6967000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>4524000</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8885000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8404000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9295000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8780000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8477000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7822000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8735000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8502000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7604000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7142000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7975000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7841000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7171000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7024000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7923000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7543000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6848000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6694000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7745000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4556000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4172000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4135000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4314000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3600000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3338000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3667000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3988000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3554000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3128000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3142000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3491000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3335000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2947000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3251000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3612000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3282000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2723000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3120000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1130000</v>
+      </c>
+      <c r="E45" s="3">
         <v>874000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>925000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>972000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>944000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>747000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1015000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1138000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1398000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2630000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>827000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>909000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1931000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1546000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>745000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>933000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1031000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>908000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1454000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21196000</v>
+      </c>
+      <c r="E46" s="3">
         <v>23001000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>24060000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>23189000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>24268000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>17645000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>19198000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>17212000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17917000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>21893000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>25842000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>30370000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>33047000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>31027000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>30197000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>29248000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>27150000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>26450000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>27099000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2777000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2792000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2752000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2715000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2719000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2683000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2690000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2510000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2476000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2409000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2394000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2401000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2115000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2042000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1950000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1962000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2003000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2055000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1975000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>21249000</v>
+      </c>
+      <c r="E48" s="3">
         <v>21369000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>19726000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>19187000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>18980000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>20853000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>19085000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>18915000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18966000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>17589000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16541000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16762000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>17141000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>17240000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16960000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16742000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>16649000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>53409000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>16305000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>38110000</v>
+      </c>
+      <c r="E49" s="3">
         <v>38072000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>37789000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>36840000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>31444000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>31544000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>31150000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>31213000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>30920000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>30633000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>27798000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>28221000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>28638000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>28582000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>28585000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>28383000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>28181000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>27863000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>27675000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7892000</v>
+      </c>
+      <c r="E52" s="3">
         <v>7684000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7714000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7594000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7651000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5822000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5321000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5234000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5187000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5124000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1057000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>977000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>946000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>913000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>771000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>608000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>639000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1167000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>843000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>91224000</v>
+      </c>
+      <c r="E54" s="3">
         <v>92918000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>92041000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>89525000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>85062000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>78547000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>77444000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>75084000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>75466000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>77648000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>73632000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>78731000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>81887000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>79804000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>78463000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>76943000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>74622000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>73490000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>73897000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,126 +3403,133 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>18019000</v>
+      </c>
+      <c r="E57" s="3">
         <v>19592000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>19317000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>17220000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>16196000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>17099000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>16795000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>16055000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>15419000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18112000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>15230000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>14603000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>14285000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>15017000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>14641000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>13834000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>13067000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>20401000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>14305000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4674000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3780000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6692000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6607000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5882000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2920000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2924000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3473000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3291000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4026000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4474000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9955000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>11600000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5485000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7717000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8279000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8577000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>13784000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6284000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3408,20 +3545,20 @@
       <c r="G59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="3">
         <v>442000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>412000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>380000</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>8</v>
@@ -3432,8 +3569,8 @@
       <c r="O59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3441,194 +3578,206 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-      <c r="S59" s="3" t="s">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8085000</v>
       </c>
-      <c r="U59" s="3" t="s">
+      <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>22693000</v>
+      </c>
+      <c r="E60" s="3">
         <v>23372000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>26009000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>23827000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>22078000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>20461000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>20131000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>19928000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19090000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>22138000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>19704000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>24558000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>25885000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>20502000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>22358000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>22113000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>21644000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>21135000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>20589000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>38991000</v>
+      </c>
+      <c r="E61" s="3">
         <v>40370000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>37879000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>38371000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>35361000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>29148000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>29630000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>27712000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>28458000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>28295000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>30643000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>30638000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>31931000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>33796000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>31452000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>31205000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>30081000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>30053000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>29322000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15487000</v>
+      </c>
+      <c r="E62" s="3">
         <v>15624000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14558000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14740000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>14064000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14070000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13459000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13407000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13622000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12613000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12896000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13314000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13086000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>14525000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11242000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>11095000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>11214000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>11103000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>11268000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>77277000</v>
+      </c>
+      <c r="E66" s="3">
         <v>79464000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>78558000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>77034000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>71597000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>63761000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>63315000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>61132000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>61264000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>63130000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>63346000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>68620000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>71004000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>68915000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>65168000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>64539000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>63053000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>62395000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>61295000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4046,25 +4214,28 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>-156000</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>-155000</v>
-      </c>
-      <c r="R70" s="3">
-        <v>-153000</v>
       </c>
       <c r="S70" s="3">
         <v>-153000</v>
       </c>
       <c r="T70" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="U70" s="3">
         <v>-151000</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>-148000</v>
       </c>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>63740000</v>
+      </c>
+      <c r="E72" s="3">
         <v>63443000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>63013000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>62145000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>61920000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>61946000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>61514000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>60752000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>60060000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>59947000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>54404000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>53223000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>52726000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>52839000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>54698000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>53706000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>52756000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>52518000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>52200000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13947000</v>
+      </c>
+      <c r="E76" s="3">
         <v>13454000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13483000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12491000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13465000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14786000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14129000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13952000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14202000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14518000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10286000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10111000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10883000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11045000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13450000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12557000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11722000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11246000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12750000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44275</v>
+      </c>
+      <c r="E80" s="2">
         <v>44191</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44079</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43995</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43911</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43827</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43715</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43631</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43547</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43351</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43267</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43183</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43099</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42987</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42903</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42819</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1714000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1845000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2291000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1646000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1338000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1766000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2100000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2035000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1413000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6854000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2498000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1820000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1341000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-711000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2143000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2105000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1316000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1398000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4820,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>560000</v>
+      </c>
+      <c r="E83" s="3">
         <v>817000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>609000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>589000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>533000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>798000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>578000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>558000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>498000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>763000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>566000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>574000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>496000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>765000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>573000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>554000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>477000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>757000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>567000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-719000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4490000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4661000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2211000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-749000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4586000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3675000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1733000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-345000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4683000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3645000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2396000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1309000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3943000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3836000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2444000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-193000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3849000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3717000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-471000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2166000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-886000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-704000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-484000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2273000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-792000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-725000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-442000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1704000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-633000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-593000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-352000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1495000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-596000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-561000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-634000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2948000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1294000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2858000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1999000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5837000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-925000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2152000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1014000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-971000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2300000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1034000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1771000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2431000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1396000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2125000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1707000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-840000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>269000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4117000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1423000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,67 +5550,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1429000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1415000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1417000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1328000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1349000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1333000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1336000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1303000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1332000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1309000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1316000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1145000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1160000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1148000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1149000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1077000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1098000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1083000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1084000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +5796,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1888000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2592000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2560000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1509000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>7462000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2660000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-390000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2563000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2876000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4898000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7213000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4340000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2682000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1411000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2193000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-839000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>257000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-556000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1636000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E101" s="3">
         <v>55000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>68000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-186000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-66000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>89000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-35000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-33000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>57000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-25000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-54000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-68000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>49000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-29000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>40000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-7000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>43000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-234000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2523000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-905000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>170000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2303000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5722000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-137000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2236000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1834000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5464000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1274000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1851000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>419000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2818000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>378000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-24000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>758000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>376000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1098000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>610000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PEP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PEP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>PEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44359</v>
+      </c>
+      <c r="E7" s="2">
         <v>44275</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44191</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44079</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43995</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43911</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43827</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43715</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43631</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43547</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43463</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43351</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43267</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43183</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43099</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42987</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42903</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42819</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>19217000</v>
+      </c>
+      <c r="E8" s="3">
         <v>14820000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>22455000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>18091000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15945000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13881000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>20640000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>17188000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16449000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12884000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>19524000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16485000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16090000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12562000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>19526000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>16240000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>15710000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12049000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>19515000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>16027000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8877000</v>
+      </c>
+      <c r="E9" s="3">
         <v>6669000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10398000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8144000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7068000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6125000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9331000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7684000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7302000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5666000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8933000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7527000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7263000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5655000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>9079000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7368000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7056000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5290000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8944000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7284000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>10340000</v>
+      </c>
+      <c r="E10" s="3">
         <v>8151000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>12057000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9947000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8877000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7756000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>11309000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9504000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9147000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7218000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>10591000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8958000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8827000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6907000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>10447000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8872000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8654000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6759000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>10571000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8743000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,70 +1105,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E14" s="3">
         <v>33000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>339000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>103000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>242000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>63000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>370000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>105000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>282000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>41000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>272000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>35000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>32000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>8000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>164000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>6000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>34000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>26000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>54000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1179,8 +1202,8 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
@@ -1197,23 +1220,26 @@
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3">
-        <v>16000</v>
+      <c r="R15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S15" s="3">
         <v>16000</v>
       </c>
       <c r="T15" s="3">
+        <v>16000</v>
+      </c>
+      <c r="U15" s="3">
         <v>13000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>21000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16087000</v>
+      </c>
+      <c r="E17" s="3">
         <v>12514000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>19846000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15081000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13627000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11963000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18216000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14338000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13730000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10871000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>17093000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13641000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13062000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10755000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>16956000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13316000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>12720000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10186000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>17134000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>13206000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3130000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2306000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2609000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3010000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2318000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1918000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2424000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2850000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2719000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2013000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2431000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2844000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3028000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1807000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2570000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2924000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2990000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1863000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2381000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2821000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,318 +1414,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E20" s="3">
         <v>126000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>87000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>83000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>86000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>94000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>314000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>55000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>87000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>190000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>158000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>36000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>95000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>289000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>122000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>8000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>113000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-21000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3908000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2992000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3513000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3702000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2993000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2545000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3536000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3483000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3270000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2598000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3384000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3568000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3638000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2398000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3624000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3619000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3552000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2453000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3117000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3457000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>241000</v>
+      </c>
+      <c r="E22" s="3">
         <v>258000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>339000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>260000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>236000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>301000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>530000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>236000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>145000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>232000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>686000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>305000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>164000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>245000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>528000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>270000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>224000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>255000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>529000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>286000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3014000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2174000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2357000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2833000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2168000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1711000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2208000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2669000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2567000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1868000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1935000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2697000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2900000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1657000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2331000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2776000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2774000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1721000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1831000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2604000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>642000</v>
+      </c>
+      <c r="E24" s="3">
         <v>451000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>498000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>526000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>510000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>360000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>409000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>559000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>524000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>475000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-4050000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>112000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>293000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>303000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>526000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>620000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>656000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>392000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>414000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>600000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2372000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1723000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1859000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2307000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1658000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1351000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1799000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2110000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2043000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1393000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5985000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2585000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2607000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1354000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1805000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2156000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2118000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1329000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1417000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2004000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2358000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1714000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1845000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2291000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1646000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1338000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1787000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2100000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2035000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1384000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5972000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2574000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2597000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1342000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1789000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2143000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2105000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1316000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1398000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1959,35 +2020,35 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>-21000</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>29000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>882000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-76000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-777000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-2500000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2192,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-125000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-126000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-87000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-83000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-86000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-94000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-314000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-55000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-87000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-190000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-158000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-36000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-95000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-289000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-122000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-8000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-113000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>21000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-69000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2358000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1714000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1845000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2291000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1646000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1338000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1766000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2100000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2035000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1413000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6854000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2498000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1820000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1341000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-711000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2143000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2105000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1316000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1398000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2358000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1714000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1845000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2291000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1646000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1338000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1766000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2100000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2035000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1413000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6854000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2498000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1820000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1341000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-711000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2143000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2105000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1316000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1398000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44359</v>
+      </c>
+      <c r="E38" s="2">
         <v>44275</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44191</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44079</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43995</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43911</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43827</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43715</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43631</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43547</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43463</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43351</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43267</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43183</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43099</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42987</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42903</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42819</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,566 +2574,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5449000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5661000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8185000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9094000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8927000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11089000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5509000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5494000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3293000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5072000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8721000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11991000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13858000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13443000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10610000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10243000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10282000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9528000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9158000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>10256000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>328000</v>
+      </c>
+      <c r="E42" s="3">
         <v>964000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1366000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>611000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>196000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>158000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>229000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>287000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>291000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>289000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>272000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1907000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>4271000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>7167000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>8900000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>8035000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>6878000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>6461000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>6967000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>4524000</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9722000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8885000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8404000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9295000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8780000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8477000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7822000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8735000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8502000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7604000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7142000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7975000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7841000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7171000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7024000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7923000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7543000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6848000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6694000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7745000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5006000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4556000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4172000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4135000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4314000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3600000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3338000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3667000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3988000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3554000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3128000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3142000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3491000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3335000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2947000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3251000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3612000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3282000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2723000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3120000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1092000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1130000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>874000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>925000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>972000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>944000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>747000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1015000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1138000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1398000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2630000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>827000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>909000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1931000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1546000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>745000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>933000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1031000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>908000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1454000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21597000</v>
+      </c>
+      <c r="E46" s="3">
         <v>21196000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>23001000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>24060000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>23189000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>24268000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>17645000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>19198000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17212000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17917000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>21893000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>25842000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>30370000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>33047000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>31027000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>30197000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>29248000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>27150000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>26450000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>27099000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2774000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2777000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2792000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2752000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2715000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2719000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2683000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2690000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2510000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2476000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2409000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2394000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2401000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2115000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2042000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1950000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1962000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2003000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2055000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1975000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>21619000</v>
+      </c>
+      <c r="E48" s="3">
         <v>21249000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>21369000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>19726000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>19187000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>18980000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>20853000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>19085000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18915000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18966000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17589000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16541000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16762000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>17141000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>17240000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16960000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>16742000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>16649000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>53409000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>16305000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>38317000</v>
+      </c>
+      <c r="E49" s="3">
         <v>38110000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>38072000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>37789000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>36840000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>31444000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>31544000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>31150000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>31213000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>30920000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>30633000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>27798000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>28221000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>28638000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>28582000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>28585000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>28383000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>28181000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>27863000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>27675000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3287,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8078000</v>
+      </c>
+      <c r="E52" s="3">
         <v>7892000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7684000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7714000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7594000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7651000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5822000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5321000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5234000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5187000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5124000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1057000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>977000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>946000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>913000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>771000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>608000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>639000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1167000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>843000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>92385000</v>
+      </c>
+      <c r="E54" s="3">
         <v>91224000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>92918000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>92041000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>89525000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>85062000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>78547000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>77444000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>75084000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>75466000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>77648000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>73632000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>78731000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>81887000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>79804000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>78463000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>76943000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>74622000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>73490000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>73897000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,132 +3534,139 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19359000</v>
+      </c>
+      <c r="E57" s="3">
         <v>18019000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>19592000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>19317000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>17220000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>16196000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>17099000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>16795000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16055000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>15419000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18112000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>15230000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>14603000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>14285000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>15017000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>14641000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>13834000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>13067000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>20401000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>14305000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4264000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4674000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3780000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6692000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6607000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5882000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2920000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2924000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3473000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3291000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4026000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4474000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9955000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>11600000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5485000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7717000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8279000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>8577000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>13784000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>6284000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3548,20 +3685,20 @@
       <c r="H59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="3">
         <v>442000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>412000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>400000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>380000</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>8</v>
@@ -3572,8 +3709,8 @@
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3581,203 +3718,215 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-      <c r="T59" s="3" t="s">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8085000</v>
       </c>
-      <c r="V59" s="3" t="s">
+      <c r="W59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23623000</v>
+      </c>
+      <c r="E60" s="3">
         <v>22693000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>23372000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>26009000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>23827000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>22078000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>20461000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>20131000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19928000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19090000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>22138000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19704000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>24558000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>25885000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>20502000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>22358000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>22113000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>21644000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>21135000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>20589000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>38034000</v>
+      </c>
+      <c r="E61" s="3">
         <v>38991000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>40370000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>37879000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>38371000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>35361000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>29148000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>29630000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>27712000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>28458000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>28295000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>30643000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>30638000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>31931000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>33796000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>31452000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>31205000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>30081000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>30053000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>29322000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15330000</v>
+      </c>
+      <c r="E62" s="3">
         <v>15487000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15624000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14558000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>14740000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14064000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14070000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13459000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13407000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13622000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12613000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12896000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13314000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13086000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>14525000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>11242000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>11095000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>11214000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>11103000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>11268000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>77086000</v>
+      </c>
+      <c r="E66" s="3">
         <v>77277000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>79464000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>78558000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>77034000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>71597000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>63761000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>63315000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>61132000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>61264000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>63130000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>63346000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>68620000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>71004000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>68915000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>65168000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>64539000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>63053000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>62395000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>61295000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4217,25 +4385,28 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>-156000</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>-155000</v>
-      </c>
-      <c r="S70" s="3">
-        <v>-153000</v>
       </c>
       <c r="T70" s="3">
         <v>-153000</v>
       </c>
       <c r="U70" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="V70" s="3">
         <v>-151000</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>-148000</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>64605000</v>
+      </c>
+      <c r="E72" s="3">
         <v>63740000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>63443000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>63013000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>62145000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>61920000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>61946000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>61514000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>60752000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>60060000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>59947000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>54404000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>53223000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>52726000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>52839000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>54698000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>53706000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>52756000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>52518000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>52200000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15299000</v>
+      </c>
+      <c r="E76" s="3">
         <v>13947000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13454000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13483000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12491000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13465000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14786000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14129000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13952000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14202000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14518000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10286000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10111000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10883000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11045000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13450000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12557000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11722000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11246000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12750000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44359</v>
+      </c>
+      <c r="E80" s="2">
         <v>44275</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44191</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44079</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43995</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43911</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43827</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43715</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43631</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43547</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43463</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43351</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43267</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43183</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43099</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42987</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42903</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42819</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2358000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1714000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1845000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2291000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1646000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1338000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1766000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2100000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2035000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1413000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6854000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2498000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1820000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1341000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-711000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2143000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2105000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1316000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1398000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5019,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>653000</v>
+      </c>
+      <c r="E83" s="3">
         <v>560000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>817000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>609000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>589000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>533000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>798000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>578000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>558000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>498000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>763000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>566000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>574000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>496000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>765000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>573000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>554000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>477000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>757000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>567000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3059000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-719000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4490000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4661000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2211000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-749000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4586000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3675000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1733000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-345000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4683000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3645000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2396000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1309000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3943000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3836000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2444000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-193000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3849000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3717000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5499,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-834000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-471000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2166000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-886000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-704000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-484000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2273000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-792000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-725000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-442000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1704000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-633000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-593000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-352000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1495000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-596000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-561000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-634000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2948000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1294000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-210000</v>
+      </c>
+      <c r="E94" s="3">
         <v>94000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2858000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1999000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5837000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-925000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2152000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1014000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-971000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2300000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1034000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1771000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2431000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1396000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2125000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1707000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-840000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>269000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4117000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1423000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,70 +5784,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1413000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1429000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1415000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1417000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1328000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1349000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1333000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1336000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1303000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1332000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1309000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1316000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1145000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1160000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1148000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1149000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1077000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1098000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1083000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1084000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,190 +6042,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3056000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1888000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2592000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2560000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1509000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>7462000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2660000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-390000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2563000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2876000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4898000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7213000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4340000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2682000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1411000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2193000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-839000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>257000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-556000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1636000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-10000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>55000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>68000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-186000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-66000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>89000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-35000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-33000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>57000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-25000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-54000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-68000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>49000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-29000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>40000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-7000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>43000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-234000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-185000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2523000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-905000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>170000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2303000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5722000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-137000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2236000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1834000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5464000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1274000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1851000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>419000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2818000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>378000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-24000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>758000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>376000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1098000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>610000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PEP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PEP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>PEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,308 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44443</v>
+      </c>
+      <c r="E7" s="2">
         <v>44359</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44275</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44191</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44079</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43995</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43911</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43827</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43715</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43631</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43547</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43463</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43351</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43267</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43183</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43099</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42987</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42903</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42819</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>20189000</v>
+      </c>
+      <c r="E8" s="3">
         <v>19217000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14820000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>22455000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>18091000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15945000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13881000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>20640000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17188000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16449000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12884000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>19524000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16485000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16090000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12562000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>19526000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>16240000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>15710000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>12049000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>19515000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>16027000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>9385000</v>
+      </c>
+      <c r="E9" s="3">
         <v>8877000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6669000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10398000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>8144000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7068000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6125000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9331000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7684000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7302000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5666000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8933000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7527000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7263000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5655000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>9079000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7368000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7056000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5290000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8944000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7284000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>10804000</v>
+      </c>
+      <c r="E10" s="3">
         <v>10340000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8151000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>12057000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9947000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8877000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7756000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>11309000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9504000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9147000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7218000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>10591000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8958000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8827000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6907000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>10447000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8872000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8654000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6759000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>10571000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8743000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1043,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,73 +1124,79 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E14" s="3">
         <v>59000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>33000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>339000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>103000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>242000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>63000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>370000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>105000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>282000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>41000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>272000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>35000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>32000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>8000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>164000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>6000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>34000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>26000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>54000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1205,8 +1227,8 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
@@ -1223,23 +1245,26 @@
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="3">
-        <v>16000</v>
+      <c r="S15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T15" s="3">
         <v>16000</v>
       </c>
       <c r="U15" s="3">
+        <v>16000</v>
+      </c>
+      <c r="V15" s="3">
         <v>13000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>21000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17031000</v>
+      </c>
+      <c r="E17" s="3">
         <v>16087000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12514000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>19846000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15081000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13627000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11963000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18216000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14338000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13730000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10871000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>17093000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13641000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13062000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10755000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>16956000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13316000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>12720000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10186000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>17134000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>13206000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3158000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3130000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2306000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2609000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3010000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2318000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1918000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2424000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2850000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2719000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2013000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2431000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2844000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3028000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1807000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2570000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2924000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2990000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1863000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2381000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2821000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>119000</v>
+      </c>
+      <c r="E20" s="3">
         <v>125000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>126000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>87000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>83000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>86000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>94000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>314000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>55000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>87000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>190000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>158000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>36000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>95000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>289000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>122000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>8000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>113000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-21000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3927000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3908000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2992000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3513000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3702000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2993000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2545000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3536000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3483000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3270000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2598000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3384000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3568000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3638000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2398000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3624000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3619000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3552000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2453000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3117000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3457000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>232000</v>
+      </c>
+      <c r="E22" s="3">
         <v>241000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>258000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>339000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>260000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>236000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>301000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>530000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>236000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>145000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>232000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>686000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>305000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>164000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>245000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>528000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>270000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>224000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>255000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>529000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>286000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3045000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3014000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2174000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2357000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2833000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2168000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1711000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2208000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2669000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2567000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1868000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1935000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2697000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2900000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1657000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2331000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2776000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2774000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1721000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1831000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2604000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>612000</v>
+      </c>
+      <c r="E24" s="3">
         <v>642000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>451000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>498000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>526000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>510000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>360000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>409000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>559000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>524000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>475000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-4050000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>112000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>293000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>303000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>526000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>620000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>656000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>392000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>414000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>600000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2433000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2372000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1723000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1859000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2307000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1658000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1351000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1799000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2110000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2043000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1393000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5985000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2585000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2607000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1354000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1805000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2156000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2118000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1329000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1417000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2004000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2414000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2358000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1714000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1845000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2291000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1646000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1338000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1787000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2100000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2035000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1384000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5972000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2574000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2597000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1342000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1789000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2143000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2105000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1316000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1398000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,13 +2057,16 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>-190000</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -2023,35 +2083,35 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>-21000</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>29000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>882000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-76000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-777000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-1000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-2500000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2065,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-119000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-125000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-126000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-87000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-83000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-86000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-94000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-314000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-55000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-87000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-190000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-158000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-95000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-289000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-122000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-8000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-113000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>21000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-69000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2224000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2358000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1714000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1845000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2291000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1646000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1338000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1766000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2100000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2035000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1413000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6854000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2498000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1820000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1341000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-711000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2143000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2105000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1316000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1398000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2224000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2358000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1714000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1845000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2291000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1646000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1338000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1766000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2100000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2035000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1413000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6854000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2498000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1820000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1341000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-711000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2143000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2105000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1316000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1398000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44443</v>
+      </c>
+      <c r="E38" s="2">
         <v>44359</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44275</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44191</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44079</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43995</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43911</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43827</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43715</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43631</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43547</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43463</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43351</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43267</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43183</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43099</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42987</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42903</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42819</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,593 +2660,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6506000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5449000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5661000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8185000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9094000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8927000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11089000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5509000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5494000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3293000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5072000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8721000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11991000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13858000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13443000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10610000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10243000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10282000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9528000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9158000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>10256000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>344000</v>
+      </c>
+      <c r="E42" s="3">
         <v>328000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>964000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1366000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>611000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>196000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>158000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>229000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>287000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>291000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>289000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>272000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1907000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4271000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>7167000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>8900000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>8035000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>6878000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>6461000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>6967000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>4524000</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9545000</v>
+      </c>
+      <c r="E43" s="3">
         <v>9722000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8885000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8404000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9295000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8780000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8477000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7822000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8735000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8502000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7604000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7142000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7975000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7841000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7171000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7024000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7923000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7543000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6848000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6694000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7745000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4364000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5006000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4556000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4172000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4135000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4314000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3600000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3338000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3667000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3988000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3554000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3128000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3142000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3491000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3335000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2947000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3251000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3612000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3282000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2723000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3120000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2951000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1092000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1130000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>874000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>925000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>972000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>944000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>747000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1015000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1138000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1398000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2630000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>827000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>909000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1931000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1546000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>745000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>933000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1031000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>908000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1454000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>23710000</v>
+      </c>
+      <c r="E46" s="3">
         <v>21597000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>21196000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>23001000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>24060000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>23189000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>24268000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>17645000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19198000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17212000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17917000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>21893000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>25842000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>30370000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>33047000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>31027000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>30197000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>29248000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>27150000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>26450000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>27099000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2791000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2774000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2777000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2792000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2752000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2715000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2719000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2683000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2690000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2510000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2476000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2409000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2394000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2401000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2115000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2042000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1950000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1962000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2003000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2055000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1975000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>21257000</v>
+      </c>
+      <c r="E48" s="3">
         <v>21619000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>21249000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>21369000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>19726000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>19187000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>18980000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>20853000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19085000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18915000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18966000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>17589000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16541000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16762000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>17141000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>17240000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>16960000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>16742000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>16649000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>53409000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>16305000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>37406000</v>
+      </c>
+      <c r="E49" s="3">
         <v>38317000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>38110000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>38072000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>37789000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>36840000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>31444000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>31544000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>31150000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>31213000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>30920000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>30633000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>27798000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>28221000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>28638000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>28582000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>28585000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>28383000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>28181000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>27863000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>27675000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8090000</v>
+      </c>
+      <c r="E52" s="3">
         <v>8078000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7892000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7684000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7714000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7594000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7651000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5822000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5321000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5234000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5187000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5124000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1057000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>977000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>946000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>913000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>771000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>608000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>639000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1167000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>843000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>93254000</v>
+      </c>
+      <c r="E54" s="3">
         <v>92385000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>91224000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>92918000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>92041000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>89525000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>85062000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>78547000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>77444000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>75084000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>75466000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>77648000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>73632000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>78731000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>81887000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>79804000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>78463000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>76943000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>74622000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>73490000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>73897000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,143 +3664,150 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>20060000</v>
+      </c>
+      <c r="E57" s="3">
         <v>19359000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>18019000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>19592000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>19317000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>17220000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>16196000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>17099000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16795000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16055000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>15419000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>18112000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>15230000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>14603000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>14285000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>15017000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>14641000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>13834000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>13067000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>20401000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>14305000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4234000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4264000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4674000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3780000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6692000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6607000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5882000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2920000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2924000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3473000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3291000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4026000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4474000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9955000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>11600000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5485000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7717000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>8279000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>8577000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>13784000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>6284000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>8</v>
+      <c r="D59" s="3">
+        <v>783000</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>8</v>
@@ -3688,20 +3824,20 @@
       <c r="I59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="3">
         <v>442000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>412000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>400000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>380000</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>8</v>
@@ -3712,8 +3848,8 @@
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -3721,212 +3857,224 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-      <c r="U59" s="3" t="s">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8085000</v>
       </c>
-      <c r="W59" s="3" t="s">
+      <c r="X59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>25077000</v>
+      </c>
+      <c r="E60" s="3">
         <v>23623000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>22693000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>23372000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>26009000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>23827000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>22078000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>20461000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>20131000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19928000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>19090000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>22138000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19704000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>24558000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>25885000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>20502000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>22358000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>22113000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>21644000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>21135000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>20589000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>37023000</v>
+      </c>
+      <c r="E61" s="3">
         <v>38034000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>38991000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>40370000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>37879000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>38371000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>35361000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>29148000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>29630000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>27712000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>28458000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>28295000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>30643000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>30638000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>31931000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>33796000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>31452000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>31205000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>30081000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>30053000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>29322000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15164000</v>
+      </c>
+      <c r="E62" s="3">
         <v>15330000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15487000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15624000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>14558000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14740000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14064000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>14070000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13459000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13407000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13622000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12613000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>12896000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13314000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13086000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>14525000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>11242000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>11095000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>11214000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>11103000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>11268000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>77382000</v>
+      </c>
+      <c r="E66" s="3">
         <v>77086000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>77277000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>79464000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>78558000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>77034000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>71597000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>63761000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>63315000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>61132000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>61264000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>63130000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>63346000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>68620000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>71004000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>68915000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>65168000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>64539000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>63053000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>62395000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>61295000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4388,25 +4555,28 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>-156000</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>-155000</v>
-      </c>
-      <c r="T70" s="3">
-        <v>-153000</v>
       </c>
       <c r="U70" s="3">
         <v>-153000</v>
       </c>
       <c r="V70" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="W70" s="3">
         <v>-151000</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>-148000</v>
       </c>
     </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>65336000</v>
+      </c>
+      <c r="E72" s="3">
         <v>64605000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>63740000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>63443000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>63013000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>62145000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>61920000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>61946000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>61514000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>60752000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>60060000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>59947000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>54404000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>53223000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>52726000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>52839000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>54698000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>53706000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>52756000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>52518000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>52200000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15872000</v>
+      </c>
+      <c r="E76" s="3">
         <v>15299000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13947000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13454000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13483000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12491000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13465000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14786000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14129000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13952000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14202000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14518000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10286000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10111000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10883000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11045000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13450000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12557000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11722000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11246000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12750000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44443</v>
+      </c>
+      <c r="E80" s="2">
         <v>44359</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44275</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44191</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44079</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43995</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43911</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43827</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43715</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43631</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43547</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43463</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43351</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43267</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43183</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43099</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42987</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42903</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42819</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2224000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2358000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1714000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1845000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2291000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1646000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1338000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1766000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2100000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2035000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1413000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6854000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2498000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1820000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1341000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-711000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2143000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2105000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1316000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1398000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>650000</v>
+      </c>
+      <c r="E83" s="3">
         <v>653000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>560000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>817000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>609000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>589000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>533000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>798000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>578000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>558000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>498000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>763000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>566000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>574000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>496000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>765000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>573000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>554000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>477000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>757000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>567000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4294000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3059000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-719000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4490000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4661000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2211000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-749000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4586000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3675000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1733000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-345000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4683000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3645000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2396000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1309000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3943000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3836000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2444000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-193000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3849000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3717000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-971000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-834000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-471000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2166000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-886000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-704000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-484000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2273000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-792000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-725000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-442000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1704000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-633000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-593000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-352000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1495000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-596000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-561000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-634000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2948000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1294000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-914000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-210000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>94000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2858000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1999000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5837000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-925000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2152000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1014000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-971000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2300000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1034000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1771000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2431000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1396000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2125000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1707000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-840000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>269000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4117000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1423000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,73 +6017,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1486000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1413000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1429000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1415000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1417000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1328000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1349000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1333000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1336000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1303000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1332000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1309000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1316000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1145000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1160000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1148000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1149000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1077000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1098000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1083000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1084000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2277000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3056000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1888000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2592000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2560000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1509000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>7462000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2660000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-390000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2563000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2876000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4898000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7213000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4340000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2682000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1411000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2193000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-839000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>257000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-556000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1636000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="E101" s="3">
         <v>22000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-10000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>55000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>68000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-186000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-66000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>89000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-35000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-33000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>57000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-25000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-54000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-68000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>49000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-29000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>40000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-7000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>43000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-234000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1061000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-185000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2523000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-905000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>170000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2303000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5722000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-137000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2236000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1834000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5464000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1274000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1851000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>419000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2818000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>378000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-24000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>758000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>376000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1098000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>610000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PEP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PEP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>PEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,321 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44555</v>
+      </c>
+      <c r="E7" s="2">
         <v>44443</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44359</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44275</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44191</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44079</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43995</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43911</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43715</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43631</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43547</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43463</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43351</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43267</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43183</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43099</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42987</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42903</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42819</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>25248000</v>
+      </c>
+      <c r="E8" s="3">
         <v>20189000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>19217000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14820000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>22455000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>18091000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15945000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13881000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20640000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17188000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16449000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12884000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>19524000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16485000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>16090000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12562000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>19526000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>16240000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>15710000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>12049000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>19515000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>16027000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12114000</v>
+      </c>
+      <c r="E9" s="3">
         <v>9385000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8877000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6669000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10398000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8144000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7068000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6125000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9331000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7684000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7302000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5666000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8933000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7527000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7263000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5655000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>9079000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7368000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7056000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5290000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>8944000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7284000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>13134000</v>
+      </c>
+      <c r="E10" s="3">
         <v>10804000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10340000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8151000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>12057000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9947000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8877000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7756000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11309000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9504000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9147000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7218000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>10591000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8958000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8827000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6907000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>10447000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8872000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8654000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6759000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>10571000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>8743000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,76 +1144,82 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E14" s="3">
         <v>49000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>59000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>33000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>339000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>103000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>242000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>63000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>370000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>105000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>282000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>41000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>272000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>35000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>32000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>8000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>164000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>6000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>34000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>26000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>54000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1230,8 +1253,8 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>8</v>
@@ -1248,23 +1271,26 @@
       <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="3">
-        <v>16000</v>
+      <c r="T15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U15" s="3">
         <v>16000</v>
       </c>
       <c r="V15" s="3">
+        <v>16000</v>
+      </c>
+      <c r="W15" s="3">
         <v>13000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>21000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>22702000</v>
+      </c>
+      <c r="E17" s="3">
         <v>17031000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>16087000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12514000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>19846000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15081000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13627000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11963000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18216000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14338000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13730000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10871000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>17093000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13641000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13062000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10755000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>16956000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>13316000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>12720000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10186000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>17134000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>13206000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2546000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3158000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3130000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2306000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2609000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3010000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2318000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1918000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2424000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2850000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2719000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2013000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2431000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2844000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3028000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1807000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2570000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2924000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2990000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1863000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2381000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2821000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1481,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E20" s="3">
         <v>119000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>125000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>126000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>87000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>83000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>86000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>94000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>314000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>55000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>87000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>190000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>158000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>36000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>95000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>289000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>122000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>8000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>113000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-21000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3567000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3927000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3908000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2992000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3513000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3702000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2993000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2545000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3536000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3483000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3270000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2598000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3384000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3568000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3638000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2398000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3624000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3619000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3552000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2453000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3117000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3457000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1132000</v>
+      </c>
+      <c r="E22" s="3">
         <v>232000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>241000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>258000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>339000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>260000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>236000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>301000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>530000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>236000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>145000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>232000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>686000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>305000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>164000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>245000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>528000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>270000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>224000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>255000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>529000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>286000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1588000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3045000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3014000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2174000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2357000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2833000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2168000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1711000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2208000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2669000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2567000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1868000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1935000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2697000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2900000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1657000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2331000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2776000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2774000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1721000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1831000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2604000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>247000</v>
+      </c>
+      <c r="E24" s="3">
         <v>612000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>642000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>451000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>498000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>526000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>510000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>360000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>409000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>559000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>524000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>475000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-4050000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>112000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>293000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>303000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>526000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>620000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>656000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>392000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>414000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>600000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1341000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2433000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2372000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1723000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1859000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2307000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1658000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1351000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1799000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2110000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2043000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1393000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5985000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2585000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2607000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1354000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1805000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2156000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2118000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1329000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1417000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2004000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1322000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2414000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2358000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1714000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1845000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2291000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1646000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1338000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1787000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2100000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2035000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1384000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5972000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2574000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2597000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1342000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1789000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2143000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2105000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1316000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1398000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,16 +2118,19 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-190000</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -2086,35 +2147,35 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>-21000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>29000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>882000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-76000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-777000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-1000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-2500000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-174000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-119000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-125000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-126000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-87000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-83000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-86000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-94000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-314000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-55000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-87000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-190000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-158000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-36000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-95000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-289000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-122000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-8000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-113000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>21000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-69000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1322000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2224000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2358000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1714000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1845000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2291000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1646000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1338000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1766000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2100000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2035000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1413000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6854000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2498000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1820000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1341000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-711000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2143000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2105000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1316000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1398000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1322000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2224000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2358000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1714000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1845000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2291000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1646000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1338000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1766000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2100000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2035000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1413000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6854000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2498000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1820000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1341000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-711000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2143000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2105000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1316000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1398000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44555</v>
+      </c>
+      <c r="E38" s="2">
         <v>44443</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44359</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44275</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44191</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44079</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43995</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43911</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43715</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43631</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43547</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43463</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43351</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43267</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43183</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43099</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42987</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42903</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42819</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,620 +2747,648 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5596000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6506000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5449000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5661000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8185000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9094000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8927000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11089000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5509000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5494000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3293000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5072000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8721000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11991000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13858000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13443000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10610000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10243000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>10282000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9528000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9158000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>10256000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>392000</v>
+      </c>
+      <c r="E42" s="3">
         <v>344000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>328000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>964000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1366000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>611000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>196000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>158000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>229000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>287000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>291000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>289000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>272000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1907000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4271000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>7167000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>8900000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>8035000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>6878000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>6461000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>6967000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>4524000</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8680000</v>
+      </c>
+      <c r="E43" s="3">
         <v>9545000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9722000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8885000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8404000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9295000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8780000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8477000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7822000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8735000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8502000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7604000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7142000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7975000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7841000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7171000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7024000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7923000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7543000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6848000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>6694000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7745000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4347000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4364000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5006000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4556000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4172000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4135000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4314000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3600000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3338000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3667000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3988000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3554000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3128000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3142000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3491000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3335000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2947000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3251000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3612000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3282000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2723000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3120000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2768000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2951000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1092000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1130000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>874000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>925000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>972000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>944000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>747000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1015000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1138000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1398000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2630000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>827000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>909000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1931000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1546000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>745000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>933000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1031000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>908000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1454000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21783000</v>
+      </c>
+      <c r="E46" s="3">
         <v>23710000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>21597000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>21196000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>23001000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>24060000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>23189000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>24268000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17645000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19198000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17212000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17917000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>21893000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>25842000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>30370000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>33047000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>31027000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>30197000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>29248000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>27150000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>26450000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>27099000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2627000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2791000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2774000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2777000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2792000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2752000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2715000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2719000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2683000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2690000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2510000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2476000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2409000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2394000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2401000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2115000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2042000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1950000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1962000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2003000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2055000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1975000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>22407000</v>
+      </c>
+      <c r="E48" s="3">
         <v>21257000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>21619000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>21249000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>21369000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>19726000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>19187000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>18980000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20853000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19085000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18915000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18966000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>17589000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16541000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16762000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>17141000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>17240000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>16960000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>16742000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>16649000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>53409000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>16305000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>37046000</v>
+      </c>
+      <c r="E49" s="3">
         <v>37406000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>38317000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>38110000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>38072000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>37789000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>36840000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>31444000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>31544000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>31150000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>31213000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>30920000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>30633000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>27798000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>28221000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>28638000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>28582000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>28585000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>28383000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>28181000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>27863000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>27675000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3526,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8514000</v>
+      </c>
+      <c r="E52" s="3">
         <v>8090000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8078000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7892000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7684000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7714000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7594000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7651000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5822000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5321000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5234000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5187000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5124000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1057000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>977000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>946000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>913000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>771000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>608000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>639000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1167000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>843000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>92377000</v>
+      </c>
+      <c r="E54" s="3">
         <v>93254000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>92385000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>91224000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>92918000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>92041000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>89525000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>85062000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>78547000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>77444000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>75084000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>75466000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>77648000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>73632000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>78731000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>81887000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>79804000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>78463000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>76943000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>74622000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>73490000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>73897000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,152 +3795,159 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>21159000</v>
+      </c>
+      <c r="E57" s="3">
         <v>20060000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>19359000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>18019000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>19592000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>19317000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>17220000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>16196000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17099000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16795000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16055000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>15419000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>18112000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>15230000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>14603000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>14285000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>15017000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>14641000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>13834000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>13067000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>20401000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>14305000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4308000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4234000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4264000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4674000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3780000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6692000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6607000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5882000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2920000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2924000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3473000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3291000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4026000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4474000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9955000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>11600000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5485000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7717000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>8279000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>8577000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>13784000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>6284000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>753000</v>
+      </c>
+      <c r="E59" s="3">
         <v>783000</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>8</v>
@@ -3827,20 +3964,20 @@
       <c r="J59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L59" s="3">
         <v>442000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>412000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>380000</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>8</v>
@@ -3851,8 +3988,8 @@
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -3860,221 +3997,233 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-      <c r="V59" s="3" t="s">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>8085000</v>
       </c>
-      <c r="X59" s="3" t="s">
+      <c r="Y59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>26220000</v>
+      </c>
+      <c r="E60" s="3">
         <v>25077000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>23623000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>22693000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>23372000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>26009000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>23827000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>22078000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>20461000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>20131000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>19928000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19090000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>22138000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>19704000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>24558000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>25885000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>20502000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>22358000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>22113000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>21644000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>21135000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>20589000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>36026000</v>
+      </c>
+      <c r="E61" s="3">
         <v>37023000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>38034000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>38991000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>40370000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>37879000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>38371000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>35361000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>29148000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>29630000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>27712000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>28458000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>28295000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>30643000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>30638000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>31931000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>33796000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>31452000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>31205000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>30081000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>30053000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>29322000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13980000</v>
+      </c>
+      <c r="E62" s="3">
         <v>15164000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15330000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15487000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15624000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14558000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14740000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>14064000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14070000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13459000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13407000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13622000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>12613000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>12896000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13314000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13086000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>14525000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>11242000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>11095000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>11214000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>11103000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>11268000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>76334000</v>
+      </c>
+      <c r="E66" s="3">
         <v>77382000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>77086000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>77277000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>79464000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>78558000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>77034000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>71597000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>63761000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>63315000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>61132000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>61264000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>63130000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>63346000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>68620000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>71004000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>68915000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>65168000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>64539000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>63053000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>62395000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>61295000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4558,25 +4726,28 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
         <v>-156000</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>-155000</v>
-      </c>
-      <c r="U70" s="3">
-        <v>-153000</v>
       </c>
       <c r="V70" s="3">
         <v>-153000</v>
       </c>
       <c r="W70" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="X70" s="3">
         <v>-151000</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Y70" s="3">
         <v>-148000</v>
       </c>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>65165000</v>
+      </c>
+      <c r="E72" s="3">
         <v>65336000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>64605000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>63740000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>63443000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>63013000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>62145000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>61920000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>61946000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>61514000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>60752000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>60060000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>59947000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>54404000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>53223000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>52726000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>52839000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>54698000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>53706000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>52756000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>52518000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>52200000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16043000</v>
+      </c>
+      <c r="E76" s="3">
         <v>15872000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15299000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13947000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13454000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13483000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12491000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13465000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14786000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14129000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13952000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14202000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14518000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10286000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10111000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10883000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11045000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13450000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12557000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11722000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>11246000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>12750000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44555</v>
+      </c>
+      <c r="E80" s="2">
         <v>44443</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44359</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44275</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44191</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44079</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43995</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43911</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43715</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43631</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43547</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43463</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43351</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43267</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43183</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43099</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42987</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42903</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42819</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1322000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2224000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2358000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1714000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1845000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2291000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1646000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1338000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1766000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2100000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2035000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1413000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6854000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2498000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1820000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1341000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-711000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2143000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2105000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1316000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1398000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5416,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>847000</v>
+      </c>
+      <c r="E83" s="3">
         <v>650000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>653000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>560000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>817000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>609000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>589000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>533000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>798000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>578000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>558000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>498000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>763000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>566000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>574000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>496000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>765000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>573000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>554000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>477000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>757000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>567000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4982000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4294000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3059000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-719000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4490000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4661000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2211000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-749000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4586000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3675000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1733000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-345000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4683000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3645000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2396000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1309000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3943000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3836000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2444000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-193000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3849000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3717000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5940,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2349000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-971000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-834000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-471000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2166000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-886000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-704000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-484000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2273000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-792000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-725000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-442000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1704000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-633000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-593000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-352000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1495000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-596000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-561000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-634000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2948000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1294000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2239000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-914000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-210000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>94000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2858000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1999000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5837000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-925000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2152000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1014000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-971000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2300000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1034000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1771000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2431000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1396000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2125000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1707000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-840000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>269000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4117000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1423000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,76 +6251,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1487000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1486000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1413000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1429000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1415000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1417000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1328000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1349000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1333000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1336000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1303000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1332000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1309000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1316000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1145000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1160000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1148000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1149000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1077000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1098000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1083000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1084000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6533,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3559000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2277000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3056000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1888000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2592000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2560000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1509000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>7462000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2660000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-390000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2563000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2876000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4898000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-7213000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4340000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2682000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1411000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2193000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-839000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>257000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-556000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1636000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-42000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>22000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-10000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>55000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>68000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-186000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-66000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>89000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-35000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-33000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>57000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-25000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-54000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-68000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>49000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-29000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>40000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-7000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>43000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-234000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1061000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-185000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2523000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-905000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>170000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2303000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5722000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-137000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2236000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1834000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5464000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1274000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1851000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>419000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2818000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>378000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-24000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>758000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>376000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1098000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>610000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PEP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PEP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>PEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,334 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44639</v>
+      </c>
+      <c r="E7" s="2">
         <v>44555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44443</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44359</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44275</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44191</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44079</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43995</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43911</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43827</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43715</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43631</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43547</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43463</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43351</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43267</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43183</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43099</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42987</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42903</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42819</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16200000</v>
+      </c>
+      <c r="E8" s="3">
         <v>25248000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>20189000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>19217000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14820000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>22455000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>18091000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15945000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13881000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20640000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>17188000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16449000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12884000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>19524000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>16485000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>16090000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12562000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>19526000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>16240000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>15710000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>12049000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>19515000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>16027000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7288000</v>
+      </c>
+      <c r="E9" s="3">
         <v>12114000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9385000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8877000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6669000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10398000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8144000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7068000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6125000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9331000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7684000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7302000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5666000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8933000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7527000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7263000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5655000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>9079000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7368000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7056000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>5290000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>8944000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>7284000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8912000</v>
+      </c>
+      <c r="E10" s="3">
         <v>13134000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10804000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10340000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8151000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>12057000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9947000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8877000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7756000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>11309000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9504000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9147000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7218000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>10591000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8958000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8827000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6907000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>10447000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8872000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8654000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6759000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>10571000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>8743000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,79 +1164,85 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-2773000</v>
+      </c>
+      <c r="E14" s="3">
         <v>114000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>49000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>59000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>33000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>339000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>103000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>242000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>63000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>370000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>105000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>282000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>41000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>272000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>35000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>32000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>8000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>164000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>6000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>34000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>26000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>54000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1256,8 +1279,8 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>8</v>
@@ -1274,23 +1297,26 @@
       <c r="T15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U15" s="3">
-        <v>16000</v>
+      <c r="U15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V15" s="3">
         <v>16000</v>
       </c>
       <c r="W15" s="3">
+        <v>16000</v>
+      </c>
+      <c r="X15" s="3">
         <v>13000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>21000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10923000</v>
+      </c>
+      <c r="E17" s="3">
         <v>22702000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>17031000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>16087000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12514000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>19846000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15081000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13627000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11963000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18216000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14338000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13730000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10871000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>17093000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13641000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13062000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10755000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>16956000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>13316000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>12720000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10186000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>17134000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>13206000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5277000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2546000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3158000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3130000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2306000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2609000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3010000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2318000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1918000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2424000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2850000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2719000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2013000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2431000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2844000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3028000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1807000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2570000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2924000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2990000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1863000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2381000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2821000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,363 +1515,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E20" s="3">
         <v>174000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>119000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>125000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>126000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>87000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>83000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>86000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>94000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>314000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>55000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>87000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>190000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>158000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>36000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>95000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>289000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>122000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>8000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>113000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-21000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5956000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3567000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3927000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3908000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2992000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3513000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3702000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2993000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2545000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3536000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3483000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3270000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2598000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3384000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3568000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3638000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2398000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3624000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3619000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3552000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2453000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3117000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3457000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1132000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>232000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>241000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>258000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>339000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>260000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>236000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>301000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>530000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>236000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>145000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>232000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>686000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>305000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>164000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>245000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>528000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>270000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>224000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>255000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>529000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>286000</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5161000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1588000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3045000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3014000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2174000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2357000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2833000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2168000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1711000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2208000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2669000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2567000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1868000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1935000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2697000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2900000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1657000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2331000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2776000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2774000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1721000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1831000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2604000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>888000</v>
+      </c>
+      <c r="E24" s="3">
         <v>247000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>612000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>642000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>451000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>498000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>526000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>510000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>360000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>409000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>559000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>524000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>475000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-4050000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>112000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>293000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>303000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>526000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>620000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>656000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>392000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>414000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>600000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4273000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1341000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2433000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2372000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1723000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1859000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2307000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1658000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1351000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1799000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2110000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2043000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1393000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5985000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2585000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2607000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1354000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1805000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2156000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2118000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1329000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1417000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2004000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4261000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1322000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2414000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2358000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1714000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1845000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2291000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1646000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1338000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1787000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2100000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2035000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1384000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5972000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2574000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2597000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1342000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1789000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2143000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2105000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1316000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1398000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,19 +2179,22 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-190000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -2150,35 +2211,35 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>-21000</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>29000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>882000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-76000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-777000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-1000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-2500000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2401,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-124000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-174000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-119000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-125000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-126000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-87000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-83000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-86000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-94000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-314000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-55000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-87000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-190000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-158000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-36000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-95000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-289000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-122000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-8000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-113000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>21000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-69000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4261000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1322000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2224000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2358000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1714000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1845000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2291000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1646000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1338000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1766000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2100000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2035000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1413000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6854000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2498000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1820000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1341000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-711000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2143000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2105000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1316000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1398000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4261000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1322000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2224000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2358000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1714000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1845000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2291000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1646000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1338000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1766000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2100000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2035000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1413000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6854000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2498000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1820000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1341000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-711000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2143000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2105000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1316000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1398000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44639</v>
+      </c>
+      <c r="E38" s="2">
         <v>44555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44443</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44359</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44275</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44191</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44079</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43995</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43911</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43827</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43715</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43631</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43547</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43463</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43351</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43267</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43183</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43099</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42987</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42903</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42819</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,647 +2834,675 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6561000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5596000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6506000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5449000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5661000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8185000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9094000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8927000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11089000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5509000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5494000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3293000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5072000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8721000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11991000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13858000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13443000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10610000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>10243000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>10282000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9528000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>9158000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>10256000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>343000</v>
+      </c>
+      <c r="E42" s="3">
         <v>392000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>344000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>328000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>964000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1366000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>611000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>196000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>158000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>229000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>287000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>291000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>289000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>272000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1907000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4271000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>7167000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>8900000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>8035000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>6878000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>6461000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>6967000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>4524000</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9424000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8680000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9545000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9722000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8885000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8404000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9295000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8780000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8477000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7822000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8735000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8502000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7604000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7142000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7975000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7841000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7171000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7024000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7923000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7543000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>6848000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>6694000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>7745000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4762000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4347000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4364000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5006000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4556000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4172000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4135000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4314000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3600000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3338000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3667000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3988000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3554000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3128000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3142000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3491000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3335000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2947000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3251000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3612000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3282000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2723000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3120000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1252000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2768000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2951000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1092000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1130000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>874000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>925000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>972000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>944000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>747000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1015000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1138000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1398000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2630000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>827000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>909000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1931000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1546000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>745000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>933000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1031000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>908000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1454000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>22342000</v>
+      </c>
+      <c r="E46" s="3">
         <v>21783000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>23710000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>21597000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>21196000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>23001000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>24060000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>23189000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>24268000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17645000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>19198000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17212000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17917000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>21893000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>25842000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>30370000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>33047000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>31027000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>30197000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>29248000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>27150000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>26450000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>27099000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3595000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2627000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2791000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2774000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2777000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2792000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2752000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2715000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2719000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2683000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2690000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2510000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2476000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2409000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2394000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2401000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2115000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2042000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1950000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1962000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2003000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2055000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1975000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>22017000</v>
+      </c>
+      <c r="E48" s="3">
         <v>22407000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>21257000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>21619000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>21249000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>21369000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>19726000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>19187000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18980000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20853000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19085000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18915000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18966000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>17589000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16541000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16762000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>17141000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>17240000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>16960000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>16742000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>16649000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>53409000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>16305000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>36212000</v>
+      </c>
+      <c r="E49" s="3">
         <v>37046000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>37406000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>38317000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>38110000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>38072000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>37789000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>36840000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>31444000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>31544000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>31150000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>31213000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>30920000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>30633000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>27798000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>28221000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>28638000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>28582000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>28585000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>28383000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>28181000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>27863000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>27675000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3646,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8796000</v>
+      </c>
+      <c r="E52" s="3">
         <v>8514000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8090000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8078000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7892000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7684000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7714000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7594000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7651000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5822000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5321000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5234000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5187000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5124000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1057000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>977000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>946000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>913000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>771000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>608000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>639000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1167000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>843000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>92962000</v>
+      </c>
+      <c r="E54" s="3">
         <v>92377000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>93254000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>92385000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>91224000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>92918000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>92041000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>89525000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>85062000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>78547000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>77444000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>75084000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>75466000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>77648000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>73632000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>78731000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>81887000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>79804000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>78463000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>76943000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>74622000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>73490000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>73897000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,161 +3926,168 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>20365000</v>
+      </c>
+      <c r="E57" s="3">
         <v>21159000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>20060000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>19359000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>18019000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>19592000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>19317000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>17220000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16196000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17099000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16795000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16055000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>15419000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>18112000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>15230000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>14603000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>14285000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>15017000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>14641000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>13834000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>13067000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>20401000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>14305000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5459000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4308000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4234000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4264000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4674000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3780000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6692000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6607000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5882000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2920000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2924000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3473000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3291000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4026000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4474000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>9955000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>11600000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5485000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7717000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>8279000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>8577000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>13784000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>6284000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
         <v>753000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>783000</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>8</v>
@@ -3967,20 +4104,20 @@
       <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3">
         <v>442000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>412000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>400000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>380000</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>8</v>
@@ -3991,8 +4128,8 @@
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
+      <c r="T59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
@@ -4000,230 +4137,242 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-      <c r="W59" s="3" t="s">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>8085000</v>
       </c>
-      <c r="Y59" s="3" t="s">
+      <c r="Z59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>25824000</v>
+      </c>
+      <c r="E60" s="3">
         <v>26220000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>25077000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>23623000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>22693000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>23372000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>26009000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>23827000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>22078000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>20461000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>20131000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19928000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19090000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>22138000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>19704000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>24558000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>25885000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>20502000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>22358000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>22113000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>21644000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>21135000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>20589000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>34590000</v>
+      </c>
+      <c r="E61" s="3">
         <v>36026000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>37023000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>38034000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>38991000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>40370000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>37879000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>38371000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>35361000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>29148000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>29630000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>27712000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>28458000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>28295000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>30643000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>30638000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>31931000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>33796000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>31452000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>31205000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>30081000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>30053000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>29322000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14228000</v>
+      </c>
+      <c r="E62" s="3">
         <v>13980000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15164000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15330000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15487000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>15624000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14558000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>14740000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14064000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14070000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13459000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13407000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13622000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>12613000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>12896000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13314000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13086000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>14525000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>11242000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>11095000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>11214000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>11103000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>11268000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>74760000</v>
+      </c>
+      <c r="E66" s="3">
         <v>76334000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>77382000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>77086000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>77277000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>79464000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>78558000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>77034000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>71597000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>63761000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>63315000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>61132000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>61264000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>63130000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>63346000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>68620000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>71004000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>68915000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>65168000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>64539000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>63053000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>62395000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>61295000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4729,25 +4897,28 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
         <v>-156000</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>-155000</v>
-      </c>
-      <c r="V70" s="3">
-        <v>-153000</v>
       </c>
       <c r="W70" s="3">
         <v>-153000</v>
       </c>
       <c r="X70" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="Y70" s="3">
         <v>-151000</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="Z70" s="3">
         <v>-148000</v>
       </c>
     </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>67934000</v>
+      </c>
+      <c r="E72" s="3">
         <v>65165000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>65336000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>64605000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>63740000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>63443000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>63013000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>62145000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>61920000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>61946000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>61514000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>60752000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>60060000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>59947000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>54404000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>53223000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>52726000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>52839000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>54698000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>53706000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>52756000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>52518000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>52200000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18202000</v>
+      </c>
+      <c r="E76" s="3">
         <v>16043000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15872000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15299000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13947000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13454000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13483000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12491000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13465000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14786000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14129000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13952000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14202000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14518000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10286000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10111000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10883000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11045000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13450000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12557000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>11722000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>11246000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>12750000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44639</v>
+      </c>
+      <c r="E80" s="2">
         <v>44555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44443</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44359</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44275</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44191</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44079</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43995</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43911</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43827</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43715</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43631</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43547</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43463</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43351</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43267</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43183</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43099</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42987</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42903</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42819</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4261000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1322000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2224000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2358000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1714000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1845000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2291000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1646000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1338000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1766000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2100000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2035000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1413000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6854000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2498000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1820000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1341000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-711000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2143000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2105000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1316000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1398000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,79 +5615,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>555000</v>
+      </c>
+      <c r="E83" s="3">
         <v>847000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>650000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>653000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>560000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>817000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>609000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>589000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>533000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>798000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>578000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>558000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>498000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>763000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>566000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>574000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>496000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>765000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>573000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>554000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>477000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>757000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>567000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-174000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4982000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4294000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3059000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-719000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4490000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4661000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2211000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-749000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4586000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3675000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1733000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-345000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4683000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3645000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2396000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1309000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3943000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3836000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2444000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-193000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3849000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3717000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6161,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-522000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2349000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-971000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-834000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-471000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2166000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-886000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-704000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-484000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2273000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-792000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-725000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-442000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1704000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-633000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-593000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-352000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1495000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-596000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-561000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-634000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2948000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1294000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2955000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2239000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-914000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-210000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>94000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2858000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1999000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5837000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-925000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2152000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1014000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-971000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2300000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1034000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1771000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2431000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1396000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2125000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1707000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-840000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>269000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-4117000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1423000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,79 +6485,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1505000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1487000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1486000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1413000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1429000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1415000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1417000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1328000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1349000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1333000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1336000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1303000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1332000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1309000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1316000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1145000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1160000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1148000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1149000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1077000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1098000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1083000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1084000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,217 +6779,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1780000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3559000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2277000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3056000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1888000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2592000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2560000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1509000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>7462000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2660000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-390000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2563000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2876000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4898000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-7213000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4340000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2682000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1411000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2193000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-839000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>257000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-556000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1636000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-84000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-42000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>22000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-10000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>55000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>68000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-186000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-66000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>89000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-35000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-33000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>57000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-54000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-68000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>49000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-29000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>40000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-7000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>43000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-234000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>984000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-900000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1061000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-185000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2523000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-905000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>170000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2303000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5722000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-137000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2236000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1834000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5464000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1274000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1851000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>419000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2818000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>378000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-24000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>758000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>376000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1098000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>610000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PEP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PEP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>PEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,347 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44723</v>
+      </c>
+      <c r="E7" s="2">
         <v>44639</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44443</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44359</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44275</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44191</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44079</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43995</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43911</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43715</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43631</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43547</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43351</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43267</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43183</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43099</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42987</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42903</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42819</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>20225000</v>
+      </c>
+      <c r="E8" s="3">
         <v>16200000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>25248000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>20189000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>19217000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14820000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>22455000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>18091000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15945000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13881000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20640000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>17188000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16449000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12884000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>19524000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>16485000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>16090000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12562000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>19526000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>16240000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>15710000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>12049000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>19515000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>16027000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>9414000</v>
+      </c>
+      <c r="E9" s="3">
         <v>7288000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12114000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9385000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>8877000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6669000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10398000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8144000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7068000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6125000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9331000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7684000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7302000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5666000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8933000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7527000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7263000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5655000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>9079000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7368000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7056000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>5290000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>8944000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>7284000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>10811000</v>
+      </c>
+      <c r="E10" s="3">
         <v>8912000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>13134000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10804000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10340000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8151000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>12057000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9947000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8877000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7756000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>11309000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9504000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9147000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7218000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>10591000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8958000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8827000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6907000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>10447000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8872000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8654000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6759000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>10571000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>8743000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,8 +1032,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1093,8 +1107,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,82 +1184,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1552000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-2773000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>114000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>49000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>59000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>33000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>339000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>103000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>242000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>63000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>370000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>105000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>282000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>41000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>272000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>35000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>32000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>8000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>164000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>6000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>34000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>26000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>54000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1282,8 +1305,8 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>8</v>
@@ -1300,23 +1323,26 @@
       <c r="U15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V15" s="3">
-        <v>16000</v>
+      <c r="V15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W15" s="3">
         <v>16000</v>
       </c>
       <c r="X15" s="3">
+        <v>16000</v>
+      </c>
+      <c r="Y15" s="3">
         <v>13000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>21000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1366,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>18279000</v>
+      </c>
+      <c r="E17" s="3">
         <v>10923000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>22702000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>17031000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>16087000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12514000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>19846000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15081000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13627000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11963000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18216000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14338000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13730000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10871000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>17093000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13641000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13062000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10755000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>16956000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>13316000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>12720000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>10186000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>17134000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>13206000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1946000</v>
+      </c>
+      <c r="E18" s="3">
         <v>5277000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2546000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3158000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3130000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2306000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2609000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3010000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2318000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1918000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2424000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2850000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2719000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2013000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2431000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2844000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3028000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1807000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2570000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2924000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2990000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1863000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2381000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2821000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,378 +1549,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E20" s="3">
         <v>124000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>174000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>119000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>125000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>126000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>87000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>83000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>86000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>94000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>314000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>55000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>87000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>190000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>158000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>36000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>95000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>289000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>122000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>8000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>113000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-21000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2715000</v>
+      </c>
+      <c r="E21" s="3">
         <v>5956000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3567000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3927000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3908000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2992000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3513000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3702000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2993000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2545000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3536000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3483000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3270000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2598000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3384000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3568000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3638000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2398000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3624000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3619000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3552000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2453000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3117000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3457000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>236000</v>
+      </c>
+      <c r="E22" s="3">
         <v>240000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1132000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>232000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>241000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>258000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>339000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>260000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>236000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>301000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>530000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>236000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>145000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>232000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>686000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>305000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>164000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>245000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>528000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>270000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>224000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>255000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>529000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>286000</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1839000</v>
+      </c>
+      <c r="E23" s="3">
         <v>5161000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1588000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3045000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3014000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2174000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2357000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2833000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2168000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1711000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2208000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2669000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2567000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1868000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1935000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2697000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2900000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1657000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2331000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2776000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2774000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1721000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1831000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2604000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>393000</v>
+      </c>
+      <c r="E24" s="3">
         <v>888000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>247000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>612000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>642000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>451000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>498000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>526000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>510000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>360000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>409000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>559000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>524000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>475000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-4050000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>112000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>293000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>303000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>526000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>620000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>656000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>392000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>414000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>600000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1446000</v>
+      </c>
+      <c r="E26" s="3">
         <v>4273000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1341000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2433000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2372000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1723000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1859000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2307000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1658000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1351000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1799000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2110000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2043000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1393000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5985000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2585000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2607000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1354000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1805000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2156000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2118000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1329000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1417000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2004000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1429000</v>
+      </c>
+      <c r="E27" s="3">
         <v>4261000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1322000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2414000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2358000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1714000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1845000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2291000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1646000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1338000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1787000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2100000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2035000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1384000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5972000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2574000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2597000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1342000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1789000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2143000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2105000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1316000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1398000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,22 +2240,25 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-190000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -2214,35 +2275,35 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-21000</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>29000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>882000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-76000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-777000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-1000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-2500000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,156 +2471,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-129000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-124000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-174000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-119000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-125000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-126000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-87000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-83000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-86000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-94000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-314000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-55000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-87000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-190000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-158000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-36000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-95000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-289000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-122000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-8000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-113000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>21000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-69000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1429000</v>
+      </c>
+      <c r="E33" s="3">
         <v>4261000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1322000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2224000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2358000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1714000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1845000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2291000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1646000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1338000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1766000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2100000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2035000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1413000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6854000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2498000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1820000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1341000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-711000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2143000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2105000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1316000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1398000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1429000</v>
+      </c>
+      <c r="E35" s="3">
         <v>4261000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1322000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2224000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2358000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1714000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1845000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2291000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1646000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1338000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1766000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2100000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2035000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1413000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6854000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2498000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1820000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1341000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-711000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2143000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2105000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1316000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1398000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44723</v>
+      </c>
+      <c r="E38" s="2">
         <v>44639</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44443</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44359</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44275</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44191</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44079</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43995</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43911</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43715</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43631</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43547</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43351</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43267</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43183</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43099</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42987</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42903</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42819</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,674 +2921,702 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5405000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6561000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5596000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6506000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5449000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5661000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8185000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9094000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8927000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11089000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5509000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5494000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3293000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5072000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8721000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11991000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13858000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13443000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>10610000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>10243000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>10282000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>9528000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>9158000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>10256000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>287000</v>
+      </c>
+      <c r="E42" s="3">
         <v>343000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>392000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>344000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>328000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>964000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1366000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>611000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>196000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>158000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>229000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>287000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>291000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>289000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>272000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1907000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4271000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>7167000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>8900000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>8035000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>6878000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>6461000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>6967000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>4524000</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10498000</v>
+      </c>
+      <c r="E43" s="3">
         <v>9424000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8680000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9545000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9722000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8885000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8404000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9295000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8780000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8477000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7822000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8735000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8502000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7604000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7142000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7975000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7841000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7171000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7024000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7923000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7543000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>6848000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>6694000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>7745000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5287000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4762000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4347000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4364000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5006000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4556000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4172000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4135000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4314000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3600000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3338000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3667000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3988000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3554000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3128000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3142000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3491000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3335000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2947000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3251000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3612000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3282000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2723000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3120000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1156000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1252000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2768000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2951000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1092000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1130000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>874000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>925000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>972000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>944000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>747000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1015000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1138000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1398000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2630000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>827000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>909000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1931000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1546000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>745000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>933000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1031000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>908000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1454000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>22633000</v>
+      </c>
+      <c r="E46" s="3">
         <v>22342000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>21783000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>23710000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>21597000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>21196000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>23001000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>24060000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>23189000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>24268000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17645000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>19198000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17212000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17917000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>21893000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>25842000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>30370000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>33047000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>31027000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>30197000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>29248000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>27150000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>26450000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>27099000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3519000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3595000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2627000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2791000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2774000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2777000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2792000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2752000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2715000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2719000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2683000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2690000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2510000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2476000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2409000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2394000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2401000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2115000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2042000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1950000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1962000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2003000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2055000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1975000</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>22694000</v>
+      </c>
+      <c r="E48" s="3">
         <v>22017000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>22407000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>21257000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>21619000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>21249000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>21369000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>19726000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19187000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18980000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>20853000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19085000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18915000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>18966000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>17589000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16541000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>16762000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>17141000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>17240000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>16960000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>16742000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>16649000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>53409000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>16305000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>35638000</v>
+      </c>
+      <c r="E49" s="3">
         <v>36212000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>37046000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>37406000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>38317000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>38110000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>38072000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>37789000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>36840000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>31444000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>31544000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>31150000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>31213000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>30920000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>30633000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>27798000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>28221000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>28638000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>28582000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>28585000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>28383000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>28181000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>27863000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>27675000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,82 +3766,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8619000</v>
+      </c>
+      <c r="E52" s="3">
         <v>8796000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8514000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8090000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8078000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7892000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7684000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7714000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7594000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7651000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5822000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5321000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5234000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5187000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5124000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1057000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>977000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>946000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>913000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>771000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>608000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>639000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1167000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>843000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3920,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>93103000</v>
+      </c>
+      <c r="E54" s="3">
         <v>92962000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>92377000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>93254000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>92385000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>91224000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>92918000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>92041000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>89525000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>85062000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>78547000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>77444000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>75084000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>75466000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>77648000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>73632000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>78731000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>81887000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>79804000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>78463000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>76943000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>74622000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>73490000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>73897000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,156 +4057,163 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>21191000</v>
+      </c>
+      <c r="E57" s="3">
         <v>20365000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>21159000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>20060000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>19359000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>18019000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>19592000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>19317000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17220000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16196000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>17099000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16795000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>16055000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>15419000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>18112000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>15230000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>14603000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>14285000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>15017000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>14641000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>13834000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>13067000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>20401000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>14305000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6032000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5459000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4308000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4234000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4264000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4674000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3780000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6692000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6607000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5882000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2920000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2924000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3473000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3291000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4026000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4474000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>9955000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>11600000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5485000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7717000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>8279000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>8577000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>13784000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>6284000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4084,13 +4221,13 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
         <v>753000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>783000</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>8</v>
@@ -4107,20 +4244,20 @@
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" s="3">
         <v>442000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>412000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>380000</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>8</v>
@@ -4131,8 +4268,8 @@
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="U59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
@@ -4140,239 +4277,251 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-      <c r="X59" s="3" t="s">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>8085000</v>
       </c>
-      <c r="Z59" s="3" t="s">
+      <c r="AA59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>27223000</v>
+      </c>
+      <c r="E60" s="3">
         <v>25824000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>26220000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>25077000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>23623000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>22693000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>23372000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>26009000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>23827000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>22078000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>20461000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>20131000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19928000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>19090000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>22138000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19704000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>24558000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>25885000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>20502000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>22358000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>22113000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>21644000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>21135000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>20589000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>33247000</v>
+      </c>
+      <c r="E61" s="3">
         <v>34590000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>36026000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>37023000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>38034000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>38991000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>40370000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>37879000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>38371000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>35361000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>29148000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>29630000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>27712000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>28458000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>28295000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>30643000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>30638000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>31931000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>33796000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>31452000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>31205000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>30081000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>30053000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>29322000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13959000</v>
+      </c>
+      <c r="E62" s="3">
         <v>14228000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13980000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15164000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15330000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>15487000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>15624000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>14558000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14740000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14064000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14070000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13459000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13407000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13622000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>12613000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>12896000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13314000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>13086000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>14525000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>11242000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>11095000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>11214000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>11103000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>11268000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4748,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>74550000</v>
+      </c>
+      <c r="E66" s="3">
         <v>74760000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>76334000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>77382000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>77086000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>77277000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>79464000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>78558000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>77034000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>71597000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>63761000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>63315000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>61132000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>61264000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>63130000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>63346000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>68620000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>71004000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>68915000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>65168000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>64539000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>63053000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>62395000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>61295000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4900,25 +5068,28 @@
         <v>0</v>
       </c>
       <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
         <v>-156000</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>-155000</v>
-      </c>
-      <c r="W70" s="3">
-        <v>-153000</v>
       </c>
       <c r="X70" s="3">
         <v>-153000</v>
       </c>
       <c r="Y70" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="Z70" s="3">
         <v>-151000</v>
       </c>
-      <c r="Z70" s="3">
+      <c r="AA70" s="3">
         <v>-148000</v>
       </c>
     </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5162,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>67763000</v>
+      </c>
+      <c r="E72" s="3">
         <v>67934000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>65165000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>65336000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>64605000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>63740000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>63443000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>63013000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>62145000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>61920000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>61946000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>61514000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>60752000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>60060000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>59947000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>54404000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>53223000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>52726000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>52839000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>54698000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>53706000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>52756000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>52518000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>52200000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5470,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18553000</v>
+      </c>
+      <c r="E76" s="3">
         <v>18202000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16043000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15872000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15299000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13947000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13454000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13483000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12491000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13465000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14786000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14129000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13952000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14202000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14518000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10286000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10111000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10883000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11045000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13450000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12557000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>11722000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>11246000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>12750000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44723</v>
+      </c>
+      <c r="E80" s="2">
         <v>44639</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44443</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44359</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44275</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44191</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44079</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43995</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43911</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43715</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43631</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43547</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43351</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43267</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43183</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43099</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42987</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42903</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42819</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1429000</v>
+      </c>
+      <c r="E81" s="3">
         <v>4261000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1322000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2224000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2358000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1714000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1845000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2291000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1646000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1338000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1766000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2100000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2035000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1413000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6854000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2498000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1820000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1341000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-711000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2143000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2105000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1316000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1398000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,82 +5814,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>640000</v>
+      </c>
+      <c r="E83" s="3">
         <v>555000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>847000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>650000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>653000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>560000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>817000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>609000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>589000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>533000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>798000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>578000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>558000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>498000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>763000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>566000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>574000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>496000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>765000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>573000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>554000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>477000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>757000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>567000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6274,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2055000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-174000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4982000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4294000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3059000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-719000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4490000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4661000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2211000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-749000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4586000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3675000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1733000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-345000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4683000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3645000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2396000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1309000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3943000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3836000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2444000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-193000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3849000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3717000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,82 +6382,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-977000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-522000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2349000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-971000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-834000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-471000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2166000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-886000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-704000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-484000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2273000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-792000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-725000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-442000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1704000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-633000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-593000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-352000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1495000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-596000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-561000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-634000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2948000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1294000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6611,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-783000</v>
+      </c>
+      <c r="E94" s="3">
         <v>2955000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2239000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-914000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-210000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>94000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2858000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1999000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5837000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-925000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2152000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1014000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-971000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2300000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1034000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1771000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>2431000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1396000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2125000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1707000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-840000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>269000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-4117000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1423000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,82 +6719,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1492000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1505000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1487000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1486000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1413000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1429000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1415000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1417000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1328000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1349000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1333000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1336000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1303000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1332000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1309000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1316000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1145000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1160000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1148000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1149000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1077000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1098000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1083000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-1084000</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,226 +7025,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2352000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1780000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3559000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2277000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3056000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1888000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2592000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2560000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1509000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>7462000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2660000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-390000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2563000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2876000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4898000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-7213000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4340000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2682000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1411000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2193000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-839000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>257000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-556000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1636000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-17000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-84000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-42000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>22000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-10000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>55000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>68000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-186000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-66000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>89000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-35000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-33000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>57000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-25000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-54000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-68000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>49000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-29000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>40000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-7000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>43000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-234000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1146000</v>
+      </c>
+      <c r="E102" s="3">
         <v>984000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-900000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1061000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-185000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2523000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-905000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>170000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2303000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5722000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-137000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2236000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1834000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5464000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1274000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1851000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>419000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2818000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>378000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-24000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>758000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>376000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1098000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>610000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PEP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PEP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>PEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,347 +665,359 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44807</v>
+      </c>
+      <c r="E7" s="2">
         <v>44723</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44639</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44443</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44359</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44275</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44191</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44079</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43995</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43911</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43715</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43631</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43547</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43463</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43351</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43267</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43183</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43099</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42987</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42903</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42819</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>21971000</v>
+      </c>
+      <c r="E8" s="3">
         <v>20225000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16200000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>25248000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>20189000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>19217000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14820000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>22455000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18091000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15945000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13881000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>20640000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>17188000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16449000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12884000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>19524000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>16485000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>16090000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>12562000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>19526000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>16240000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>15710000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>12049000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>19515000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>16027000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10296000</v>
+      </c>
+      <c r="E9" s="3">
         <v>9414000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7288000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12114000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9385000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8877000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6669000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10398000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8144000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7068000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6125000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9331000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7684000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7302000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5666000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8933000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7527000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7263000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5655000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>9079000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7368000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7056000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>5290000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>8944000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>7284000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>11675000</v>
+      </c>
+      <c r="E10" s="3">
         <v>10811000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8912000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>13134000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10804000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>10340000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8151000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>12057000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9947000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8877000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7756000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>11309000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9504000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>9147000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7218000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>10591000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8958000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8827000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6907000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>10447000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8872000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>8654000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>6759000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>10571000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>8743000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1033,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1110,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,85 +1203,91 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>133000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1552000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-2773000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>114000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>49000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>59000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>33000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>339000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>103000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>242000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>63000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>370000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>105000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>282000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>41000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>272000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>35000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>32000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>8000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>164000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>6000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>34000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>26000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>54000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1308,8 +1330,8 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>8</v>
@@ -1326,23 +1348,26 @@
       <c r="V15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W15" s="3">
-        <v>16000</v>
+      <c r="W15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X15" s="3">
         <v>16000</v>
       </c>
       <c r="Y15" s="3">
+        <v>16000</v>
+      </c>
+      <c r="Z15" s="3">
         <v>13000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>21000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>18677000</v>
+      </c>
+      <c r="E17" s="3">
         <v>18279000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10923000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>22702000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>17031000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>16087000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12514000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>19846000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15081000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13627000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11963000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18216000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14338000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13730000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10871000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>17093000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13641000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>13062000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10755000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>16956000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>13316000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>12720000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>10186000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>17134000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>13206000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3294000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1946000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5277000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2546000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3158000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3130000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2306000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2609000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3010000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2318000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1918000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2424000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2850000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2719000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2013000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2431000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2844000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3028000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1807000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2570000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2924000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2990000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1863000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2381000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2821000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>95000</v>
+      </c>
+      <c r="E20" s="3">
         <v>129000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>124000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>174000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>119000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>125000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>126000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>87000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>83000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>86000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>94000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>314000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>55000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>87000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>190000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>158000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>36000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>95000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>289000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>122000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>8000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>113000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-21000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4048000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2715000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5956000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3567000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3927000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3908000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2992000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3513000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3702000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2993000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2545000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3536000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3483000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3270000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2598000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3384000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3568000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3638000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2398000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3624000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3619000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3552000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2453000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3117000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>3457000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E22" s="3">
         <v>236000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>240000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1132000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>232000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>241000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>258000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>339000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>260000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>236000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>301000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>530000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>236000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>145000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>232000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>686000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>305000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>164000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>245000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>528000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>270000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>224000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>255000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>529000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>286000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3199000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1839000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5161000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1588000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3045000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3014000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2174000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2357000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2833000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2168000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1711000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2208000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2669000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2567000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1868000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1935000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2697000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2900000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1657000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2331000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2776000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2774000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1721000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1831000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2604000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>389000</v>
+      </c>
+      <c r="E24" s="3">
         <v>393000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>888000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>247000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>612000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>642000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>451000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>498000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>526000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>510000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>360000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>409000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>559000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>524000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>475000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-4050000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>112000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>293000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>303000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>526000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>620000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>656000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>392000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>414000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>600000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2810000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1446000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4273000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1341000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2433000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2372000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1723000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1859000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2307000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1658000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1351000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1799000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2110000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2043000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1393000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5985000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2585000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2607000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1354000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1805000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2156000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2118000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1329000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1417000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2004000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2788000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1429000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4261000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1322000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2414000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2358000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1714000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1845000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2291000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1646000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1338000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1787000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2100000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2035000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1384000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5972000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2574000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2597000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1342000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1789000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2143000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2105000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1316000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1398000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,25 +2300,28 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>-86000</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-190000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -2278,35 +2338,35 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-21000</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>29000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>882000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-76000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-777000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-1000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-2500000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2320,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-95000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-129000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-124000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-174000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-119000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-125000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-126000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-87000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-83000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-86000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-94000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-314000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-55000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>7000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-87000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-190000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-158000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-36000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-95000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-289000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-122000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-8000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-113000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>21000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-69000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2702000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1429000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4261000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1322000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2224000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2358000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1714000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1845000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2291000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1646000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1338000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1766000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2100000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2035000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1413000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6854000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2498000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1820000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1341000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-711000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2143000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2105000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1316000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1398000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2702000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1429000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4261000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1322000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2224000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2358000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1714000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1845000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2291000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1646000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1338000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1766000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2100000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2035000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1413000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6854000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2498000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1820000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1341000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-711000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2143000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2105000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1316000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1398000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44807</v>
+      </c>
+      <c r="E38" s="2">
         <v>44723</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44639</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44443</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44359</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44275</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44191</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44079</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43995</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43911</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43715</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43631</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43547</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43463</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43351</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43267</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43183</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43099</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42987</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42903</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42819</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,701 +3007,729 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6415000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5405000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6561000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5596000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6506000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5449000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5661000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8185000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9094000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8927000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11089000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5509000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5494000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3293000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5072000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8721000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>11991000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13858000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13443000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>10610000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>10243000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>10282000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>9528000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>9158000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>10256000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>327000</v>
+      </c>
+      <c r="E42" s="3">
         <v>287000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>343000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>392000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>344000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>328000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>964000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1366000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>611000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>196000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>158000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>229000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>287000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>291000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>289000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>272000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1907000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>4271000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>7167000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>8900000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>8035000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>6878000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>6461000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>6967000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>4524000</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10739000</v>
+      </c>
+      <c r="E43" s="3">
         <v>10498000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9424000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8680000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9545000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9722000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8885000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8404000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9295000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8780000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8477000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7822000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8735000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8502000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7604000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7142000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7975000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7841000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7171000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7024000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7923000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7543000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>6848000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>6694000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>7745000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5019000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5287000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4762000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4347000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4364000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5006000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4556000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4172000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4135000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4314000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3600000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3338000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3667000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3988000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3554000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3128000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3142000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3491000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3335000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2947000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3251000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3612000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3282000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2723000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3120000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1043000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1156000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1252000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2768000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2951000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1092000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1130000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>874000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>925000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>972000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>944000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>747000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1015000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1138000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1398000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2630000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>827000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>909000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1931000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1546000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>745000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>933000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1031000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>908000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1454000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>23543000</v>
+      </c>
+      <c r="E46" s="3">
         <v>22633000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>22342000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>21783000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>23710000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>21597000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>21196000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>23001000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>24060000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>23189000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>24268000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17645000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>19198000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17212000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17917000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>21893000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>25842000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>30370000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>33047000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>31027000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>30197000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>29248000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>27150000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>26450000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>27099000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3224000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3519000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3595000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2627000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2791000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2774000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2777000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2792000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2752000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2715000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2719000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2683000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2690000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2510000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2476000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2409000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2394000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2401000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2115000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2042000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1950000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1962000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2003000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2055000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1975000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>22800000</v>
+      </c>
+      <c r="E48" s="3">
         <v>22694000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>22017000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>22407000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>21257000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>21619000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>21249000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>21369000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19726000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19187000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18980000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>20853000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>19085000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>18915000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18966000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>17589000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>16541000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>16762000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>17141000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>17240000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>16960000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>16742000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>16649000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>53409000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>16305000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>35540000</v>
+      </c>
+      <c r="E49" s="3">
         <v>35638000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>36212000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>37046000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>37406000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>38317000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>38110000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>38072000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>37789000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>36840000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>31444000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>31544000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>31150000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>31213000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>30920000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>30633000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>27798000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>28221000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>28638000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>28582000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>28585000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>28383000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>28181000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>27863000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>27675000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9354000</v>
+      </c>
+      <c r="E52" s="3">
         <v>8619000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8796000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8514000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8090000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8078000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7892000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7684000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7714000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7594000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7651000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5822000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5321000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5234000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5187000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5124000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1057000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>977000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>946000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>913000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>771000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>608000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>639000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1167000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>843000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>94461000</v>
+      </c>
+      <c r="E54" s="3">
         <v>93103000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>92962000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>92377000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>93254000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>92385000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>91224000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>92918000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>92041000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>89525000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>85062000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>78547000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>77444000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>75084000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>75466000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>77648000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>73632000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>78731000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>81887000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>79804000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>78463000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>76943000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>74622000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>73490000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>73897000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,162 +4187,169 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>22544000</v>
+      </c>
+      <c r="E57" s="3">
         <v>21191000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>20365000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>21159000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>20060000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>19359000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>18019000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>19592000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>19317000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17220000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16196000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>17099000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>16795000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>16055000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>15419000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>18112000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>15230000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>14603000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>14285000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>15017000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>14641000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>13834000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>13067000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>20401000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>14305000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3109000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6032000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5459000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4308000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4234000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4264000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4674000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3780000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6692000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6607000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5882000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2920000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2924000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3473000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3291000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4026000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4474000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>9955000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>11600000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5485000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>7717000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>8279000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>8577000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>13784000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>6284000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4224,13 +4360,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
         <v>753000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>783000</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>8</v>
@@ -4247,20 +4383,20 @@
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O59" s="3">
         <v>442000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>412000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>380000</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>8</v>
@@ -4271,8 +4407,8 @@
       <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
+      <c r="V59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
@@ -4280,248 +4416,260 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-      <c r="Y59" s="3" t="s">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>8085000</v>
       </c>
-      <c r="AA59" s="3" t="s">
+      <c r="AB59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>25653000</v>
+      </c>
+      <c r="E60" s="3">
         <v>27223000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>25824000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>26220000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>25077000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>23623000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>22693000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>23372000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>26009000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>23827000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>22078000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>20461000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>20131000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>19928000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>19090000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>22138000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>19704000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>24558000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>25885000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>20502000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>22358000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>22113000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>21644000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>21135000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>20589000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>36136000</v>
+      </c>
+      <c r="E61" s="3">
         <v>33247000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>34590000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>36026000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>37023000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>38034000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>38991000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>40370000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>37879000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>38371000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>35361000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>29148000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>29630000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>27712000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>28458000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>28295000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>30643000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>30638000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>31931000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>33796000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>31452000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>31205000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>30081000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>30053000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>29322000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13537000</v>
+      </c>
+      <c r="E62" s="3">
         <v>13959000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14228000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13980000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15164000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>15330000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>15487000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>15624000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14558000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14740000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14064000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14070000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13459000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13407000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13622000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>12613000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>12896000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>13314000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>13086000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>14525000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>11242000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>11095000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>11214000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>11103000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>11268000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>75484000</v>
+      </c>
+      <c r="E66" s="3">
         <v>74550000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>74760000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>76334000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>77382000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>77086000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>77277000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>79464000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>78558000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>77034000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>71597000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>63761000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>63315000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>61132000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>61264000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>63130000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>63346000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>68620000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>71004000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>68915000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>65168000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>64539000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>63053000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>62395000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>61295000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5071,25 +5238,28 @@
         <v>0</v>
       </c>
       <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
         <v>-156000</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>-155000</v>
-      </c>
-      <c r="X70" s="3">
-        <v>-153000</v>
       </c>
       <c r="Y70" s="3">
         <v>-153000</v>
       </c>
       <c r="Z70" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="AA70" s="3">
         <v>-151000</v>
       </c>
-      <c r="AA70" s="3">
+      <c r="AB70" s="3">
         <v>-148000</v>
       </c>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>68872000</v>
+      </c>
+      <c r="E72" s="3">
         <v>67763000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>67934000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>65165000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>65336000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>64605000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>63740000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>63443000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>63013000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>62145000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>61920000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>61946000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>61514000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>60752000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>60060000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>59947000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>54404000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>53223000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>52726000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>52839000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>54698000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>53706000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>52756000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>52518000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>52200000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18977000</v>
+      </c>
+      <c r="E76" s="3">
         <v>18553000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>18202000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16043000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15872000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15299000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13947000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13454000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13483000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12491000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13465000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14786000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14129000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13952000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14202000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14518000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10286000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10111000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10883000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11045000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>13450000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>12557000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>11722000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>11246000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>12750000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44807</v>
+      </c>
+      <c r="E80" s="2">
         <v>44723</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44639</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44443</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44359</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44275</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44191</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44079</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43995</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43911</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43715</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43631</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43547</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43463</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43351</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43267</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43183</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43099</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42987</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42903</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42819</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2702000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1429000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4261000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1322000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2224000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2358000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1714000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1845000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2291000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1646000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1338000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1766000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2100000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2035000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1413000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6854000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2498000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1820000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1341000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-711000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2143000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2105000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1316000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1398000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>659000</v>
+      </c>
+      <c r="E83" s="3">
         <v>640000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>555000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>847000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>650000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>653000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>560000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>817000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>609000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>589000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>533000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>798000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>578000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>558000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>498000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>763000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>566000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>574000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>496000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>765000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>573000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>554000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>477000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>757000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>567000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4425000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2055000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-174000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4982000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4294000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3059000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-719000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4490000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4661000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2211000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-749000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4586000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3675000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1733000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-345000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4683000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3645000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2396000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1309000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3943000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3836000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2444000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-193000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3849000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>3717000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1057000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-977000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-522000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2349000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-971000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-834000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-471000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2166000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-886000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-704000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-484000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2273000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-792000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-725000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-442000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1704000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-633000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-593000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-352000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1495000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-596000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-561000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-634000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2948000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1294000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1863000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-783000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2955000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2239000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-914000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-210000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>94000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2858000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1999000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5837000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-925000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2152000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1014000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-971000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2300000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1034000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1771000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>2431000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1396000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2125000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1707000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-840000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>269000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-4117000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1423000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,85 +6952,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1589000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1492000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1505000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1487000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1486000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1413000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1429000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1415000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1417000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1328000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1349000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1333000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1336000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1303000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1332000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1309000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1316000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1145000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1160000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1148000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1149000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1077000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1098000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-1083000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-1084000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1475000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2352000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1780000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3559000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2277000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3056000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1888000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2592000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2560000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1509000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>7462000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2660000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-390000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2563000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2876000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4898000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-7213000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4340000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2682000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1411000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2193000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-839000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>257000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-556000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1636000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-114000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-66000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-17000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-84000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-42000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>22000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-10000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>55000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>68000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-186000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-66000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>89000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-35000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-33000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>57000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-25000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-54000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-68000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>49000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-29000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>40000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-7000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>43000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-234000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>973000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1146000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>984000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-900000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1061000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-185000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2523000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-905000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>170000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2303000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5722000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-137000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2236000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1834000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5464000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1274000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1851000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>419000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2818000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>378000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-24000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>758000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>376000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1098000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>610000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PEP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PEP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>PEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,372 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44807</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44723</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44639</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44443</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44359</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44275</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44191</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44079</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43995</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43911</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43827</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43715</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43631</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43547</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43463</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43351</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43267</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43183</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43099</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42987</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42903</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42819</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>27996000</v>
+      </c>
+      <c r="E8" s="3">
         <v>21971000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>20225000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16200000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>25248000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>20189000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>19217000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14820000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>22455000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>18091000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15945000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13881000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>20640000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>17188000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>16449000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12884000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>19524000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>16485000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>16090000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>12562000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>19526000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>16240000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>15710000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>12049000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>19515000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>16027000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13204000</v>
+      </c>
+      <c r="E9" s="3">
         <v>10296000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9414000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7288000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12114000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9385000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8877000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6669000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10398000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8144000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7068000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6125000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9331000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7684000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7302000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5666000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8933000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7527000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7263000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5655000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>9079000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7368000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>7056000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>5290000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>8944000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>7284000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>14792000</v>
+      </c>
+      <c r="E10" s="3">
         <v>11675000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10811000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8912000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>13134000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>10804000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>10340000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8151000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12057000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9947000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8877000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7756000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>11309000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>9504000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9147000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7218000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>10591000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8958000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8827000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6907000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>10447000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>8872000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>8654000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>6759000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>10571000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>8743000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,88 +1223,94 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2387000</v>
+      </c>
+      <c r="E14" s="3">
         <v>133000</v>
       </c>
-      <c r="E14" s="3">
-        <v>1552000</v>
-      </c>
       <c r="F14" s="3">
+        <v>1555000</v>
+      </c>
+      <c r="G14" s="3">
         <v>-2773000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>114000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>49000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>59000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>33000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>339000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>103000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>242000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>63000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>370000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>105000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>282000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>41000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>272000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>35000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>32000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>8000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>164000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>6000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>34000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>26000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>54000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1333,8 +1356,8 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>8</v>
@@ -1351,23 +1374,26 @@
       <c r="W15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X15" s="3">
-        <v>16000</v>
+      <c r="X15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y15" s="3">
         <v>16000</v>
       </c>
       <c r="Z15" s="3">
+        <v>16000</v>
+      </c>
+      <c r="AA15" s="3">
         <v>13000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>21000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>27342000</v>
+      </c>
+      <c r="E17" s="3">
         <v>18677000</v>
       </c>
-      <c r="E17" s="3">
-        <v>18279000</v>
-      </c>
       <c r="F17" s="3">
+        <v>18282000</v>
+      </c>
+      <c r="G17" s="3">
         <v>10923000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>22702000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>17031000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>16087000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12514000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19846000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15081000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13627000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11963000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>18216000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14338000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13730000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10871000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>17093000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>13641000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>13062000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10755000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>16956000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>13316000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>12720000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>10186000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>17134000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>13206000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>654000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3294000</v>
       </c>
-      <c r="E18" s="3">
-        <v>1946000</v>
-      </c>
       <c r="F18" s="3">
+        <v>1943000</v>
+      </c>
+      <c r="G18" s="3">
         <v>5277000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2546000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3158000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3130000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2306000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2609000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3010000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2318000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1918000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2424000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2850000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2719000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2013000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2431000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2844000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3028000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1807000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2570000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2924000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2990000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1863000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2381000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>2821000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,408 +1616,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E20" s="3">
         <v>95000</v>
       </c>
-      <c r="E20" s="3">
-        <v>129000</v>
-      </c>
       <c r="F20" s="3">
+        <v>132000</v>
+      </c>
+      <c r="G20" s="3">
         <v>124000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>174000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>119000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>125000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>126000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>87000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>83000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>86000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>94000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>314000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>55000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-7000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>87000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>190000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>158000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>36000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>95000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>289000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>122000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>8000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>113000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-21000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1688000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4048000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2715000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5956000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3567000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3927000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3908000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2992000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3513000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3702000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2993000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2545000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3536000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3483000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3270000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2598000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3384000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3568000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3638000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2398000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3624000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3619000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3552000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>2453000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>3117000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>3457000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>273000</v>
+      </c>
+      <c r="E22" s="3">
         <v>190000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>236000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>240000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1132000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>232000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>241000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>258000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>339000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>260000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>236000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>301000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>530000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>236000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>145000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>232000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>686000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>305000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>164000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>245000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>528000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>270000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>224000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>255000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>529000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>286000</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>506000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3199000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1839000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5161000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1588000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3045000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3014000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2174000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2357000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2833000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2168000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1711000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2208000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2669000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2567000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1868000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1935000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2697000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2900000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1657000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2331000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2776000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2774000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1721000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1831000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>2604000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E24" s="3">
         <v>389000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>393000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>888000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>247000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>612000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>642000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>451000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>498000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>526000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>510000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>360000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>409000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>559000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>524000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>475000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-4050000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>112000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>293000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>303000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>526000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>620000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>656000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>392000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>414000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>600000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>535000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2810000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1446000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4273000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1341000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2433000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2372000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1723000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1859000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2307000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1658000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1351000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1799000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2110000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2043000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1393000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5985000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2585000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2607000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1354000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1805000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2156000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2118000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1329000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1417000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2004000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>518000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2788000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1429000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4261000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1322000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2414000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2358000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1714000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1845000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2291000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1646000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1338000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1787000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2100000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2035000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1384000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5972000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2574000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2597000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1342000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1789000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2143000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2105000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1316000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1398000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,28 +2361,31 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-86000</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-190000</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -2341,35 +2402,35 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-21000</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>29000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>882000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-76000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-777000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-1000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-2500000</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2610,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-125000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-95000</v>
       </c>
-      <c r="E32" s="3">
-        <v>-129000</v>
-      </c>
       <c r="F32" s="3">
+        <v>-132000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-124000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-174000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-119000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-125000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-126000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-87000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-83000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-86000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-94000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-314000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-55000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>7000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-87000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-190000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-158000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-36000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-95000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-289000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-122000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-8000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-113000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>21000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-69000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>518000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2702000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1429000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4261000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1322000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2224000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2358000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1714000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1845000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2291000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1646000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1338000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1766000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2100000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2035000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1413000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6854000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2498000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1820000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1341000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-711000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2143000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2105000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1316000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1398000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>518000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2702000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1429000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4261000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1322000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2224000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2358000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1714000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1845000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2291000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1646000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1338000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1766000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2100000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2035000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1413000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6854000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2498000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1820000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1341000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-711000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2143000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2105000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1316000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1398000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44807</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44723</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44639</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44443</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44359</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44275</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44191</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44079</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43995</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43911</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43827</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43715</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43631</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43547</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43463</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43351</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43267</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43183</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43099</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42987</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42903</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42819</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,728 +3094,756 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4954000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6415000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5405000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6561000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5596000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6506000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5449000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5661000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8185000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9094000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8927000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11089000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5509000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5494000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3293000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5072000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8721000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>11991000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13858000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>13443000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>10610000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>10243000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>10282000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>9528000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>9158000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>10256000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>394000</v>
+      </c>
+      <c r="E42" s="3">
         <v>327000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>287000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>343000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>392000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>344000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>328000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>964000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1366000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>611000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>196000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>158000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>229000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>287000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>291000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>289000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>272000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1907000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>4271000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>7167000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>8900000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>8035000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>6878000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>6461000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>6967000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>4524000</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10163000</v>
+      </c>
+      <c r="E43" s="3">
         <v>10739000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10498000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9424000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8680000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9545000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9722000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8885000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8404000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9295000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8780000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8477000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7822000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8735000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8502000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7604000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7142000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7975000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7841000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7171000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7024000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7923000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>7543000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>6848000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>6694000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>7745000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5222000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5019000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5287000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4762000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4347000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4364000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5006000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4556000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4172000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4135000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4314000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3600000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3338000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3667000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3988000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3554000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3128000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3142000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3491000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3335000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2947000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3251000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3612000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3282000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2723000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3120000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>806000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1043000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1156000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1252000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2768000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2951000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1092000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1130000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>874000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>925000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>972000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>944000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>747000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1015000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1138000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1398000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2630000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>827000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>909000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1931000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1546000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>745000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>933000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1031000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>908000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1454000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21539000</v>
+      </c>
+      <c r="E46" s="3">
         <v>23543000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>22633000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>22342000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>21783000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>23710000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>21597000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>21196000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>23001000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>24060000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>23189000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>24268000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17645000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>19198000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17212000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17917000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>21893000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>25842000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>30370000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>33047000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>31027000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>30197000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>29248000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>27150000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>26450000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>27099000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3073000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3224000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3519000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3595000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2627000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2791000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2774000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2777000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2792000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2752000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2715000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2719000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2683000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2690000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2510000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2476000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2409000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2394000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2401000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2115000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2042000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1950000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1962000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2003000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2055000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1975000</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>24291000</v>
+      </c>
+      <c r="E48" s="3">
         <v>22800000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>22694000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>22017000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>22407000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>21257000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>21619000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>21249000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21369000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19726000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19187000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18980000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>20853000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>19085000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18915000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>18966000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>17589000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>16541000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>16762000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>17141000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>17240000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>16960000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>16742000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>16649000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>53409000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>16305000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>33788000</v>
+      </c>
+      <c r="E49" s="3">
         <v>35540000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>35638000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>36212000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>37046000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>37406000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>38317000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>38110000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>38072000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>37789000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>36840000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>31444000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>31544000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>31150000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>31213000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>30920000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>30633000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>27798000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>28221000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>28638000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>28582000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>28585000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>28383000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>28181000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>27863000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>27675000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4005,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9496000</v>
+      </c>
+      <c r="E52" s="3">
         <v>9354000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8619000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8796000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8514000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8090000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8078000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7892000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7684000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7714000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7594000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7651000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5822000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5321000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5234000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5187000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5124000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1057000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>977000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>946000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>913000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>771000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>608000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>639000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1167000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>843000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>92187000</v>
+      </c>
+      <c r="E54" s="3">
         <v>94461000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>93103000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>92962000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>92377000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>93254000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>92385000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>91224000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>92918000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>92041000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>89525000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>85062000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>78547000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>77444000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>75084000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>75466000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>77648000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>73632000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>78731000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>81887000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>79804000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>78463000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>76943000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>74622000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>73490000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>73897000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,168 +4318,175 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>23371000</v>
+      </c>
+      <c r="E57" s="3">
         <v>22544000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>21191000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>20365000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>21159000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>20060000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>19359000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>18019000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>19592000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19317000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>17220000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16196000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>17099000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>16795000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>16055000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>15419000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>18112000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>15230000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>14603000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>14285000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>15017000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>14641000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>13834000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>13067000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>20401000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>14305000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3414000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3109000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6032000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5459000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4308000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4234000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4264000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4674000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3780000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6692000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6607000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5882000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2920000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2924000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3473000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3291000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4026000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4474000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>9955000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>11600000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5485000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>7717000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>8279000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>8577000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>13784000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>6284000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4363,13 +4500,13 @@
         <v>0</v>
       </c>
       <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
         <v>753000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>783000</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
@@ -4386,20 +4523,20 @@
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P59" s="3">
         <v>442000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>412000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>400000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>380000</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>8</v>
@@ -4410,8 +4547,8 @@
       <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
+      <c r="W59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X59" s="3">
         <v>0</v>
@@ -4419,257 +4556,269 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-      <c r="Z59" s="3" t="s">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>8085000</v>
       </c>
-      <c r="AB59" s="3" t="s">
+      <c r="AC59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>26785000</v>
+      </c>
+      <c r="E60" s="3">
         <v>25653000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>27223000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>25824000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>26220000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>25077000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>23623000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>22693000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>23372000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>26009000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>23827000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>22078000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>20461000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>20131000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>19928000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19090000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>22138000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>19704000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>24558000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>25885000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>20502000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>22358000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>22113000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>21644000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>21135000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>20589000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>35657000</v>
+      </c>
+      <c r="E61" s="3">
         <v>36136000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>33247000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>34590000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>36026000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>37023000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>38034000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>38991000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>40370000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>37879000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>38371000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>35361000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>29148000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>29630000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>27712000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>28458000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>28295000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>30643000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>30638000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>31931000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>33796000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>31452000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>31205000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>30081000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>30053000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>29322000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12472000</v>
+      </c>
+      <c r="E62" s="3">
         <v>13537000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13959000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14228000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13980000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>15164000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>15330000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>15487000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15624000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14558000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14740000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14064000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14070000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13459000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13407000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13622000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>12613000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>12896000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>13314000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>13086000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>14525000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>11242000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>11095000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>11214000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>11103000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>11268000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>75038000</v>
+      </c>
+      <c r="E66" s="3">
         <v>75484000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>74550000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>74760000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>76334000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>77382000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>77086000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>77277000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>79464000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>78558000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>77034000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>71597000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>63761000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>63315000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>61132000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>61264000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>63130000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>63346000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>68620000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>71004000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>68915000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>65168000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>64539000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>63053000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>62395000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>61295000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5241,25 +5409,28 @@
         <v>0</v>
       </c>
       <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
         <v>-156000</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Y70" s="3">
         <v>-155000</v>
-      </c>
-      <c r="Y70" s="3">
-        <v>-153000</v>
       </c>
       <c r="Z70" s="3">
         <v>-153000</v>
       </c>
       <c r="AA70" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="AB70" s="3">
         <v>-151000</v>
       </c>
-      <c r="AB70" s="3">
+      <c r="AC70" s="3">
         <v>-148000</v>
       </c>
     </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>67800000</v>
+      </c>
+      <c r="E72" s="3">
         <v>68872000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>67763000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>67934000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>65165000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>65336000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>64605000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>63740000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>63443000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>63013000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>62145000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>61920000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>61946000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>61514000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>60752000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>60060000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>59947000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>54404000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>53223000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>52726000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>52839000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>54698000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>53706000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>52756000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>52518000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>52200000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17149000</v>
+      </c>
+      <c r="E76" s="3">
         <v>18977000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>18553000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>18202000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>16043000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15872000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15299000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13947000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13454000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13483000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12491000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13465000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14786000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14129000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13952000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14202000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14518000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10286000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10111000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10883000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>11045000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>13450000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>12557000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>11722000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>11246000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>12750000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44807</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44723</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44639</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44443</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44359</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44275</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44191</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44079</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43995</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43911</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43827</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43715</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43631</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43547</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43463</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43351</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43267</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43183</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43099</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42987</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42903</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42819</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>518000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2702000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1429000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4261000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1322000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2224000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2358000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1714000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1845000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2291000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1646000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1338000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1766000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2100000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2035000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1413000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6854000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2498000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1820000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1341000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-711000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2143000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2105000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1316000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1398000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6211,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>909000</v>
+      </c>
+      <c r="E83" s="3">
         <v>659000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>640000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>555000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>847000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>650000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>653000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>560000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>817000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>609000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>589000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>533000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>798000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>578000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>558000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>498000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>763000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>566000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>574000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>496000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>765000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>573000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>554000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>477000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>757000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>567000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4505000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4425000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2055000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-174000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4982000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4294000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3059000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-719000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4490000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4661000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2211000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-749000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4586000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3675000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1733000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-345000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4683000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3645000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2396000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1309000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3943000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3836000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2444000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-193000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>3849000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>3717000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6823,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2651000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1057000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-977000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-522000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2349000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-971000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-834000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-471000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2166000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-886000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-704000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-484000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2273000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-792000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-725000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-442000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1704000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-633000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-593000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-352000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1495000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-596000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-561000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-634000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2948000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1294000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7070,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2739000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1863000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-783000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2955000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2239000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-914000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-210000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>94000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2858000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1999000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5837000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-925000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2152000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1014000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-971000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2300000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1034000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1771000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>2431000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1396000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2125000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1707000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-840000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>269000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-4117000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1423000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,88 +7186,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1586000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1589000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1492000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1505000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1487000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1486000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1413000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1429000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1415000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1417000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1328000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1349000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1333000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1336000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1303000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1332000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1309000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1316000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1145000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1160000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1148000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1149000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1077000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-1098000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-1083000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-1084000</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7516,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2916000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1475000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2352000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1780000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3559000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2277000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3056000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1888000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2592000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2560000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1509000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>7462000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2660000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-390000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2563000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2876000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4898000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-7213000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4340000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2682000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1411000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2193000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-839000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>257000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-556000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1636000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-268000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-114000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-66000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-17000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-84000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-42000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>22000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-10000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>55000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>68000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-186000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-66000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>89000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-33000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>57000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-25000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-54000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-68000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>49000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-29000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>40000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-7000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>43000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-234000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1418000</v>
+      </c>
+      <c r="E102" s="3">
         <v>973000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1146000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>984000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-900000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1061000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-185000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2523000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-905000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>170000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2303000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5722000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-137000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2236000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1834000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5464000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1274000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1851000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>419000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2818000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>378000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-24000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>758000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>376000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1098000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>610000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PEP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PEP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>PEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,372 +665,385 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45010</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44807</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44723</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44639</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44443</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44359</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44275</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44191</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44079</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43995</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43911</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43715</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43631</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43547</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43463</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43351</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43267</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43183</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43099</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42987</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42903</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42819</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>17846000</v>
+      </c>
+      <c r="E8" s="3">
         <v>27996000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>21971000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>20225000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>16200000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>25248000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>20189000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>19217000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14820000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>22455000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>18091000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15945000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13881000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>20640000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>17188000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>16449000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12884000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>19524000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>16485000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>16090000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>12562000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>19526000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>16240000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>15710000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>12049000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>19515000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>16027000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7989000</v>
+      </c>
+      <c r="E9" s="3">
         <v>13204000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10296000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9414000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7288000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12114000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9385000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8877000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6669000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10398000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8144000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7068000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6125000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9331000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7684000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7302000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5666000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8933000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7527000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7263000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>5655000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>9079000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>7368000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>7056000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>5290000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>8944000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>7284000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9857000</v>
+      </c>
+      <c r="E10" s="3">
         <v>14792000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>11675000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10811000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8912000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>13134000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>10804000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>10340000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8151000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12057000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9947000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8877000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7756000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>11309000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9504000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>9147000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7218000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>10591000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8958000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8827000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6907000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>10447000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>8872000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>8654000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>6759000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>10571000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>8743000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,8 +1073,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1143,8 +1157,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,91 +1243,97 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E14" s="3">
         <v>2387000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>133000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1555000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-2773000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>114000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>49000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>59000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>33000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>339000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>103000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>242000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>63000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>370000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>105000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>282000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>41000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>272000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>35000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>32000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>8000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>164000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>6000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>34000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>26000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>54000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1359,8 +1382,8 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>8</v>
+      <c r="S15" s="3">
+        <v>0</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>8</v>
@@ -1377,23 +1400,26 @@
       <c r="X15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y15" s="3">
-        <v>16000</v>
+      <c r="Y15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z15" s="3">
         <v>16000</v>
       </c>
       <c r="AA15" s="3">
+        <v>16000</v>
+      </c>
+      <c r="AB15" s="3">
         <v>13000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>21000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1446,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15218000</v>
+      </c>
+      <c r="E17" s="3">
         <v>27342000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18677000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18282000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10923000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>22702000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>17031000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>16087000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12514000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19846000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15081000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13627000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11963000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>18216000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14338000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13730000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10871000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>17093000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>13641000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>13062000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10755000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>16956000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>13316000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>12720000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>10186000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>17134000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>13206000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2628000</v>
+      </c>
+      <c r="E18" s="3">
         <v>654000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3294000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1943000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5277000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2546000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3158000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3130000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2306000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2609000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3010000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2318000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1918000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2424000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2850000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2719000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2013000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2431000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2844000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3028000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1807000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2570000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2924000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2990000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1863000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>2381000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>2821000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,423 +1650,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E20" s="3">
         <v>125000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>95000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>132000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>124000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>174000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>119000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>125000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>126000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>87000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>83000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>86000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>94000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>314000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>55000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-7000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>87000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>190000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>158000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>36000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>95000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>289000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>122000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>8000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>113000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-21000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3280000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1688000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4048000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2715000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5956000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3567000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3927000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3908000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2992000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3513000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3702000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2993000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2545000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3536000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3483000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3270000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2598000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3384000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3568000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3638000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2398000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3624000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3619000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3552000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>2453000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>3117000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>3457000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E22" s="3">
         <v>273000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>190000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>236000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>240000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1132000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>232000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>241000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>258000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>339000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>260000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>236000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>301000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>530000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>236000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>145000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>232000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>686000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>305000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>164000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>245000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>528000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>270000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>224000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>255000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>529000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>286000</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2490000</v>
+      </c>
+      <c r="E23" s="3">
         <v>506000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3199000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1839000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5161000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1588000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3045000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3014000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2174000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2357000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2833000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2168000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1711000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2208000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2669000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2567000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1868000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1935000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2697000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2900000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1657000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2331000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2776000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2774000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1721000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1831000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>2604000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>546000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-29000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>389000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>393000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>888000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>247000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>612000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>642000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>451000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>498000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>526000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>510000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>360000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>409000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>559000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>524000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>475000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-4050000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>112000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>293000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>303000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>526000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>620000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>656000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>392000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>414000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>600000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2164,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1944000</v>
+      </c>
+      <c r="E26" s="3">
         <v>535000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2810000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1446000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4273000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1341000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2433000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2372000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1723000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1859000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2307000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1658000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1351000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1799000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2110000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2043000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1393000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5985000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2585000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2607000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1354000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1805000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2156000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2118000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1329000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1417000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>2004000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1932000</v>
+      </c>
+      <c r="E27" s="3">
         <v>518000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2788000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1429000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4261000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1322000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2414000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2358000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1714000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1845000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2291000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1646000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1338000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1787000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2100000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2035000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1384000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5972000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2574000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2597000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1342000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1789000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2143000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2105000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1316000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1398000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,31 +2422,34 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-86000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-190000</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2405,35 +2466,35 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>29000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>882000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-76000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-777000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-1000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-2500000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,174 +2680,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-125000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-95000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-132000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-124000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-174000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-119000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-125000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-126000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-87000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-83000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-86000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-94000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-314000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-55000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>7000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-87000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-190000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-158000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-36000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-95000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-289000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-122000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-8000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-113000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>21000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-69000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1932000</v>
+      </c>
+      <c r="E33" s="3">
         <v>518000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2702000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1429000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4261000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1322000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2224000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2358000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1714000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1845000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2291000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1646000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1338000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1766000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2100000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2035000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1413000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6854000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2498000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1820000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1341000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-711000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2143000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2105000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1316000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1398000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2938,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1932000</v>
+      </c>
+      <c r="E35" s="3">
         <v>518000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2702000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1429000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4261000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1322000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2224000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2358000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1714000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1845000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2291000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1646000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1338000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1766000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2100000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2035000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1413000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6854000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2498000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1820000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1341000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-711000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2143000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2105000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1316000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1398000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45010</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44807</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44723</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44639</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44443</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44359</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44275</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44191</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44079</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43995</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43911</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43715</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43631</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43547</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43463</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43351</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43267</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43183</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43099</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42987</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42903</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42819</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,755 +3181,783 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4770000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4954000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6415000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5405000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6561000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5596000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6506000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5449000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5661000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8185000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9094000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8927000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11089000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5509000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5494000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3293000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5072000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8721000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>11991000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>13858000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>13443000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>10610000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>10243000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>10282000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>9528000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>9158000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>10256000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>434000</v>
+      </c>
+      <c r="E42" s="3">
         <v>394000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>327000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>287000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>343000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>392000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>344000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>328000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>964000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1366000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>611000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>196000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>158000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>229000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>287000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>291000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>289000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>272000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1907000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>4271000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>7167000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>8900000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>8035000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>6878000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>6461000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>6967000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>4524000</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10469000</v>
+      </c>
+      <c r="E43" s="3">
         <v>10163000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10739000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10498000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9424000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8680000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9545000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9722000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8885000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8404000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9295000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8780000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8477000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7822000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8735000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8502000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7604000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7142000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7975000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7841000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7171000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7024000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>7923000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>7543000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>6848000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>6694000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>7745000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5697000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5222000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5019000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5287000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4762000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4347000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4364000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5006000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4556000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4172000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4135000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4314000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3600000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3338000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3667000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3988000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3554000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3128000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3142000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3491000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3335000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2947000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3251000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3612000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3282000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2723000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>3120000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1057000</v>
+      </c>
+      <c r="E45" s="3">
         <v>806000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1043000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1156000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1252000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2768000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2951000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1092000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1130000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>874000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>925000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>972000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>944000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>747000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1015000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1138000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1398000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2630000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>827000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>909000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1931000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1546000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>745000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>933000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1031000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>908000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1454000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>22427000</v>
+      </c>
+      <c r="E46" s="3">
         <v>21539000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>23543000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>22633000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>22342000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>21783000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>23710000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>21597000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>21196000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>23001000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>24060000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>23189000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>24268000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17645000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>19198000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17212000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>17917000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>21893000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>25842000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>30370000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>33047000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>31027000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>30197000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>29248000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>27150000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>26450000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>27099000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3123000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3073000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3224000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3519000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3595000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2627000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2791000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2774000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2777000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2792000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2752000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2715000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2719000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2683000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2690000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2510000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2476000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2409000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2394000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2401000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2115000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2042000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1950000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1962000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2003000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2055000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1975000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>24228000</v>
+      </c>
+      <c r="E48" s="3">
         <v>24291000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>22800000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>22694000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>22017000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>22407000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>21257000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>21619000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21249000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21369000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19726000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19187000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18980000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>20853000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>19085000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>18915000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>18966000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>17589000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>16541000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>16762000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>17141000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>17240000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>16960000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>16742000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>16649000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>53409000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>16305000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>33612000</v>
+      </c>
+      <c r="E49" s="3">
         <v>33788000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>35540000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>35638000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>36212000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>37046000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>37406000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>38317000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>38110000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>38072000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>37789000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>36840000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>31444000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>31544000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>31150000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>31213000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>30920000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>30633000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>27798000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>28221000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>28638000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>28582000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>28585000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>28383000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>28181000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>27863000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>27675000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,91 +4125,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9652000</v>
+      </c>
+      <c r="E52" s="3">
         <v>9496000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9354000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8619000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8796000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8514000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8090000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8078000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7892000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7684000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7714000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7594000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7651000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5822000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5321000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5234000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5187000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5124000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1057000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>977000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>946000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>913000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>771000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>608000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>639000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1167000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>843000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4297,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>93042000</v>
+      </c>
+      <c r="E54" s="3">
         <v>92187000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>94461000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>93103000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>92962000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>92377000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>93254000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>92385000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>91224000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>92918000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>92041000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>89525000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>85062000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>78547000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>77444000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>75084000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>75466000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>77648000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>73632000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>78731000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>81887000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>79804000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>78463000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>76943000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>74622000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>73490000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>73897000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,179 +4449,186 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>21556000</v>
+      </c>
+      <c r="E57" s="3">
         <v>23371000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>22544000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>21191000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>20365000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>21159000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>20060000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>19359000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18019000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19592000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>19317000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>17220000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>16196000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>17099000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>16795000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>16055000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>15419000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>18112000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>15230000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>14603000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>14285000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>15017000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>14641000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>13834000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>13067000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>20401000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>14305000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4281000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3414000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3109000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6032000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5459000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4308000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4234000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4264000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4674000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3780000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6692000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6607000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5882000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2920000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2924000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3473000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3291000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4026000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4474000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>9955000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>11600000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>5485000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>7717000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>8279000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>8577000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>13784000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>6284000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>0</v>
+      <c r="D59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -4503,13 +4640,13 @@
         <v>0</v>
       </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>753000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>783000</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>8</v>
@@ -4526,20 +4663,20 @@
       <c r="O59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="3">
         <v>442000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>412000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>400000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>380000</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>8</v>
@@ -4550,8 +4687,8 @@
       <c r="W59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X59" s="3">
-        <v>0</v>
+      <c r="X59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y59" s="3">
         <v>0</v>
@@ -4559,266 +4696,278 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-      <c r="AA59" s="3" t="s">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>8085000</v>
       </c>
-      <c r="AC59" s="3" t="s">
+      <c r="AD59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>25837000</v>
+      </c>
+      <c r="E60" s="3">
         <v>26785000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>25653000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>27223000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>25824000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>26220000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>25077000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>23623000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>22693000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>23372000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>26009000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>23827000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>22078000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>20461000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>20131000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19928000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>19090000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>22138000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>19704000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>24558000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>25885000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>20502000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>22358000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>22113000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>21644000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>21135000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>20589000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>37486000</v>
+      </c>
+      <c r="E61" s="3">
         <v>35657000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>36136000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>33247000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>34590000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>36026000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>37023000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>38034000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>38991000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>40370000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>37879000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>38371000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>35361000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>29148000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>29630000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>27712000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>28458000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>28295000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>30643000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>30638000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>31931000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>33796000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>31452000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>31205000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>30081000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>30053000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>29322000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12544000</v>
+      </c>
+      <c r="E62" s="3">
         <v>12472000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13537000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13959000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>14228000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13980000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>15164000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>15330000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15487000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15624000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14558000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14740000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14064000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>14070000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13459000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13407000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13622000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>12613000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>12896000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>13314000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>13086000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>14525000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>11242000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>11095000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>11214000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>11103000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>11268000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5221,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>76000000</v>
+      </c>
+      <c r="E66" s="3">
         <v>75038000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>75484000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>74550000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>74760000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>76334000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>77382000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>77086000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>77277000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>79464000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>78558000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>77034000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>71597000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>63761000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>63315000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>61132000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>61264000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>63130000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>63346000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>68620000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>71004000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>68915000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>65168000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>64539000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>63053000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>62395000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>61295000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5412,25 +5580,28 @@
         <v>0</v>
       </c>
       <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
         <v>-156000</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="Z70" s="3">
         <v>-155000</v>
-      </c>
-      <c r="Z70" s="3">
-        <v>-153000</v>
       </c>
       <c r="AA70" s="3">
         <v>-153000</v>
       </c>
       <c r="AB70" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="AC70" s="3">
         <v>-151000</v>
       </c>
-      <c r="AC70" s="3">
+      <c r="AD70" s="3">
         <v>-148000</v>
       </c>
     </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5683,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>68142000</v>
+      </c>
+      <c r="E72" s="3">
         <v>67800000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>68872000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>67763000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>67934000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>65165000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>65336000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>64605000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>63740000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>63443000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>63013000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>62145000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>61920000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>61946000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>61514000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>60752000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>60060000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>59947000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>54404000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>53223000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>52726000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>52839000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>54698000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>53706000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>52756000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>52518000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>52200000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6027,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17042000</v>
+      </c>
+      <c r="E76" s="3">
         <v>17149000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>18977000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>18553000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>18202000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>16043000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15872000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>15299000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13947000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13454000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13483000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12491000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13465000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14786000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14129000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13952000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14202000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14518000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10286000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10111000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10883000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>11045000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>13450000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>12557000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>11722000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>11246000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>12750000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6199,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45010</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44807</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44723</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44639</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44443</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44359</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44275</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44191</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44079</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43995</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43911</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43715</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43631</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43547</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43463</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43351</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43267</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43183</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43099</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42987</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42903</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42819</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1932000</v>
+      </c>
+      <c r="E81" s="3">
         <v>518000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2702000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1429000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4261000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1322000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2224000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2358000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1714000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1845000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2291000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1646000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1338000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1766000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2100000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2035000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1413000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6854000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2498000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1820000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1341000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-711000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2143000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2105000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1316000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1398000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,91 +6410,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>590000</v>
+      </c>
+      <c r="E83" s="3">
         <v>909000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>659000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>640000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>555000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>847000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>650000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>653000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>560000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>817000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>609000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>589000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>533000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>798000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>578000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>558000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>498000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>763000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>566000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>574000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>496000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>765000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>573000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>554000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>477000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>757000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>567000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6924,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-392000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4505000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4425000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2055000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-174000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4982000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4294000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3059000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-719000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4490000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4661000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2211000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-749000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4586000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3675000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1733000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-345000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4683000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3645000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2396000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1309000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3943000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3836000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2444000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-193000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>3849000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>3717000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,91 +7044,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-581000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2651000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1057000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-977000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-522000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2349000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-971000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-834000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-471000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2166000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-886000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-704000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-484000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2273000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-792000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-725000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-442000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1704000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-633000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-593000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-352000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1495000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-596000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-561000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-634000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-2948000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-1294000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7300,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-532000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2739000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1863000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-783000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>2955000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2239000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-914000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-210000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>94000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2858000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1999000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5837000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-925000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2152000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1014000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-971000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2300000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1034000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1771000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>2431000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>1396000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2125000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1707000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-840000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>269000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-4117000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1423000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,91 +7420,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1608000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1586000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1589000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1492000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1505000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1487000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1486000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1413000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1429000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1415000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1417000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1328000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1349000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1333000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1336000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1303000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1332000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1309000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1316000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1145000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1160000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1148000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1149000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-1077000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-1098000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-1083000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-1084000</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,253 +7762,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>777000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2916000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1475000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2352000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1780000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3559000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2277000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3056000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1888000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2592000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2560000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1509000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>7462000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2660000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-390000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2563000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2876000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4898000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-7213000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4340000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2682000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1411000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2193000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-839000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>257000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-556000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-1636000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-116000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-268000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-114000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-66000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-17000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-84000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-42000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>22000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-10000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>55000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>68000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-186000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-66000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>89000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-35000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-33000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>57000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-25000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-54000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-68000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>49000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-29000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>40000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-7000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>43000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-234000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-263000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1418000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>973000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1146000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>984000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-900000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1061000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-185000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2523000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-905000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>170000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2303000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5722000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-137000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2236000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1834000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5464000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1274000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1851000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>419000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2818000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>378000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-24000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>758000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>376000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1098000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>610000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PEP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PEP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>PEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,385 +665,398 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45094</v>
+      </c>
+      <c r="E7" s="2">
         <v>45010</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44807</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44723</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44443</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44359</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44275</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44191</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44079</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43995</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43911</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43715</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43631</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43547</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43463</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43351</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43267</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43183</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43099</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42987</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42903</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42819</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>22322000</v>
+      </c>
+      <c r="E8" s="3">
         <v>17846000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>27996000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>21971000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>20225000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16200000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>25248000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>20189000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19217000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14820000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>22455000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>18091000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>15945000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>13881000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>20640000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>17188000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>16449000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12884000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>19524000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>16485000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>16090000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>12562000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>19526000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>16240000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>15710000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>12049000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>19515000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>16027000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10119000</v>
+      </c>
+      <c r="E9" s="3">
         <v>7989000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13204000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10296000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9414000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7288000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12114000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9385000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8877000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6669000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10398000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8144000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7068000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6125000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>9331000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7684000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7302000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5666000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8933000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7527000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7263000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>5655000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>9079000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>7368000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>7056000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>5290000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>8944000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>7284000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>12203000</v>
+      </c>
+      <c r="E10" s="3">
         <v>9857000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>14792000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>11675000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10811000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8912000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>13134000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>10804000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10340000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8151000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12057000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9947000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8877000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7756000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>11309000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>9504000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>9147000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7218000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>10591000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8958000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8827000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6907000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>10447000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>8872000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>8654000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>6759000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>10571000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>8743000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1074,8 +1087,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1160,8 +1174,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,94 +1263,100 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>209000</v>
+      </c>
+      <c r="E14" s="3">
         <v>103000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2387000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>133000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1555000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-2773000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>114000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>49000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>59000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>33000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>339000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>103000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>242000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>63000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>370000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>105000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>282000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>41000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>272000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>35000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>32000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>8000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>164000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>6000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>34000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>26000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>54000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1385,8 +1408,8 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>8</v>
+      <c r="T15" s="3">
+        <v>0</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>8</v>
@@ -1403,23 +1426,26 @@
       <c r="Y15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z15" s="3">
-        <v>16000</v>
+      <c r="Z15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA15" s="3">
         <v>16000</v>
       </c>
       <c r="AB15" s="3">
+        <v>16000</v>
+      </c>
+      <c r="AC15" s="3">
         <v>13000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>21000</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,180 +1473,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>18663000</v>
+      </c>
+      <c r="E17" s="3">
         <v>15218000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>27342000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18677000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18282000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10923000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>22702000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>17031000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16087000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12514000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>19846000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15081000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13627000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11963000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>18216000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14338000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13730000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10871000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>17093000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>13641000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>13062000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>10755000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>16956000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>13316000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>12720000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>10186000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>17134000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>13206000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3659000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2628000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>654000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3294000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1943000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5277000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2546000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3158000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3130000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2306000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2609000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3010000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2318000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1918000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2424000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2850000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2719000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2013000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2431000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2844000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3028000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1807000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2570000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2924000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2990000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1863000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>2381000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>2821000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,438 +1684,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E20" s="3">
         <v>62000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>125000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>95000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>132000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>124000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>174000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>119000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>125000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>126000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>87000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>83000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>86000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>94000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>314000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>55000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-7000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>87000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>190000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>158000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>36000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>95000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>289000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>122000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>8000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>113000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-21000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4397000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3280000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1688000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4048000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2715000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5956000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3567000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3927000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3908000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2992000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3513000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3702000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2993000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2545000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3536000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3483000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3270000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2598000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3384000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3568000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3638000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2398000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3624000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3619000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>3552000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>2453000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>3117000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>3457000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>201000</v>
+      </c>
+      <c r="E22" s="3">
         <v>200000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>273000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>190000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>236000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>240000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1132000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>232000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>241000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>258000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>339000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>260000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>236000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>301000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>530000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>236000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>145000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>232000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>686000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>305000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>164000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>245000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>528000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>270000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>224000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>255000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>529000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>286000</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3518000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2490000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>506000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3199000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1839000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5161000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1588000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3045000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3014000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2174000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2357000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2833000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2168000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1711000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2208000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2669000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2567000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1868000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1935000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2697000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2900000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1657000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2331000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2776000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2774000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1721000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1831000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>2604000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>747000</v>
+      </c>
+      <c r="E24" s="3">
         <v>546000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-29000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>389000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>393000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>888000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>247000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>612000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>642000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>451000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>498000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>526000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>510000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>360000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>409000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>559000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>524000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>475000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-4050000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>112000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>293000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>303000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>526000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>620000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>656000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>392000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>414000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>600000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,180 +2216,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2771000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1944000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>535000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2810000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1446000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4273000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1341000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2433000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2372000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1723000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1859000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2307000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1658000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1351000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1799000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2110000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2043000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1393000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5985000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2585000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2607000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1354000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1805000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2156000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2118000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1329000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1417000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>2004000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2748000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1932000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>518000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2788000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1429000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4261000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1322000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2414000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2358000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1714000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1845000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2291000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1646000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1338000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1787000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2100000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2035000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1384000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>5972000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2574000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2597000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1342000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1789000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2143000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2105000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1316000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1398000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,34 +2483,37 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-86000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-190000</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2469,35 +2530,35 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-21000</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>29000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>882000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-76000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-777000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-2500000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2511,8 +2572,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2661,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,180 +2750,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-62000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-125000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-95000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-132000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-124000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-174000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-119000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-125000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-126000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-87000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-83000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-86000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-94000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-314000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-55000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>7000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-87000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-190000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-158000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-36000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-95000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-289000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-122000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-8000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-113000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>21000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-69000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2748000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1932000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>518000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2702000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1429000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4261000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1322000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2224000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2358000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1714000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1845000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2291000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1646000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1338000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1766000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2100000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2035000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1413000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>6854000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2498000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1820000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1341000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-711000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2143000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2105000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1316000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1398000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,185 +3017,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2748000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1932000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>518000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2702000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1429000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4261000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1322000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2224000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2358000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1714000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1845000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2291000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1646000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1338000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1766000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2100000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2035000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1413000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>6854000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2498000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1820000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1341000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-711000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2143000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2105000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1316000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1398000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45094</v>
+      </c>
+      <c r="E38" s="2">
         <v>45010</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44807</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44723</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44443</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44359</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44275</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44191</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44079</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43995</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43911</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43715</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43631</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43547</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43463</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43351</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43267</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43183</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43099</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42987</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42903</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42819</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3235,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,782 +3268,810 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6116000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4770000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4954000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6415000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5405000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6561000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5596000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6506000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5449000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5661000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8185000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9094000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8927000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11089000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5509000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5494000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3293000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5072000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8721000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>11991000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>13858000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>13443000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>10610000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>10243000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>10282000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>9528000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>9158000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>10256000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>338000</v>
+      </c>
+      <c r="E42" s="3">
         <v>434000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>394000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>327000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>287000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>343000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>392000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>344000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>328000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>964000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1366000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>611000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>196000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>158000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>229000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>287000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>291000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>289000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>272000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1907000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>4271000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>7167000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>8900000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>8035000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>6878000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>6461000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>6967000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>4524000</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11456000</v>
+      </c>
+      <c r="E43" s="3">
         <v>10469000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10163000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10739000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10498000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9424000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8680000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9545000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9722000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8885000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8404000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9295000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8780000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8477000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7822000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8735000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8502000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7604000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7142000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7975000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7841000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7171000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>7024000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>7923000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>7543000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>6848000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>6694000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>7745000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5969000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5697000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5222000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5019000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5287000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4762000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4347000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4364000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5006000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4556000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4172000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4135000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4314000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3600000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3338000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3667000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3988000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3554000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3128000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3142000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3491000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3335000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2947000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3251000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3612000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3282000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>2723000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>3120000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1075000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1057000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>806000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1043000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1156000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1252000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2768000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2951000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1092000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1130000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>874000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>925000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>972000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>944000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>747000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1015000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1138000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1398000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2630000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>827000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>909000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1931000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1546000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>745000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>933000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1031000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>908000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>1454000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>24954000</v>
+      </c>
+      <c r="E46" s="3">
         <v>22427000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>21539000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>23543000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>22633000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>22342000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>21783000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>23710000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>21597000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>21196000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>23001000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>24060000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>23189000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>24268000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17645000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>19198000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>17212000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>17917000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>21893000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>25842000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>30370000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>33047000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>31027000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>30197000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>29248000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>27150000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>26450000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>27099000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3038000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3123000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3073000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3224000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3519000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3595000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2627000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2791000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2774000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2777000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2792000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2752000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2715000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2719000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2683000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2690000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2510000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2476000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2409000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2394000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2401000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2115000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2042000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1950000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1962000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2003000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>2055000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>1975000</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>24500000</v>
+      </c>
+      <c r="E48" s="3">
         <v>24228000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>24291000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>22800000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>22694000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>22017000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>22407000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>21257000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21619000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21249000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>21369000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19726000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>19187000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>18980000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>20853000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>19085000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>18915000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>18966000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>17589000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>16541000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>16762000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>17141000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>17240000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>16960000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>16742000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>16649000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>53409000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>16305000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>33559000</v>
+      </c>
+      <c r="E49" s="3">
         <v>33612000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>33788000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>35540000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>35638000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>36212000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>37046000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>37406000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>38317000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>38110000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>38072000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>37789000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>36840000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>31444000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>31544000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>31150000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>31213000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>30920000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>30633000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>27798000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>28221000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>28638000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>28582000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>28585000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>28383000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>28181000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>27863000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>27675000</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4156,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,94 +4245,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9855000</v>
+      </c>
+      <c r="E52" s="3">
         <v>9652000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9496000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9354000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8619000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8796000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8514000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8090000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8078000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7892000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7684000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7714000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7594000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7651000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5822000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5321000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5234000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5187000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5124000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1057000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>977000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>946000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>913000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>771000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>608000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>639000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1167000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>843000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,94 +4423,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>95906000</v>
+      </c>
+      <c r="E54" s="3">
         <v>93042000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>92187000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>94461000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>93103000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>92962000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>92377000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>93254000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>92385000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>91224000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>92918000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>92041000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>89525000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>85062000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>78547000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>77444000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>75084000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>75466000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>77648000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>73632000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>78731000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>81887000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>79804000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>78463000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>76943000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>74622000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>73490000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>73897000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4547,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,188 +4580,195 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>22005000</v>
+      </c>
+      <c r="E57" s="3">
         <v>21556000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>23371000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>22544000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>21191000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>20365000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>21159000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>20060000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>19359000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18019000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>19592000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>19317000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>17220000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>16196000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>17099000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>16795000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>16055000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>15419000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>18112000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>15230000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>14603000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>14285000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>15017000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>14641000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>13834000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>13067000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>20401000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>14305000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7613000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4281000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3414000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3109000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6032000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5459000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4308000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4234000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4264000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4674000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3780000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6692000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6607000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5882000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2920000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2924000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3473000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3291000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4026000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4474000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>9955000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>11600000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>5485000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>7717000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>8279000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>8577000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>13784000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>6284000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
+      <c r="E59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -4643,13 +4780,13 @@
         <v>0</v>
       </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>753000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>783000</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>8</v>
@@ -4666,20 +4803,20 @@
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R59" s="3">
         <v>442000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>412000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>400000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>380000</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>8</v>
@@ -4690,8 +4827,8 @@
       <c r="X59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y59" s="3">
-        <v>0</v>
+      <c r="Y59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z59" s="3">
         <v>0</v>
@@ -4699,275 +4836,287 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-      <c r="AB59" s="3" t="s">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>8085000</v>
       </c>
-      <c r="AD59" s="3" t="s">
+      <c r="AE59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>29618000</v>
+      </c>
+      <c r="E60" s="3">
         <v>25837000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>26785000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>25653000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>27223000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>25824000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>26220000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>25077000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>23623000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>22693000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>23372000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>26009000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>23827000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>22078000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>20461000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>20131000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>19928000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>19090000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>22138000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>19704000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>24558000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>25885000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>20502000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>22358000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>22113000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>21644000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>21135000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>20589000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>36008000</v>
+      </c>
+      <c r="E61" s="3">
         <v>37486000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>35657000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>36136000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>33247000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>34590000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>36026000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>37023000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>38034000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>38991000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>40370000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>37879000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>38371000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>35361000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>29148000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>29630000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>27712000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>28458000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>28295000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>30643000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>30638000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>31931000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>33796000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>31452000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>31205000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>30081000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>30053000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>29322000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12455000</v>
+      </c>
+      <c r="E62" s="3">
         <v>12544000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>12472000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13537000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13959000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14228000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13980000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>15164000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15330000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15487000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15624000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14558000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14740000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>14064000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>14070000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13459000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13407000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>13622000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>12613000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>12896000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>13314000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>13086000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>14525000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>11242000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>11095000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>11214000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>11103000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>11268000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5201,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5290,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,94 +5379,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>78221000</v>
+      </c>
+      <c r="E66" s="3">
         <v>76000000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>75038000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>75484000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>74550000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>74760000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>76334000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>77382000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>77086000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>77277000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>79464000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>78558000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>77034000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>71597000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>63761000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>63315000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>61132000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>61264000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>63130000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>63346000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>68620000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>71004000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>68915000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>65168000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>64539000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>63053000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>62395000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>61295000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5503,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5590,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5679,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5583,25 +5751,28 @@
         <v>0</v>
       </c>
       <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
         <v>-156000</v>
       </c>
-      <c r="Z70" s="3">
+      <c r="AA70" s="3">
         <v>-155000</v>
-      </c>
-      <c r="AA70" s="3">
-        <v>-153000</v>
       </c>
       <c r="AB70" s="3">
         <v>-153000</v>
       </c>
       <c r="AC70" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="AD70" s="3">
         <v>-151000</v>
       </c>
-      <c r="AD70" s="3">
+      <c r="AE70" s="3">
         <v>-148000</v>
       </c>
     </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,94 +5857,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>69135000</v>
+      </c>
+      <c r="E72" s="3">
         <v>68142000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>67800000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>68872000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>67763000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>67934000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>65165000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>65336000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>64605000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>63740000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>63443000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>63013000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>62145000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>61920000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>61946000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>61514000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>60752000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>60060000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>59947000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>54404000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>53223000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>52726000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>52839000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>54698000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>53706000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>52756000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>52518000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>52200000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6035,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6124,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,94 +6213,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17685000</v>
+      </c>
+      <c r="E76" s="3">
         <v>17042000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17149000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>18977000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>18553000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>18202000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>16043000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>15872000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15299000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13947000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13454000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13483000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12491000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13465000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14786000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14129000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13952000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14202000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14518000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10286000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10111000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10883000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>11045000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>13450000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>12557000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>11722000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>11246000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>12750000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,185 +6391,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45094</v>
+      </c>
+      <c r="E80" s="2">
         <v>45010</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44807</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44723</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44443</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44359</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44275</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44191</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44079</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43995</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43911</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43715</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43631</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43547</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43463</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43351</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43267</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43183</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43099</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42987</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42903</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42819</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2748000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1932000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>518000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2702000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1429000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4261000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1322000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2224000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2358000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1714000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1845000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2291000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1646000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1338000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1766000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2100000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2035000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1413000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>6854000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2498000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1820000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1341000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-711000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2143000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2105000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1316000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1398000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,94 +6609,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>678000</v>
+      </c>
+      <c r="E83" s="3">
         <v>590000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>909000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>659000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>640000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>555000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>847000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>650000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>653000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>560000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>817000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>609000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>589000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>533000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>798000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>578000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>558000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>498000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>763000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>566000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>574000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>496000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>765000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>573000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>554000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>477000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>757000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>567000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6785,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6874,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6963,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7052,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,94 +7141,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2411000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-392000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4505000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4425000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2055000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-174000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4982000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4294000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3059000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-719000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4490000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4661000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2211000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-749000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4586000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3675000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1733000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-345000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4683000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3645000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2396000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1309000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3943000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3836000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>2444000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-193000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>3849000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>3717000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,94 +7265,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-932000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-581000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2651000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1057000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-977000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-522000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2349000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-971000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-834000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-471000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2166000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-886000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-704000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-484000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2273000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-792000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-725000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-442000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1704000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-633000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-593000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-352000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1495000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-596000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-561000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-634000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-2948000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-1294000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7441,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,94 +7530,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-891000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-532000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2739000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1863000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-783000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>2955000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2239000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-914000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-210000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>94000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2858000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1999000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5837000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-925000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2152000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1014000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-971000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2300000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1034000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1771000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>2431000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>1396000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2125000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1707000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-840000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>269000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-4117000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-1423000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,94 +7654,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1591000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1608000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1586000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1589000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1492000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1505000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1487000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1486000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1413000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1429000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1415000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1417000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1328000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1349000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1333000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1336000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1303000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1332000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1309000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1316000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1145000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1160000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1148000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-1149000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-1077000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-1098000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-1083000</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-1084000</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7830,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7919,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,262 +8008,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="E100" s="3">
         <v>777000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2916000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1475000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2352000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1780000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3559000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2277000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3056000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1888000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2592000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2560000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1509000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>7462000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2660000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-390000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2563000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2876000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4898000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-7213000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-4340000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2682000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1411000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2193000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-839000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>257000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-556000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-1636000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-116000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-268000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-114000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-66000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-17000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-84000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-42000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>22000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-10000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>55000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>68000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-186000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-66000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>89000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-35000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-33000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>57000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-25000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-54000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-68000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>49000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-29000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>40000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-7000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>43000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-234000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1405000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-263000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1418000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>973000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1146000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>984000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-900000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1061000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-185000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2523000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-905000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>170000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2303000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5722000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-137000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2236000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1834000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-5464000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1274000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1851000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>419000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2818000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>378000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-24000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>758000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>376000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-1098000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>610000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PEP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PEP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>PEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,398 +665,410 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45178</v>
+      </c>
+      <c r="E7" s="2">
         <v>45094</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45010</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44807</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44723</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44443</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44359</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44275</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44191</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44079</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43995</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43911</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43715</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43631</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43547</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43463</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43351</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43267</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43183</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43099</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42987</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42903</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42819</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>23453000</v>
+      </c>
+      <c r="E8" s="3">
         <v>22322000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>17846000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>27996000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>21971000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>20225000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16200000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>25248000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20189000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>19217000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14820000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>22455000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>18091000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>15945000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>13881000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>20640000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>17188000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>16449000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>12884000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>19524000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>16485000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>16090000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>12562000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>19526000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>16240000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>15710000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>12049000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>19515000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>16027000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10671000</v>
+      </c>
+      <c r="E9" s="3">
         <v>10119000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7989000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13204000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10296000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9414000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7288000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12114000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9385000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8877000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6669000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10398000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8144000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7068000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6125000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>9331000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7684000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7302000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5666000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8933000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7527000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7263000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>5655000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>9079000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>7368000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>7056000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>5290000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>8944000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>7284000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>12782000</v>
+      </c>
+      <c r="E10" s="3">
         <v>12203000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9857000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>14792000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>11675000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>10811000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8912000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>13134000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10804000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>10340000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8151000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>12057000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9947000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8877000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7756000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>11309000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>9504000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>9147000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7218000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>10591000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8958000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>8827000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>6907000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>10447000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>8872000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>8654000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>6759000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>10571000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>8743000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1088,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1177,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1266,97 +1282,103 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E14" s="3">
         <v>209000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>103000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2387000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>133000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1555000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-2773000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>114000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>49000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>59000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>33000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>339000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>103000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>242000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>63000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>370000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>105000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>282000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>41000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>272000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>35000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>32000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>8000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>164000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>6000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>34000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>26000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>54000</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1411,8 +1433,8 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>8</v>
+      <c r="U15" s="3">
+        <v>0</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>8</v>
@@ -1429,23 +1451,26 @@
       <c r="Z15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA15" s="3">
-        <v>16000</v>
+      <c r="AA15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB15" s="3">
         <v>16000</v>
       </c>
       <c r="AC15" s="3">
+        <v>16000</v>
+      </c>
+      <c r="AD15" s="3">
         <v>13000</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>21000</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1474,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>19438000</v>
+      </c>
+      <c r="E17" s="3">
         <v>18663000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15218000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>27342000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18677000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>18282000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10923000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>22702000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17031000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16087000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12514000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>19846000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15081000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13627000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11963000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>18216000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>14338000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>13730000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10871000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>17093000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>13641000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>13062000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>10755000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>16956000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>13316000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>12720000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>10186000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>17134000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>13206000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4015000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3659000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2628000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>654000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3294000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1943000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5277000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2546000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3158000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3130000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2306000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2609000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3010000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2318000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1918000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2424000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2850000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2719000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2013000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2431000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2844000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3028000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1807000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2570000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2924000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>2990000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1863000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>2381000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>2821000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1685,186 +1717,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E20" s="3">
         <v>60000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>62000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>125000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>95000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>132000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>124000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>174000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>119000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>125000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>126000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>87000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>83000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>86000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>94000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>314000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>55000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-7000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>87000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>190000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>158000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>36000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>95000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>289000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>122000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>8000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>113000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-21000</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4782000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4397000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3280000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1688000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4048000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2715000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5956000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3567000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3927000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3908000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2992000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3513000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3702000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2993000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2545000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3536000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3483000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3270000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2598000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3384000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3568000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3638000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2398000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3624000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>3619000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>3552000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>2453000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>3117000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>3457000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1872,266 +1911,275 @@
         <v>201000</v>
       </c>
       <c r="E22" s="3">
+        <v>201000</v>
+      </c>
+      <c r="F22" s="3">
         <v>200000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>273000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>190000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>236000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>240000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1132000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>232000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>241000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>258000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>339000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>260000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>236000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>301000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>530000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>236000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>145000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>232000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>686000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>305000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>164000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>245000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>528000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>270000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>224000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>255000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>529000</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>286000</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3876000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3518000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2490000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>506000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3199000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1839000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5161000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1588000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3045000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3014000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2174000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2357000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2833000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2168000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1711000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2208000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2669000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2567000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1868000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1935000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2697000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2900000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1657000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2331000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2776000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>2774000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1721000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>1831000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>2604000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>760000</v>
+      </c>
+      <c r="E24" s="3">
         <v>747000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>546000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-29000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>389000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>393000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>888000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>247000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>612000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>642000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>451000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>498000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>526000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>510000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>360000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>409000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>559000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>524000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>475000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-4050000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>112000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>293000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>303000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>526000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>620000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>656000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>392000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>414000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>600000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2219,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3116000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2771000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1944000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>535000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2810000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1446000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4273000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1341000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2433000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2372000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1723000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1859000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2307000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1658000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1351000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1799000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2110000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2043000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1393000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5985000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2585000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2607000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1354000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1805000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2156000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2118000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1329000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>1417000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>2004000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3092000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2748000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1932000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>518000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2788000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1429000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4261000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1322000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2414000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2358000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1714000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1845000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2291000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1646000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1338000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1787000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2100000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2035000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1384000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>5972000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2574000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2597000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1342000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1789000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2143000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>2105000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1316000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>1398000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2486,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2497,26 +2557,26 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-86000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-190000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2533,35 +2593,35 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-21000</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>29000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>882000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-76000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-777000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-2500000</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2575,8 +2635,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2664,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2753,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-60000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-62000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-125000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-95000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-132000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-124000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-174000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-119000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-125000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-126000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-87000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-83000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-86000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-94000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-314000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-55000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>7000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-87000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-190000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-158000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-36000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-95000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-289000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-122000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-8000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-113000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>21000</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-69000</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3092000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2748000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1932000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>518000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2702000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1429000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4261000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1322000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2224000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2358000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1714000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1845000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2291000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1646000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1338000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1766000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2100000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2035000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1413000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>6854000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2498000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1820000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1341000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-711000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2143000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>2105000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1316000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>1398000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3020,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3092000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2748000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1932000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>518000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2702000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1429000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4261000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1322000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2224000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2358000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1714000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1845000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2291000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1646000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1338000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1766000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2100000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2035000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1413000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>6854000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2498000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1820000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1341000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-711000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2143000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>2105000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1316000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>1398000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45178</v>
+      </c>
+      <c r="E38" s="2">
         <v>45094</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45010</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44807</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44723</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44443</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44359</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44275</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44191</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44079</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43995</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43911</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43715</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43631</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43547</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43463</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43351</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43267</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43183</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43099</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42987</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42903</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42819</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3236,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3269,809 +3354,837 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10017000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6116000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4770000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4954000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6415000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5405000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6561000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5596000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6506000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5449000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5661000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8185000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9094000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8927000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11089000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5509000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5494000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3293000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5072000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8721000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>11991000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>13858000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>13443000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>10610000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>10243000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>10282000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>9528000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>9158000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>10256000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>266000</v>
+      </c>
+      <c r="E42" s="3">
         <v>338000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>434000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>394000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>327000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>287000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>343000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>392000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>344000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>328000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>964000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1366000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>611000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>196000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>158000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>229000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>287000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>291000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>289000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>272000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1907000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>4271000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>7167000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>8900000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>8035000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>6878000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>6461000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>6967000</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>4524000</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11782000</v>
+      </c>
+      <c r="E43" s="3">
         <v>11456000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10469000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10163000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10739000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10498000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9424000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8680000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9545000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9722000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8885000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8404000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9295000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8780000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8477000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7822000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8735000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8502000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7604000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7142000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7975000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7841000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>7171000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>7024000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>7923000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>7543000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>6848000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>6694000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>7745000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5558000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5969000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5697000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5222000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5019000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5287000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4762000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4347000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4364000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5006000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4556000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4172000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4135000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4314000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3600000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3338000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3667000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3988000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3554000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3128000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3142000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3491000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3335000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2947000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3251000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3612000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>3282000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>2723000</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>3120000</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1026000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1075000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1057000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>806000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1043000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1156000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1252000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2768000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2951000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1092000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1130000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>874000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>925000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>972000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>944000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>747000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1015000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1138000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1398000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2630000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>827000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>909000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1931000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1546000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>745000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>933000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1031000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>908000</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>1454000</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>28649000</v>
+      </c>
+      <c r="E46" s="3">
         <v>24954000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>22427000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>21539000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>23543000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>22633000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>22342000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>21783000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>23710000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>21597000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>21196000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>23001000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>24060000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>23189000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>24268000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17645000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>19198000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>17212000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>17917000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>21893000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>25842000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>30370000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>33047000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>31027000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>30197000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>29248000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>27150000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>26450000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>27099000</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2955000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3038000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3123000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3073000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3224000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3519000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3595000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2627000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2791000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2774000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2777000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2792000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2752000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2715000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2719000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2683000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2690000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2510000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2476000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2409000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2394000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2401000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2115000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2042000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1950000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1962000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>2003000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>2055000</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>1975000</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>24853000</v>
+      </c>
+      <c r="E48" s="3">
         <v>24500000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>24228000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>24291000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>22800000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>22694000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>22017000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>22407000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21257000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21619000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>21249000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>21369000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>19726000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>19187000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18980000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>20853000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>19085000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>18915000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>18966000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>17589000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>16541000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>16762000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>17141000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>17240000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>16960000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>16742000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>16649000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>53409000</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>16305000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>33393000</v>
+      </c>
+      <c r="E49" s="3">
         <v>33559000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>33612000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>33788000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>35540000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>35638000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>36212000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>37046000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>37406000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>38317000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>38110000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>38072000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>37789000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>36840000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>31444000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>31544000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>31150000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>31213000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>30920000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>30633000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>27798000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>28221000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>28638000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>28582000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>28585000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>28383000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>28181000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>27863000</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>27675000</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4159,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4248,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10103000</v>
+      </c>
+      <c r="E52" s="3">
         <v>9855000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9652000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9496000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9354000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8619000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8796000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8514000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8090000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8078000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7892000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7684000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7714000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7594000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7651000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5822000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5321000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5234000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5187000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5124000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1057000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>977000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>946000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>913000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>771000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>608000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>639000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1167000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>843000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4426,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>99953000</v>
+      </c>
+      <c r="E54" s="3">
         <v>95906000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>93042000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>92187000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>94461000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>93103000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>92962000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>92377000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>93254000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>92385000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>91224000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>92918000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>92041000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>89525000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>85062000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>78547000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>77444000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>75084000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>75466000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>77648000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>73632000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>78731000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>81887000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>79804000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>78463000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>76943000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>74622000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>73490000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>73897000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4548,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4581,186 +4710,193 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>23723000</v>
+      </c>
+      <c r="E57" s="3">
         <v>22005000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>21556000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>23371000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>22544000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>21191000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>20365000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>21159000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20060000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19359000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18019000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>19592000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>19317000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>17220000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>16196000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>17099000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>16795000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>16055000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>15419000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>18112000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>15230000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>14603000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>14285000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>15017000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>14641000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>13834000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>13067000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>20401000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>14305000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8937000</v>
+      </c>
+      <c r="E58" s="3">
         <v>7613000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4281000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3414000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3109000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6032000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5459000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4308000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4234000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4264000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4674000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3780000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6692000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6607000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5882000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2920000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2924000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3473000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3291000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4026000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4474000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>9955000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>11600000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>5485000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>7717000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>8279000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>8577000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>13784000</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>6284000</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4770,8 +4906,8 @@
       <c r="E59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
+      <c r="F59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -4783,13 +4919,13 @@
         <v>0</v>
       </c>
       <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>753000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>783000</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>8</v>
@@ -4806,20 +4942,20 @@
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S59" s="3">
         <v>442000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>412000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>400000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>380000</v>
-      </c>
-      <c r="V59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W59" s="3" t="s">
         <v>8</v>
@@ -4830,8 +4966,8 @@
       <c r="Y59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z59" s="3">
-        <v>0</v>
+      <c r="Z59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA59" s="3">
         <v>0</v>
@@ -4839,284 +4975,296 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-      <c r="AC59" s="3" t="s">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>8085000</v>
       </c>
-      <c r="AE59" s="3" t="s">
+      <c r="AF59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>32660000</v>
+      </c>
+      <c r="E60" s="3">
         <v>29618000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>25837000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>26785000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>25653000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>27223000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>25824000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>26220000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>25077000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>23623000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>22693000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>23372000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>26009000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>23827000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>22078000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>20461000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>20131000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>19928000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>19090000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>22138000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>19704000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>24558000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>25885000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>20502000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>22358000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>22113000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>21644000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>21135000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>20589000</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>35837000</v>
+      </c>
+      <c r="E61" s="3">
         <v>36008000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>37486000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>35657000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>36136000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>33247000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>34590000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>36026000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>37023000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>38034000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>38991000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>40370000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>37879000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>38371000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>35361000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>29148000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>29630000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>27712000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>28458000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>28295000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>30643000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>30638000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>31931000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>33796000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>31452000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>31205000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>30081000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>30053000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>29322000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12486000</v>
+      </c>
+      <c r="E62" s="3">
         <v>12455000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>12544000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>12472000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13537000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13959000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14228000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13980000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15164000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15330000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15487000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15624000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14558000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>14740000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>14064000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>14070000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13459000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>13407000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>13622000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>12613000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>12896000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>13314000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>13086000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>14525000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>11242000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>11095000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>11214000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>11103000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>11268000</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5204,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5293,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5382,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>81147000</v>
+      </c>
+      <c r="E66" s="3">
         <v>78221000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>76000000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>75038000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>75484000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>74550000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>74760000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>76334000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>77382000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>77086000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>77277000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>79464000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>78558000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>77034000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>71597000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>63761000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>63315000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>61132000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>61264000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>63130000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>63346000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>68620000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>71004000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>68915000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>65168000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>64539000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>63053000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>62395000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>61295000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5504,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5593,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5682,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5754,25 +5921,28 @@
         <v>0</v>
       </c>
       <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
         <v>-156000</v>
       </c>
-      <c r="AA70" s="3">
+      <c r="AB70" s="3">
         <v>-155000</v>
-      </c>
-      <c r="AB70" s="3">
-        <v>-153000</v>
       </c>
       <c r="AC70" s="3">
         <v>-153000</v>
       </c>
       <c r="AD70" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="AE70" s="3">
         <v>-151000</v>
       </c>
-      <c r="AE70" s="3">
+      <c r="AF70" s="3">
         <v>-148000</v>
       </c>
     </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5860,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>70479000</v>
+      </c>
+      <c r="E72" s="3">
         <v>69135000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>68142000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>67800000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>68872000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>67763000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>67934000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>65165000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>65336000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>64605000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>63740000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>63443000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>63013000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>62145000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>61920000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>61946000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>61514000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>60752000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>60060000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>59947000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>54404000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>53223000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>52726000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>52839000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>54698000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>53706000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>52756000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>52518000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>52200000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6038,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6127,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6216,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18806000</v>
+      </c>
+      <c r="E76" s="3">
         <v>17685000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17042000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17149000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>18977000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>18553000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>18202000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>16043000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15872000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15299000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13947000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13454000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13483000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12491000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13465000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14786000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14129000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13952000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14202000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14518000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10286000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10111000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>10883000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>11045000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>13450000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>12557000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>11722000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>11246000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>12750000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6394,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45178</v>
+      </c>
+      <c r="E80" s="2">
         <v>45094</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45010</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44807</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44723</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44443</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44359</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44275</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44191</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44079</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43995</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43911</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43715</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43631</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43547</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43463</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43351</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43267</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43183</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43099</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42987</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42903</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42819</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42616</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3092000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2748000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1932000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>518000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2702000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1429000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4261000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1322000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2224000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2358000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1714000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1845000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2291000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1646000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1338000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1766000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2100000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2035000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1413000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>6854000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2498000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1820000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1341000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-711000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2143000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>2105000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1316000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>1398000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6610,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>705000</v>
+      </c>
+      <c r="E83" s="3">
         <v>678000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>590000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>909000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>659000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>640000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>555000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>847000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>650000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>653000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>560000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>817000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>609000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>589000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>533000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>798000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>578000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>558000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>498000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>763000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>566000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>574000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>496000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>765000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>573000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>554000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>477000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>757000</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>567000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6788,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6877,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6966,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7055,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7144,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5611000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2411000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-392000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4505000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4425000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2055000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-174000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4982000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4294000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3059000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-719000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4490000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4661000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2211000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-749000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4586000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3675000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1733000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-345000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4683000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3645000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2396000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1309000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3943000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>3836000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>2444000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-193000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>3849000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>3717000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7266,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1024000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-932000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-581000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2651000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1057000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-977000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-522000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2349000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-971000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-834000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-471000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2166000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-886000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-704000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-484000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2273000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-792000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-725000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-442000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1704000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-633000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-593000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-352000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1495000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-596000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-561000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-634000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-2948000</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-1294000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7444,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7533,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-956000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-891000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-532000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2739000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1863000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-783000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>2955000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2239000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-914000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-210000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>94000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2858000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1999000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5837000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-925000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2152000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1014000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-971000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2300000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1034000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>1771000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>2431000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>1396000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2125000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1707000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-840000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>269000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-4117000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-1423000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7655,97 +7887,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1742000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1591000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1608000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1586000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1589000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1492000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1505000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1487000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1486000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1413000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1429000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1415000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1417000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1328000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1349000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1333000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1336000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1303000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1332000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1309000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1316000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1145000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1160000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-1148000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-1149000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-1077000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-1098000</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-1083000</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-1084000</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7833,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7922,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8011,271 +8253,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-656000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-87000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>777000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2916000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1475000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2352000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1780000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3559000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2277000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3056000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1888000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2592000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2560000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1509000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>7462000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2660000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-390000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2563000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2876000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4898000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-7213000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-4340000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2682000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1411000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-2193000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-839000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>257000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-556000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-1636000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-110000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-28000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-116000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-268000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-114000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-66000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-17000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-84000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-42000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>22000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-10000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>55000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>68000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-186000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-66000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>89000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-35000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-33000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>57000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-25000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-54000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-68000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>49000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-29000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>40000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-7000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>43000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-234000</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3889000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1405000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-263000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1418000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>973000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1146000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>984000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-900000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1061000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-185000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2523000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-905000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>170000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2303000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5722000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-137000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2236000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1834000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-5464000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1274000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1851000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>419000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>2818000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>378000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-24000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>758000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>376000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-1098000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>610000</v>
       </c>
     </row>
